--- a/Robust Optimization Project Schedule.xlsx
+++ b/Robust Optimization Project Schedule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annkathrin\Documents\Meine Dateien\Lehrveranstaltungen\Mathe\Fallstudien\Optimalsteuerung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data\Texte, Tabellen und Präsentationen\Studium\10. Semester\Fallstudien Nichtlineare Optmierung\Optimalsteuerung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="823" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="823" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Some Hints and Explanations" sheetId="3" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="391">
   <si>
     <t>some hints and explanations concerning this template</t>
   </si>
@@ -1221,6 +1221,12 @@
   <si>
     <t>Implemented Changes</t>
   </si>
+  <si>
+    <t>Präsentation überarbeiten</t>
+  </si>
+  <si>
+    <t>26.5.</t>
+  </si>
 </sst>
 </file>
 
@@ -1633,7 +1639,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1642,7 +1651,7 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1651,13 +1660,10 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1713,6 +1719,9 @@
           <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <fill>
@@ -1893,9 +1902,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1978,7 +1984,7 @@
   <autoFilter ref="A3:D37"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Task"/>
-    <tableColumn id="2" name="Time Spent (hours)" dataDxfId="23"/>
+    <tableColumn id="2" name="Time Spent (hours)" dataDxfId="5"/>
     <tableColumn id="3" name="When"/>
     <tableColumn id="4" name="Notes"/>
   </tableColumns>
@@ -1987,8 +1993,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A3:D26" totalsRowShown="0">
-  <autoFilter ref="A3:D26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A3:D27" totalsRowShown="0">
+  <autoFilter ref="A3:D27"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Task"/>
     <tableColumn id="2" name="Time Spent (hours)"/>
@@ -2381,7 +2387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L337"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
@@ -11023,17 +11029,17 @@
     <sortCondition ref="E40:E49"/>
   </sortState>
   <conditionalFormatting sqref="A15:B304">
-    <cfRule type="expression" dxfId="22" priority="79">
+    <cfRule type="expression" dxfId="23" priority="79">
       <formula>(MID($A15,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:XFD302">
-    <cfRule type="expression" dxfId="21" priority="83">
+    <cfRule type="expression" dxfId="22" priority="83">
       <formula>(MID($A3,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B302">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>(MID($A3,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11090,385 +11096,385 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:104" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59"/>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="59"/>
-      <c r="BB1" s="59"/>
-      <c r="BC1" s="59"/>
-      <c r="BD1" s="59"/>
-      <c r="BE1" s="59"/>
-      <c r="BF1" s="59"/>
-      <c r="BG1" s="59"/>
-      <c r="BH1" s="59"/>
-      <c r="BI1" s="59"/>
-      <c r="BJ1" s="59"/>
-      <c r="BK1" s="59"/>
-      <c r="BL1" s="59"/>
-      <c r="BM1" s="59"/>
-      <c r="BN1" s="59"/>
-      <c r="BO1" s="59"/>
-      <c r="BP1" s="59"/>
-      <c r="BQ1" s="59"/>
-      <c r="BR1" s="59"/>
-      <c r="BS1" s="59"/>
-      <c r="BT1" s="59"/>
-      <c r="BU1" s="59"/>
-      <c r="BV1" s="59"/>
-      <c r="BW1" s="59"/>
-      <c r="BX1" s="59"/>
-      <c r="BY1" s="59"/>
-      <c r="BZ1" s="59"/>
-      <c r="CA1" s="59"/>
-      <c r="CB1" s="59"/>
-      <c r="CC1" s="59"/>
-      <c r="CD1" s="59"/>
-      <c r="CE1" s="59"/>
-      <c r="CF1" s="59"/>
-      <c r="CG1" s="59"/>
-      <c r="CH1" s="59"/>
-      <c r="CI1" s="59"/>
-      <c r="CJ1" s="59"/>
-      <c r="CK1" s="59"/>
-      <c r="CL1" s="59"/>
-      <c r="CM1" s="59"/>
-      <c r="CN1" s="59"/>
-      <c r="CO1" s="59"/>
-      <c r="CP1" s="59"/>
-      <c r="CQ1" s="59"/>
-      <c r="CR1" s="59"/>
-      <c r="CS1" s="59"/>
-      <c r="CT1" s="59"/>
-      <c r="CU1" s="59"/>
-      <c r="CV1" s="59"/>
-      <c r="CW1" s="59"/>
-      <c r="CX1" s="59"/>
-      <c r="CY1" s="59"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="53"/>
+      <c r="BB1" s="53"/>
+      <c r="BC1" s="53"/>
+      <c r="BD1" s="53"/>
+      <c r="BE1" s="53"/>
+      <c r="BF1" s="53"/>
+      <c r="BG1" s="53"/>
+      <c r="BH1" s="53"/>
+      <c r="BI1" s="53"/>
+      <c r="BJ1" s="53"/>
+      <c r="BK1" s="53"/>
+      <c r="BL1" s="53"/>
+      <c r="BM1" s="53"/>
+      <c r="BN1" s="53"/>
+      <c r="BO1" s="53"/>
+      <c r="BP1" s="53"/>
+      <c r="BQ1" s="53"/>
+      <c r="BR1" s="53"/>
+      <c r="BS1" s="53"/>
+      <c r="BT1" s="53"/>
+      <c r="BU1" s="53"/>
+      <c r="BV1" s="53"/>
+      <c r="BW1" s="53"/>
+      <c r="BX1" s="53"/>
+      <c r="BY1" s="53"/>
+      <c r="BZ1" s="53"/>
+      <c r="CA1" s="53"/>
+      <c r="CB1" s="53"/>
+      <c r="CC1" s="53"/>
+      <c r="CD1" s="53"/>
+      <c r="CE1" s="53"/>
+      <c r="CF1" s="53"/>
+      <c r="CG1" s="53"/>
+      <c r="CH1" s="53"/>
+      <c r="CI1" s="53"/>
+      <c r="CJ1" s="53"/>
+      <c r="CK1" s="53"/>
+      <c r="CL1" s="53"/>
+      <c r="CM1" s="53"/>
+      <c r="CN1" s="53"/>
+      <c r="CO1" s="53"/>
+      <c r="CP1" s="53"/>
+      <c r="CQ1" s="53"/>
+      <c r="CR1" s="53"/>
+      <c r="CS1" s="53"/>
+      <c r="CT1" s="53"/>
+      <c r="CU1" s="53"/>
+      <c r="CV1" s="53"/>
+      <c r="CW1" s="53"/>
+      <c r="CX1" s="53"/>
+      <c r="CY1" s="53"/>
       <c r="CZ1" s="11"/>
     </row>
     <row r="2" spans="1:104" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="53" t="s">
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="53" t="s">
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="53" t="s">
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="53" t="s">
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="53" t="s">
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="53" t="s">
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="54"/>
-      <c r="BB2" s="54"/>
-      <c r="BC2" s="55"/>
-      <c r="BD2" s="53" t="s">
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="55"/>
+      <c r="BB2" s="55"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="BE2" s="54"/>
-      <c r="BF2" s="54"/>
-      <c r="BG2" s="54"/>
-      <c r="BH2" s="54"/>
-      <c r="BI2" s="54"/>
-      <c r="BJ2" s="55"/>
-      <c r="BK2" s="53" t="s">
+      <c r="BE2" s="55"/>
+      <c r="BF2" s="55"/>
+      <c r="BG2" s="55"/>
+      <c r="BH2" s="55"/>
+      <c r="BI2" s="55"/>
+      <c r="BJ2" s="56"/>
+      <c r="BK2" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="BL2" s="54"/>
-      <c r="BM2" s="54"/>
-      <c r="BN2" s="54"/>
-      <c r="BO2" s="54"/>
-      <c r="BP2" s="54"/>
-      <c r="BQ2" s="55"/>
-      <c r="BR2" s="53" t="s">
+      <c r="BL2" s="55"/>
+      <c r="BM2" s="55"/>
+      <c r="BN2" s="55"/>
+      <c r="BO2" s="55"/>
+      <c r="BP2" s="55"/>
+      <c r="BQ2" s="56"/>
+      <c r="BR2" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="BS2" s="54"/>
-      <c r="BT2" s="54"/>
-      <c r="BU2" s="54"/>
-      <c r="BV2" s="54"/>
-      <c r="BW2" s="54"/>
-      <c r="BX2" s="55"/>
-      <c r="BY2" s="53" t="s">
+      <c r="BS2" s="55"/>
+      <c r="BT2" s="55"/>
+      <c r="BU2" s="55"/>
+      <c r="BV2" s="55"/>
+      <c r="BW2" s="55"/>
+      <c r="BX2" s="56"/>
+      <c r="BY2" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="BZ2" s="54"/>
-      <c r="CA2" s="54"/>
-      <c r="CB2" s="54"/>
-      <c r="CC2" s="54"/>
-      <c r="CD2" s="54"/>
-      <c r="CE2" s="55"/>
-      <c r="CF2" s="53" t="s">
+      <c r="BZ2" s="55"/>
+      <c r="CA2" s="55"/>
+      <c r="CB2" s="55"/>
+      <c r="CC2" s="55"/>
+      <c r="CD2" s="55"/>
+      <c r="CE2" s="56"/>
+      <c r="CF2" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="CG2" s="54"/>
-      <c r="CH2" s="54"/>
-      <c r="CI2" s="54"/>
-      <c r="CJ2" s="54"/>
-      <c r="CK2" s="54"/>
-      <c r="CL2" s="55"/>
-      <c r="CM2" s="53" t="s">
+      <c r="CG2" s="55"/>
+      <c r="CH2" s="55"/>
+      <c r="CI2" s="55"/>
+      <c r="CJ2" s="55"/>
+      <c r="CK2" s="55"/>
+      <c r="CL2" s="56"/>
+      <c r="CM2" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="CN2" s="54"/>
-      <c r="CO2" s="54"/>
-      <c r="CP2" s="54"/>
-      <c r="CQ2" s="54"/>
-      <c r="CR2" s="54"/>
-      <c r="CS2" s="55"/>
-      <c r="CT2" s="53" t="s">
+      <c r="CN2" s="55"/>
+      <c r="CO2" s="55"/>
+      <c r="CP2" s="55"/>
+      <c r="CQ2" s="55"/>
+      <c r="CR2" s="55"/>
+      <c r="CS2" s="56"/>
+      <c r="CT2" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="CU2" s="54"/>
-      <c r="CV2" s="54"/>
-      <c r="CW2" s="54"/>
-      <c r="CX2" s="54"/>
-      <c r="CY2" s="54"/>
-      <c r="CZ2" s="55"/>
+      <c r="CU2" s="55"/>
+      <c r="CV2" s="55"/>
+      <c r="CW2" s="55"/>
+      <c r="CX2" s="55"/>
+      <c r="CY2" s="55"/>
+      <c r="CZ2" s="56"/>
     </row>
     <row r="3" spans="1:104" x14ac:dyDescent="0.25">
-      <c r="G3" s="61">
+      <c r="G3" s="57">
         <f>G5</f>
         <v>42107</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="56">
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="61">
         <f>N5</f>
         <v>42114</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="56">
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="61">
         <f>U5</f>
         <v>42121</v>
       </c>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="56">
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="61">
         <f>AB5</f>
         <v>42128</v>
       </c>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="56">
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="61">
         <f>AI5</f>
         <v>42135</v>
       </c>
-      <c r="AJ3" s="57"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="57"/>
-      <c r="AM3" s="57"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="56">
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="61">
         <f>AP5</f>
         <v>42142</v>
       </c>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="58"/>
-      <c r="AW3" s="56">
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="58"/>
+      <c r="AU3" s="58"/>
+      <c r="AV3" s="59"/>
+      <c r="AW3" s="61">
         <f t="shared" ref="AW3" si="0">AW5</f>
         <v>42149</v>
       </c>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="57"/>
-      <c r="BC3" s="58"/>
-      <c r="BD3" s="56">
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="58"/>
+      <c r="AZ3" s="58"/>
+      <c r="BA3" s="58"/>
+      <c r="BB3" s="58"/>
+      <c r="BC3" s="59"/>
+      <c r="BD3" s="61">
         <f t="shared" ref="BD3" si="1">BD5</f>
         <v>42156</v>
       </c>
-      <c r="BE3" s="57"/>
-      <c r="BF3" s="57"/>
-      <c r="BG3" s="57"/>
-      <c r="BH3" s="57"/>
-      <c r="BI3" s="57"/>
-      <c r="BJ3" s="58"/>
-      <c r="BK3" s="56">
+      <c r="BE3" s="58"/>
+      <c r="BF3" s="58"/>
+      <c r="BG3" s="58"/>
+      <c r="BH3" s="58"/>
+      <c r="BI3" s="58"/>
+      <c r="BJ3" s="59"/>
+      <c r="BK3" s="61">
         <f t="shared" ref="BK3" si="2">BK5</f>
         <v>42163</v>
       </c>
-      <c r="BL3" s="57"/>
-      <c r="BM3" s="57"/>
-      <c r="BN3" s="57"/>
-      <c r="BO3" s="57"/>
-      <c r="BP3" s="57"/>
-      <c r="BQ3" s="58"/>
-      <c r="BR3" s="56">
+      <c r="BL3" s="58"/>
+      <c r="BM3" s="58"/>
+      <c r="BN3" s="58"/>
+      <c r="BO3" s="58"/>
+      <c r="BP3" s="58"/>
+      <c r="BQ3" s="59"/>
+      <c r="BR3" s="61">
         <f t="shared" ref="BR3" si="3">BR5</f>
         <v>42170</v>
       </c>
-      <c r="BS3" s="57"/>
-      <c r="BT3" s="57"/>
-      <c r="BU3" s="57"/>
-      <c r="BV3" s="57"/>
-      <c r="BW3" s="57"/>
-      <c r="BX3" s="58"/>
-      <c r="BY3" s="56">
+      <c r="BS3" s="58"/>
+      <c r="BT3" s="58"/>
+      <c r="BU3" s="58"/>
+      <c r="BV3" s="58"/>
+      <c r="BW3" s="58"/>
+      <c r="BX3" s="59"/>
+      <c r="BY3" s="61">
         <f t="shared" ref="BY3" si="4">BY5</f>
         <v>42177</v>
       </c>
-      <c r="BZ3" s="57"/>
-      <c r="CA3" s="57"/>
-      <c r="CB3" s="57"/>
-      <c r="CC3" s="57"/>
-      <c r="CD3" s="57"/>
-      <c r="CE3" s="58"/>
-      <c r="CF3" s="56">
+      <c r="BZ3" s="58"/>
+      <c r="CA3" s="58"/>
+      <c r="CB3" s="58"/>
+      <c r="CC3" s="58"/>
+      <c r="CD3" s="58"/>
+      <c r="CE3" s="59"/>
+      <c r="CF3" s="61">
         <f t="shared" ref="CF3" si="5">CF5</f>
         <v>42184</v>
       </c>
-      <c r="CG3" s="57"/>
-      <c r="CH3" s="57"/>
-      <c r="CI3" s="57"/>
-      <c r="CJ3" s="57"/>
-      <c r="CK3" s="57"/>
-      <c r="CL3" s="58"/>
-      <c r="CM3" s="56">
+      <c r="CG3" s="58"/>
+      <c r="CH3" s="58"/>
+      <c r="CI3" s="58"/>
+      <c r="CJ3" s="58"/>
+      <c r="CK3" s="58"/>
+      <c r="CL3" s="59"/>
+      <c r="CM3" s="61">
         <f t="shared" ref="CM3" si="6">CM5</f>
         <v>42191</v>
       </c>
-      <c r="CN3" s="57"/>
-      <c r="CO3" s="57"/>
-      <c r="CP3" s="57"/>
-      <c r="CQ3" s="57"/>
-      <c r="CR3" s="57"/>
-      <c r="CS3" s="58"/>
-      <c r="CT3" s="56">
+      <c r="CN3" s="58"/>
+      <c r="CO3" s="58"/>
+      <c r="CP3" s="58"/>
+      <c r="CQ3" s="58"/>
+      <c r="CR3" s="58"/>
+      <c r="CS3" s="59"/>
+      <c r="CT3" s="61">
         <f t="shared" ref="CT3" si="7">CT5</f>
         <v>42198</v>
       </c>
-      <c r="CU3" s="57"/>
-      <c r="CV3" s="57"/>
-      <c r="CW3" s="57"/>
-      <c r="CX3" s="57"/>
-      <c r="CY3" s="57"/>
-      <c r="CZ3" s="58"/>
+      <c r="CU3" s="58"/>
+      <c r="CV3" s="58"/>
+      <c r="CW3" s="58"/>
+      <c r="CX3" s="58"/>
+      <c r="CY3" s="58"/>
+      <c r="CZ3" s="59"/>
     </row>
     <row r="4" spans="1:104" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -23989,6 +23995,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CM3:CS3"/>
+    <mergeCell ref="CT3:CZ3"/>
+    <mergeCell ref="BY2:CE2"/>
+    <mergeCell ref="CF2:CL2"/>
+    <mergeCell ref="BY3:CE3"/>
+    <mergeCell ref="CF3:CL3"/>
+    <mergeCell ref="CM2:CS2"/>
+    <mergeCell ref="BD3:BJ3"/>
+    <mergeCell ref="BK2:BQ2"/>
+    <mergeCell ref="BR2:BX2"/>
+    <mergeCell ref="BK3:BQ3"/>
+    <mergeCell ref="BR3:BX3"/>
     <mergeCell ref="A1:CY1"/>
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="G3:M3"/>
@@ -24005,22 +24024,9 @@
     <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="AP3:AV3"/>
     <mergeCell ref="AW3:BC3"/>
-    <mergeCell ref="BD3:BJ3"/>
-    <mergeCell ref="BK2:BQ2"/>
-    <mergeCell ref="BR2:BX2"/>
-    <mergeCell ref="BK3:BQ3"/>
-    <mergeCell ref="BR3:BX3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CM3:CS3"/>
-    <mergeCell ref="CT3:CZ3"/>
-    <mergeCell ref="BY2:CE2"/>
-    <mergeCell ref="CF2:CL2"/>
-    <mergeCell ref="BY3:CE3"/>
-    <mergeCell ref="CF3:CL3"/>
-    <mergeCell ref="CM2:CS2"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:CW300">
-    <cfRule type="expression" dxfId="19" priority="77">
+    <cfRule type="expression" dxfId="20" priority="77">
       <formula>NOT(ISNA(VLOOKUP(G$5,$F:$F,1,FALSE)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47036,7 +47042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -47594,7 +47600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -47965,7 +47971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
@@ -48451,10 +48457,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48493,7 +48499,7 @@
       </c>
       <c r="H3">
         <f>SUM(Table13[Time Spent (hours)])</f>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -48727,6 +48733,17 @@
       </c>
       <c r="C26" t="s">
         <v>352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>389</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -48742,7 +48759,7 @@
           <x14:formula1>
             <xm:f>'task extraction'!$D$2:$D$350</xm:f>
           </x14:formula1>
-          <xm:sqref>A4:A26</xm:sqref>
+          <xm:sqref>A4:A27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -48754,7 +48771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>

--- a/Robust Optimization Project Schedule.xlsx
+++ b/Robust Optimization Project Schedule.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data\Texte, Tabellen und Präsentationen\Studium\10. Semester\Fallstudien Nichtlineare Optmierung\Optimalsteuerung\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="823" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8145" tabRatio="823" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Some Hints and Explanations" sheetId="3" r:id="rId1"/>
@@ -40,7 +35,7 @@
     <definedName name="TSTB">'task extraction'!$M$4:$M$16</definedName>
     <definedName name="TSTNOB">'task extraction'!$N$4:$N$16</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterate="1" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="145621" iterate="1" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="388">
   <si>
     <t>some hints and explanations concerning this template</t>
   </si>
@@ -322,9 +317,6 @@
     <t>Presenting the status quo.</t>
   </si>
   <si>
-    <t>Implementation extended car model</t>
-  </si>
-  <si>
     <t>Design Midterm Presentation</t>
   </si>
   <si>
@@ -412,31 +404,13 @@
     <t>Hand in poster for final print.</t>
   </si>
   <si>
-    <t>Extended Car Model 1</t>
-  </si>
-  <si>
     <t>Expand our recent car model by first choosing an extended model of the car and the street, then adapting the optimization problem and using better optimization methods. After that, adjust the implementation and the simulation. In the end, testing of the overall model.</t>
-  </si>
-  <si>
-    <t>Math</t>
   </si>
   <si>
     <t>Visualization</t>
   </si>
   <si>
-    <t>Extended Car Model 2</t>
-  </si>
-  <si>
     <t>Extend Model of Car</t>
-  </si>
-  <si>
-    <t>Implementation</t>
-  </si>
-  <si>
-    <t>Extended Car Model 3</t>
-  </si>
-  <si>
-    <t>Extend Car Model</t>
   </si>
   <si>
     <t>Final Workshop</t>
@@ -482,9 +456,6 @@
   </si>
   <si>
     <t>J, A</t>
-  </si>
-  <si>
-    <t>Projekt Abschluss</t>
   </si>
   <si>
     <t>Finish Documentaton of Code and Visualization</t>
@@ -1227,6 +1198,21 @@
   <si>
     <t>26.5.</t>
   </si>
+  <si>
+    <t>Präsentation überarbeitet</t>
+  </si>
+  <si>
+    <t>Robustes Automodell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effizient implementation of the "extended" dynamics. </t>
+  </si>
+  <si>
+    <t>Bereit um Ableitungen zu bestimmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anmerkungen zur Endterm: Entweder ich allein übernehme die Erstellung oder wir sprechen Layout und ähnliches genauer ab. Probleme bei aufgeteilter Erstellung: Gesamtbild ist unschön; Sollten wir derart viele Boxen verwenden, dann nur Umrahmung -&gt; Template erstellen. </t>
+  </si>
 </sst>
 </file>
 
@@ -1673,7 +1659,36 @@
     <cellStyle name="Überschrift 3" xfId="2" builtinId="18"/>
     <cellStyle name="Überschrift 4" xfId="3" builtinId="19"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1719,6 +1734,9 @@
           <bgColor theme="4" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1926,8 +1944,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="25"/>
-      <tableStyleElement type="headerRow" dxfId="24"/>
+      <tableStyleElement type="wholeTable" dxfId="29"/>
+      <tableStyleElement type="headerRow" dxfId="28"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1980,13 +1998,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="A3:D37" totalsRowShown="0">
-  <autoFilter ref="A3:D37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="A3:D39" totalsRowShown="0">
+  <autoFilter ref="A3:D39"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Task"/>
-    <tableColumn id="2" name="Time Spent (hours)" dataDxfId="5"/>
+    <tableColumn id="2" name="Time Spent (hours)" dataDxfId="9"/>
     <tableColumn id="3" name="When"/>
-    <tableColumn id="4" name="Notes"/>
+    <tableColumn id="4" name="Notes" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2273,7 +2291,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2380,6 +2398,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2387,8 +2406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L337"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K67" sqref="A2:K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,7 +2429,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -2545,7 +2564,7 @@
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>38</v>
@@ -2710,7 +2729,7 @@
     </row>
     <row r="11" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>55</v>
@@ -2742,7 +2761,7 @@
     </row>
     <row r="12" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>59</v>
@@ -2778,10 +2797,10 @@
     </row>
     <row r="13" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E13" s="19">
         <v>42125</v>
@@ -2802,16 +2821,16 @@
     </row>
     <row r="14" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E14" s="19">
         <v>42128</v>
@@ -3006,16 +3025,16 @@
     </row>
     <row r="20" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="E20" s="19">
         <v>42135</v>
@@ -3060,7 +3079,7 @@
     </row>
     <row r="22" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>80</v>
@@ -3153,13 +3172,13 @@
         <v>34</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E25" s="19">
         <v>42146</v>
@@ -3186,16 +3205,16 @@
     </row>
     <row r="26" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E26" s="19">
         <v>42151</v>
@@ -3222,13 +3241,13 @@
         <v>34</v>
       </c>
       <c r="B27" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="D27" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="E27" s="19">
         <v>42146</v>
@@ -3252,10 +3271,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>94</v>
       </c>
       <c r="E28" s="19">
         <v>42153</v>
@@ -3285,13 +3304,13 @@
         <v>34</v>
       </c>
       <c r="B29" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="D29" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>97</v>
       </c>
       <c r="E29" s="19">
         <v>42114</v>
@@ -3318,10 +3337,10 @@
     </row>
     <row r="30" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E30" s="19">
         <v>42115</v>
@@ -3342,16 +3361,16 @@
     </row>
     <row r="31" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B31" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="D31" s="18" t="s">
         <v>100</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>101</v>
       </c>
       <c r="E31" s="19">
         <v>42116</v>
@@ -3360,7 +3379,7 @@
         <v>5</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H31" s="40" t="s">
         <v>33</v>
@@ -3381,10 +3400,10 @@
         <v>47</v>
       </c>
       <c r="B32" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>104</v>
       </c>
       <c r="E32" s="19">
         <v>42119</v>
@@ -3414,10 +3433,10 @@
         <v>47</v>
       </c>
       <c r="B33" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="18" t="s">
         <v>105</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>106</v>
       </c>
       <c r="E33" s="19">
         <v>42123</v>
@@ -3447,13 +3466,13 @@
         <v>47</v>
       </c>
       <c r="B34" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="D34" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="E34" s="19">
         <v>42123</v>
@@ -3483,10 +3502,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="E35" s="19">
         <v>42128</v>
@@ -3516,10 +3535,10 @@
         <v>47</v>
       </c>
       <c r="B36" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>113</v>
       </c>
       <c r="E36" s="19">
         <v>42134</v>
@@ -3528,7 +3547,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
@@ -3541,10 +3560,10 @@
         <v>47</v>
       </c>
       <c r="B37" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>115</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>116</v>
       </c>
       <c r="E37" s="19">
         <v>42134</v>
@@ -3574,10 +3593,10 @@
         <v>47</v>
       </c>
       <c r="B38" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>117</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>118</v>
       </c>
       <c r="E38" s="19">
         <v>42135</v>
@@ -3586,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
@@ -3601,10 +3620,10 @@
         <v>29</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>79</v>
@@ -3626,7 +3645,7 @@
         <v>47</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E40" s="19">
         <v>42135</v>
@@ -3650,7 +3669,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E41" s="19">
         <v>42151</v>
@@ -3677,10 +3696,10 @@
         <v>79</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E42" s="19">
         <v>42135</v>
@@ -3704,10 +3723,13 @@
         <v>47</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>371</v>
+        <v>363</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>385</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E43" s="19">
         <v>42148</v>
@@ -3731,7 +3753,7 @@
         <v>47</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E44" s="19">
         <v>42148</v>
@@ -3755,7 +3777,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E45" s="19">
         <v>42148</v>
@@ -3779,10 +3801,10 @@
         <v>34</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E46" s="19">
         <v>42148</v>
@@ -3806,13 +3828,13 @@
         <v>47</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E47" s="19">
         <v>42156</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H47" s="40"/>
       <c r="I47" s="40" t="s">
@@ -3827,7 +3849,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E48" s="19">
         <v>42142</v>
@@ -3851,10 +3873,10 @@
         <v>29</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>79</v>
@@ -3884,10 +3906,10 @@
         <v>47</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E50" s="19">
         <v>42156</v>
@@ -3911,13 +3933,13 @@
         <v>47</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E51" s="19">
         <v>42156</v>
@@ -3941,10 +3963,10 @@
         <v>47</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E52" s="19">
         <v>42163</v>
@@ -3968,10 +3990,10 @@
         <v>47</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E53" s="19">
         <v>42163</v>
@@ -3992,10 +4014,10 @@
         <v>34</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E54" s="19">
         <v>42148</v>
@@ -4016,7 +4038,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="E55" s="19"/>
       <c r="H55" s="40" t="s">
@@ -4032,7 +4054,7 @@
         <v>47</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E56" s="19">
         <v>42158</v>
@@ -4056,7 +4078,7 @@
         <v>47</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E57" s="19">
         <v>42165</v>
@@ -4080,10 +4102,10 @@
         <v>29</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E58" s="19">
         <v>42196</v>
@@ -4107,16 +4129,16 @@
     </row>
     <row r="59" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E59" s="19">
         <v>42141</v>
@@ -4137,13 +4159,13 @@
     </row>
     <row r="60" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E60" s="19">
         <v>42175</v>
@@ -4170,13 +4192,13 @@
     </row>
     <row r="61" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E61" s="19">
         <v>42179</v>
@@ -4197,13 +4219,13 @@
     </row>
     <row r="62" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E62" s="19">
         <v>42181</v>
@@ -4227,10 +4249,10 @@
         <v>47</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E63" s="19">
         <v>42183</v>
@@ -4260,13 +4282,13 @@
         <v>34</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E64" s="19">
         <v>42183</v>
@@ -4275,7 +4297,7 @@
         <v>9</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H64" s="40" t="s">
         <v>33</v>
@@ -4293,13 +4315,13 @@
     </row>
     <row r="65" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E65" s="19">
         <v>42183</v>
@@ -4322,13 +4344,13 @@
     </row>
     <row r="66" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E66" s="19">
         <v>42183</v>
@@ -4352,13 +4374,13 @@
         <v>47</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E67" s="19">
         <v>42193</v>
@@ -6210,27 +6232,27 @@
     <sortCondition ref="E27:E38"/>
   </sortState>
   <conditionalFormatting sqref="A94:B337">
-    <cfRule type="expression" dxfId="4" priority="120">
+    <cfRule type="expression" dxfId="7" priority="120">
       <formula>(#REF!="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:XFD336">
-    <cfRule type="expression" dxfId="3" priority="122">
+    <cfRule type="expression" dxfId="6" priority="122">
       <formula>(#REF!="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B93">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>(MID($A17,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:XFD93">
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>(MID($A3,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B93">
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>(MID($A3,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6243,8 +6265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L414"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:XFD59"/>
+    <sheetView topLeftCell="A39" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="139" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6276,38 +6298,11 @@
     </row>
     <row r="2" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="37"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:12" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
@@ -6380,7 +6375,7 @@
     </row>
     <row r="5" spans="1:12" s="18" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>35</v>
@@ -6416,7 +6411,7 @@
     </row>
     <row r="6" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>34</v>
+        <v>346</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>38</v>
@@ -6581,7 +6576,7 @@
     </row>
     <row r="11" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>47</v>
+        <v>347</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>55</v>
@@ -6613,7 +6608,7 @@
     </row>
     <row r="12" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>34</v>
+        <v>346</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>59</v>
@@ -6649,49 +6644,43 @@
     </row>
     <row r="13" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>34</v>
+        <v>346</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>63</v>
+        <v>348</v>
       </c>
       <c r="E13" s="19">
-        <v>42115</v>
+        <v>42125</v>
       </c>
       <c r="F13" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="H13" s="40"/>
       <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40" t="s">
+      <c r="J13" s="40" t="s">
         <v>33</v>
       </c>
+      <c r="K13" s="40"/>
       <c r="L13" s="40"/>
     </row>
     <row r="14" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>34</v>
+        <v>347</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>65</v>
+        <v>349</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>66</v>
+        <v>350</v>
       </c>
       <c r="E14" s="19">
-        <v>42116</v>
+        <v>42128</v>
       </c>
       <c r="F14" s="18">
         <v>1</v>
@@ -6715,29 +6704,27 @@
     </row>
     <row r="15" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E15" s="19">
-        <v>42118</v>
+        <v>42115</v>
       </c>
       <c r="F15" s="18">
         <v>1</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>33</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H15" s="40"/>
       <c r="I15" s="40"/>
       <c r="J15" s="40"/>
       <c r="K15" s="40" t="s">
@@ -6747,25 +6734,25 @@
     </row>
     <row r="16" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E16" s="19">
-        <v>42130</v>
+        <v>42116</v>
       </c>
       <c r="F16" s="18">
         <v>1</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="H16" s="40" t="s">
         <v>33</v>
@@ -6773,7 +6760,9 @@
       <c r="I16" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="40"/>
+      <c r="J16" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="K16" s="40" t="s">
         <v>33</v>
       </c>
@@ -6781,35 +6770,31 @@
     </row>
     <row r="17" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E17" s="19">
-        <v>42135</v>
+        <v>42118</v>
       </c>
       <c r="F17" s="18">
         <v>1</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="H17" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="40" t="s">
-        <v>33</v>
-      </c>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="40" t="s">
         <v>33</v>
       </c>
@@ -6817,25 +6802,32 @@
     </row>
     <row r="18" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E18" s="19">
-        <v>42135</v>
+        <v>42130</v>
       </c>
       <c r="F18" s="18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+        <v>74</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="J18" s="40"/>
       <c r="K18" s="40" t="s">
         <v>33</v>
@@ -6844,52 +6836,58 @@
     </row>
     <row r="19" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E19" s="19">
         <v>42135</v>
       </c>
       <c r="F19" s="18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H19" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
+      <c r="I19" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="L19" s="40"/>
     </row>
     <row r="20" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>47</v>
+        <v>346</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>84</v>
+        <v>352</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>85</v>
+        <v>353</v>
       </c>
       <c r="E20" s="19">
-        <v>42142</v>
+        <v>42135</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
@@ -6901,32 +6899,26 @@
     </row>
     <row r="21" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E21" s="19">
-        <v>42151</v>
+        <v>42135</v>
       </c>
       <c r="F21" s="18">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="40" t="s">
-        <v>33</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="40" t="s">
         <v>33</v>
       </c>
@@ -6934,24 +6926,30 @@
     </row>
     <row r="22" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>47</v>
+        <v>347</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>89</v>
+        <v>80</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>82</v>
       </c>
       <c r="E22" s="19">
-        <v>42142</v>
+        <v>42135</v>
       </c>
       <c r="F22" s="18">
         <v>7</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="40" t="s">
         <v>33</v>
       </c>
+      <c r="I22" s="40"/>
       <c r="J22" s="40"/>
       <c r="K22" s="40"/>
       <c r="L22" s="40"/>
@@ -6961,29 +6959,26 @@
         <v>47</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E23" s="19">
-        <v>42146</v>
-      </c>
-      <c r="F23" s="18">
-        <v>2</v>
+        <v>42142</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="H23" s="40"/>
       <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40" t="s">
+      <c r="J23" s="40" t="s">
         <v>33</v>
       </c>
+      <c r="K23" s="40"/>
       <c r="L23" s="40"/>
     </row>
     <row r="24" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6991,13 +6986,13 @@
         <v>29</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E24" s="19">
-        <v>42153</v>
+        <v>42151</v>
       </c>
       <c r="F24" s="18">
         <v>1</v>
@@ -7024,19 +7019,19 @@
         <v>34</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>95</v>
+        <v>354</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>96</v>
+        <v>355</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>97</v>
+        <v>356</v>
       </c>
       <c r="E25" s="19">
-        <v>42114</v>
+        <v>42146</v>
       </c>
       <c r="F25" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>32</v>
@@ -7057,26 +7052,35 @@
     </row>
     <row r="26" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>34</v>
+        <v>346</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>98</v>
+        <v>133</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>358</v>
       </c>
       <c r="E26" s="19">
-        <v>42115</v>
-      </c>
-      <c r="F26" s="18">
-        <v>3</v>
+        <v>42151</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
+        <v>32</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="J26" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="K26" s="40"/>
+      <c r="K26" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="L26" s="40"/>
     </row>
     <row r="27" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7084,32 +7088,26 @@
         <v>34</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E27" s="19">
-        <v>42116</v>
+        <v>42146</v>
       </c>
       <c r="F27" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" s="40" t="s">
-        <v>33</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="40" t="s">
         <v>33</v>
       </c>
@@ -7117,19 +7115,19 @@
     </row>
     <row r="28" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E28" s="19">
-        <v>42119</v>
+        <v>42153</v>
       </c>
       <c r="F28" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>32</v>
@@ -7150,19 +7148,22 @@
     </row>
     <row r="29" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>105</v>
+        <v>94</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E29" s="19">
-        <v>42123</v>
+        <v>42114</v>
       </c>
       <c r="F29" s="18">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>32</v>
@@ -7183,58 +7184,49 @@
     </row>
     <row r="30" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>47</v>
+        <v>346</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E30" s="19">
-        <v>42123</v>
+        <v>42115</v>
       </c>
       <c r="F30" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="40" t="s">
-        <v>33</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
       <c r="J30" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="K30" s="40" t="s">
-        <v>33</v>
-      </c>
+      <c r="K30" s="40"/>
       <c r="L30" s="40"/>
     </row>
     <row r="31" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>47</v>
+        <v>346</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>110</v>
+        <v>98</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E31" s="19">
-        <v>42128</v>
+        <v>42116</v>
       </c>
       <c r="F31" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="H31" s="40" t="s">
         <v>33</v>
@@ -7255,24 +7247,32 @@
         <v>47</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E32" s="19">
-        <v>42134</v>
+        <v>42119</v>
       </c>
       <c r="F32" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
+        <v>32</v>
+      </c>
+      <c r="H32" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="L32" s="40"/>
     </row>
     <row r="33" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7280,19 +7280,19 @@
         <v>47</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E33" s="19">
-        <v>42134</v>
+        <v>42123</v>
       </c>
       <c r="F33" s="18">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H33" s="40" t="s">
         <v>33</v>
@@ -7313,51 +7313,68 @@
         <v>47</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>117</v>
+        <v>106</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E34" s="19">
-        <v>42135</v>
+        <v>42123</v>
       </c>
       <c r="F34" s="18">
         <v>1</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
+        <v>32</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="J34" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="K34" s="40"/>
+      <c r="K34" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="L34" s="40"/>
     </row>
     <row r="35" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E35" s="19">
-        <v>42156</v>
+        <v>42128</v>
       </c>
       <c r="F35" s="18">
         <v>1</v>
       </c>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
+      <c r="G35" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="K35" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="L35" s="40"/>
     </row>
     <row r="36" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7365,20 +7382,21 @@
         <v>47</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>121</v>
+        <v>111</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="E36" s="19">
-        <v>42135</v>
+        <v>42134</v>
       </c>
       <c r="F36" s="18">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="40" t="s">
-        <v>33</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="H36" s="40"/>
       <c r="I36" s="40"/>
       <c r="J36" s="40"/>
       <c r="K36" s="40"/>
@@ -7389,23 +7407,32 @@
         <v>47</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>115</v>
       </c>
       <c r="E37" s="19">
-        <v>42151</v>
+        <v>42134</v>
       </c>
       <c r="F37" s="18">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
+        <v>58</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="J37" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="K37" s="40"/>
+      <c r="K37" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="L37" s="40"/>
     </row>
     <row r="38" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7413,22 +7440,25 @@
         <v>47</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>89</v>
+        <v>116</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>117</v>
       </c>
       <c r="E38" s="19">
-        <v>42151</v>
+        <v>42135</v>
       </c>
       <c r="F38" s="18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="H38" s="40"/>
-      <c r="I38" s="40" t="s">
+      <c r="I38" s="40"/>
+      <c r="J38" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="J38" s="40"/>
       <c r="K38" s="40"/>
       <c r="L38" s="40"/>
     </row>
@@ -7437,32 +7467,24 @@
         <v>29</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>123</v>
+        <v>359</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>79</v>
       </c>
       <c r="E39" s="19">
-        <v>42172</v>
+        <v>42156</v>
       </c>
       <c r="F39" s="18">
         <v>1</v>
       </c>
-      <c r="H39" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="I39" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="J39" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="K39" s="40" t="s">
-        <v>33</v>
-      </c>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
       <c r="L39" s="40"/>
     </row>
     <row r="40" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7470,23 +7492,23 @@
         <v>47</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>124</v>
+        <v>360</v>
       </c>
       <c r="E40" s="19">
-        <v>42151</v>
+        <v>42135</v>
       </c>
       <c r="F40" s="18">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" s="40"/>
+        <v>58</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="I40" s="40"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="40" t="s">
-        <v>33</v>
-      </c>
+      <c r="K40" s="40"/>
       <c r="L40" s="40"/>
     </row>
     <row r="41" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7494,22 +7516,22 @@
         <v>47</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E41" s="19">
         <v>42151</v>
       </c>
       <c r="F41" s="18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H41" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
       <c r="K41" s="40"/>
       <c r="L41" s="40"/>
     </row>
@@ -7518,23 +7540,29 @@
         <v>47</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>125</v>
+        <v>79</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>362</v>
       </c>
       <c r="E42" s="19">
-        <v>42158</v>
+        <v>42135</v>
       </c>
       <c r="F42" s="18">
         <v>14</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H42" s="40"/>
-      <c r="I42" s="40" t="s">
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
       <c r="L42" s="40"/>
     </row>
     <row r="43" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7542,56 +7570,53 @@
         <v>47</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>122</v>
+        <v>363</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>364</v>
       </c>
       <c r="E43" s="19">
-        <v>42165</v>
+        <v>42148</v>
       </c>
       <c r="F43" s="18">
         <v>7</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="H43" s="40"/>
       <c r="I43" s="40"/>
-      <c r="J43" s="40" t="s">
+      <c r="J43" s="40"/>
+      <c r="K43" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="K43" s="40"/>
       <c r="L43" s="40"/>
     </row>
     <row r="44" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="E44" s="19">
-        <v>42192</v>
+        <v>42148</v>
       </c>
       <c r="F44" s="18">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="H44" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="I44" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="J44" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="K44" s="40" t="s">
-        <v>33</v>
-      </c>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
       <c r="L44" s="40"/>
     </row>
     <row r="45" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7599,47 +7624,50 @@
         <v>47</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>127</v>
+        <v>375</v>
       </c>
       <c r="E45" s="19">
-        <v>42159</v>
+        <v>42148</v>
       </c>
       <c r="F45" s="18">
         <v>7</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H45" s="40"/>
+        <v>58</v>
+      </c>
+      <c r="H45" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="I45" s="40"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="40" t="s">
-        <v>33</v>
-      </c>
+      <c r="K45" s="40"/>
       <c r="L45" s="40"/>
     </row>
     <row r="46" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>121</v>
+        <v>366</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>367</v>
       </c>
       <c r="E46" s="19">
-        <v>42160</v>
+        <v>42148</v>
       </c>
       <c r="F46" s="18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>33</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H46" s="40"/>
       <c r="I46" s="40"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
+      <c r="K46" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="L46" s="40"/>
     </row>
     <row r="47" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7647,21 +7675,18 @@
         <v>47</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>125</v>
+        <v>368</v>
       </c>
       <c r="E47" s="19">
-        <v>42172</v>
-      </c>
-      <c r="F47" s="18">
-        <v>14</v>
+        <v>42156</v>
       </c>
       <c r="G47" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H47" s="40" t="s">
+      <c r="H47" s="40"/>
+      <c r="I47" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="I47" s="40"/>
       <c r="J47" s="40"/>
       <c r="K47" s="40"/>
       <c r="L47" s="40"/>
@@ -7671,22 +7696,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>122</v>
+        <v>369</v>
       </c>
       <c r="E48" s="19">
-        <v>42172</v>
+        <v>42142</v>
       </c>
       <c r="F48" s="18">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40" t="s">
+      <c r="I48" s="40" t="s">
         <v>33</v>
       </c>
+      <c r="J48" s="40"/>
       <c r="K48" s="40"/>
       <c r="L48" s="40"/>
     </row>
@@ -7695,13 +7720,16 @@
         <v>29</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>128</v>
+        <v>370</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="E49" s="19">
-        <v>42196</v>
+        <v>42172</v>
       </c>
       <c r="F49" s="18">
         <v>1</v>
@@ -7725,29 +7753,26 @@
         <v>47</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>132</v>
+        <v>371</v>
       </c>
       <c r="E50" s="19">
-        <v>42141</v>
+        <v>42156</v>
       </c>
       <c r="F50" s="18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H50" s="40"/>
-      <c r="I50" s="40" t="s">
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
       <c r="L50" s="40"/>
     </row>
     <row r="51" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7755,32 +7780,29 @@
         <v>47</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>133</v>
+        <v>376</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>134</v>
+        <v>377</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>378</v>
       </c>
       <c r="E51" s="19">
-        <v>42175</v>
+        <v>42156</v>
       </c>
       <c r="F51" s="18">
         <v>7</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="H51" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="I51" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="J51" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="K51" s="40" t="s">
-        <v>33</v>
-      </c>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
       <c r="L51" s="40"/>
     </row>
     <row r="52" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7788,26 +7810,26 @@
         <v>47</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>135</v>
+        <v>379</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>136</v>
+        <v>380</v>
       </c>
       <c r="E52" s="19">
-        <v>42179</v>
+        <v>42163</v>
       </c>
       <c r="F52" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H52" s="40"/>
+        <v>58</v>
+      </c>
+      <c r="H52" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="I52" s="40"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="40" t="s">
-        <v>33</v>
-      </c>
+      <c r="K52" s="40"/>
       <c r="L52" s="40"/>
     </row>
     <row r="53" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7815,19 +7837,16 @@
         <v>47</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>135</v>
+        <v>363</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>137</v>
+        <v>364</v>
       </c>
       <c r="E53" s="19">
-        <v>42181</v>
+        <v>42163</v>
       </c>
       <c r="F53" s="18">
-        <v>1</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="H53" s="40"/>
       <c r="I53" s="40"/>
@@ -7839,32 +7858,23 @@
     </row>
     <row r="54" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>139</v>
+        <v>366</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>367</v>
       </c>
       <c r="E54" s="19">
-        <v>42183</v>
+        <v>42148</v>
       </c>
       <c r="F54" s="18">
-        <v>1</v>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H54" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="I54" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="J54" s="40" t="s">
-        <v>33</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
       <c r="K54" s="40" t="s">
         <v>33</v>
       </c>
@@ -7875,35 +7885,15 @@
         <v>47</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="E55" s="19">
-        <v>42183</v>
-      </c>
-      <c r="F55" s="18">
-        <v>9</v>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>142</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="E55" s="19"/>
       <c r="H55" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="I55" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="J55" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="K55" s="40" t="s">
-        <v>33</v>
-      </c>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
       <c r="L55" s="40"/>
     </row>
     <row r="56" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7911,16 +7901,13 @@
         <v>47</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>144</v>
+        <v>368</v>
       </c>
       <c r="E56" s="19">
-        <v>42183</v>
+        <v>42158</v>
       </c>
       <c r="F56" s="18">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G56" s="18" t="s">
         <v>54</v>
@@ -7929,9 +7916,7 @@
       <c r="I56" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="J56" s="40" t="s">
-        <v>33</v>
-      </c>
+      <c r="J56" s="40"/>
       <c r="K56" s="40"/>
       <c r="L56" s="40"/>
     </row>
@@ -7940,50 +7925,41 @@
         <v>47</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E57" s="19">
-        <v>42183</v>
+        <v>42165</v>
       </c>
       <c r="F57" s="18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="H57" s="40"/>
       <c r="I57" s="40"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="40" t="s">
+      <c r="J57" s="40" t="s">
         <v>33</v>
       </c>
+      <c r="K57" s="40"/>
       <c r="L57" s="40"/>
     </row>
     <row r="58" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E58" s="19">
-        <v>42193</v>
+        <v>42196</v>
       </c>
       <c r="F58" s="18">
         <v>1</v>
       </c>
-      <c r="G58" s="18" t="s">
-        <v>32</v>
-      </c>
       <c r="H58" s="40" t="s">
         <v>33</v>
       </c>
@@ -7999,93 +7975,281 @@
       <c r="L58" s="40"/>
     </row>
     <row r="59" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="22"/>
-      <c r="E59" s="19"/>
+      <c r="A59" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" s="19">
+        <v>42141</v>
+      </c>
+      <c r="F59" s="18">
+        <v>1</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>54</v>
+      </c>
       <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
+      <c r="I59" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="J59" s="40"/>
       <c r="K59" s="40"/>
       <c r="L59" s="40"/>
     </row>
     <row r="60" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="22"/>
-      <c r="E60" s="19"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
+      <c r="A60" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="19">
+        <v>42175</v>
+      </c>
+      <c r="F60" s="18">
+        <v>7</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J60" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="K60" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="L60" s="40"/>
     </row>
     <row r="61" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="22"/>
-      <c r="E61" s="19"/>
+      <c r="A61" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" s="19">
+        <v>42179</v>
+      </c>
+      <c r="F61" s="18">
+        <v>1</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="H61" s="40"/>
       <c r="I61" s="40"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="40"/>
+      <c r="K61" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="L61" s="40"/>
     </row>
     <row r="62" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
-      <c r="B62" s="22"/>
-      <c r="E62" s="19"/>
+      <c r="A62" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" s="19">
+        <v>42181</v>
+      </c>
+      <c r="F62" s="18">
+        <v>1</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="H62" s="40"/>
       <c r="I62" s="40"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="40"/>
+      <c r="K62" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="L62" s="40"/>
     </row>
     <row r="63" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
-      <c r="B63" s="22"/>
-      <c r="E63" s="19"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
+      <c r="A63" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" s="19">
+        <v>42183</v>
+      </c>
+      <c r="F63" s="18">
+        <v>1</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J63" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="K63" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="L63" s="40"/>
     </row>
     <row r="64" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
-      <c r="B64" s="22"/>
-      <c r="E64" s="19"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="40"/>
+      <c r="A64" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="19">
+        <v>42183</v>
+      </c>
+      <c r="F64" s="18">
+        <v>9</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="H64" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J64" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="K64" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="L64" s="40"/>
     </row>
     <row r="65" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
-      <c r="B65" s="22"/>
-      <c r="E65" s="19"/>
+      <c r="A65" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" s="19">
+        <v>42183</v>
+      </c>
+      <c r="F65" s="18">
+        <v>1</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>54</v>
+      </c>
       <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="40"/>
+      <c r="I65" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J65" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="K65" s="40"/>
       <c r="L65" s="40"/>
     </row>
     <row r="66" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="22"/>
-      <c r="E66" s="19"/>
+      <c r="A66" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" s="19">
+        <v>42183</v>
+      </c>
+      <c r="F66" s="18">
+        <v>1</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>32</v>
+      </c>
       <c r="H66" s="40"/>
       <c r="I66" s="40"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
+      <c r="K66" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="L66" s="40"/>
     </row>
     <row r="67" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
-      <c r="B67" s="22"/>
-      <c r="E67" s="19"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="40"/>
-      <c r="K67" s="40"/>
+      <c r="A67" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67" s="19">
+        <v>42193</v>
+      </c>
+      <c r="F67" s="18">
+        <v>1</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H67" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J67" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="K67" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="L67" s="40"/>
     </row>
     <row r="68" spans="1:12" s="18" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11029,17 +11193,17 @@
     <sortCondition ref="E40:E49"/>
   </sortState>
   <conditionalFormatting sqref="A15:B304">
-    <cfRule type="expression" dxfId="23" priority="79">
+    <cfRule type="expression" dxfId="27" priority="79">
       <formula>(MID($A15,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:XFD302">
-    <cfRule type="expression" dxfId="22" priority="83">
+    <cfRule type="expression" dxfId="26" priority="83">
       <formula>(MID($A3,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B302">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>(MID($A3,2,1)="M")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11052,8 +11216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CZ430"/>
   <sheetViews>
-    <sheetView topLeftCell="C8" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="128" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="C26" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="128" workbookViewId="0">
+      <selection activeCell="AT46" sqref="AT46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11097,7 +11261,7 @@
   <sheetData>
     <row r="1" spans="1:104" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -11205,10 +11369,10 @@
     </row>
     <row r="2" spans="1:104" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H2" s="55"/>
       <c r="I2" s="55"/>
@@ -11217,7 +11381,7 @@
       <c r="L2" s="55"/>
       <c r="M2" s="56"/>
       <c r="N2" s="60" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="O2" s="55"/>
       <c r="P2" s="55"/>
@@ -11226,7 +11390,7 @@
       <c r="S2" s="55"/>
       <c r="T2" s="56"/>
       <c r="U2" s="60" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="V2" s="55"/>
       <c r="W2" s="55"/>
@@ -11235,7 +11399,7 @@
       <c r="Z2" s="55"/>
       <c r="AA2" s="56"/>
       <c r="AB2" s="60" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="AC2" s="55"/>
       <c r="AD2" s="55"/>
@@ -11244,7 +11408,7 @@
       <c r="AG2" s="55"/>
       <c r="AH2" s="56"/>
       <c r="AI2" s="60" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AJ2" s="55"/>
       <c r="AK2" s="55"/>
@@ -11253,7 +11417,7 @@
       <c r="AN2" s="55"/>
       <c r="AO2" s="56"/>
       <c r="AP2" s="60" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AQ2" s="55"/>
       <c r="AR2" s="55"/>
@@ -11262,7 +11426,7 @@
       <c r="AU2" s="55"/>
       <c r="AV2" s="56"/>
       <c r="AW2" s="60" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="AX2" s="55"/>
       <c r="AY2" s="55"/>
@@ -11271,7 +11435,7 @@
       <c r="BB2" s="55"/>
       <c r="BC2" s="56"/>
       <c r="BD2" s="60" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="BE2" s="55"/>
       <c r="BF2" s="55"/>
@@ -11280,7 +11444,7 @@
       <c r="BI2" s="55"/>
       <c r="BJ2" s="56"/>
       <c r="BK2" s="60" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="BL2" s="55"/>
       <c r="BM2" s="55"/>
@@ -11289,7 +11453,7 @@
       <c r="BP2" s="55"/>
       <c r="BQ2" s="56"/>
       <c r="BR2" s="60" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="BS2" s="55"/>
       <c r="BT2" s="55"/>
@@ -11298,7 +11462,7 @@
       <c r="BW2" s="55"/>
       <c r="BX2" s="56"/>
       <c r="BY2" s="60" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="BZ2" s="55"/>
       <c r="CA2" s="55"/>
@@ -11307,7 +11471,7 @@
       <c r="CD2" s="55"/>
       <c r="CE2" s="56"/>
       <c r="CF2" s="60" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="CG2" s="55"/>
       <c r="CH2" s="55"/>
@@ -11316,7 +11480,7 @@
       <c r="CK2" s="55"/>
       <c r="CL2" s="56"/>
       <c r="CM2" s="60" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="CN2" s="55"/>
       <c r="CO2" s="55"/>
@@ -11325,7 +11489,7 @@
       <c r="CR2" s="55"/>
       <c r="CS2" s="56"/>
       <c r="CT2" s="60" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="CU2" s="55"/>
       <c r="CV2" s="55"/>
@@ -11482,19 +11646,19 @@
       <c r="D4" s="14"/>
       <c r="E4" s="45"/>
       <c r="G4" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>54</v>
@@ -11503,19 +11667,19 @@
         <v>54</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>54</v>
@@ -11524,19 +11688,19 @@
         <v>54</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="Z4" s="5" t="s">
         <v>54</v>
@@ -11545,19 +11709,19 @@
         <v>54</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="AG4" s="5" t="s">
         <v>54</v>
@@ -11566,19 +11730,19 @@
         <v>54</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="AJ4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="AL4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AM4" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="AN4" s="5" t="s">
         <v>54</v>
@@ -11587,19 +11751,19 @@
         <v>54</v>
       </c>
       <c r="AP4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="AQ4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AR4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="AS4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AT4" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="AU4" s="5" t="s">
         <v>54</v>
@@ -11608,19 +11772,19 @@
         <v>54</v>
       </c>
       <c r="AW4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="AX4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AY4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="AZ4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="BA4" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="BB4" s="5" t="s">
         <v>54</v>
@@ -11629,19 +11793,19 @@
         <v>54</v>
       </c>
       <c r="BD4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="BE4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="BF4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="BG4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="BH4" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="BI4" s="5" t="s">
         <v>54</v>
@@ -11650,19 +11814,19 @@
         <v>54</v>
       </c>
       <c r="BK4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="BL4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="BM4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="BN4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="BO4" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="BP4" s="5" t="s">
         <v>54</v>
@@ -11671,19 +11835,19 @@
         <v>54</v>
       </c>
       <c r="BR4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="BS4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="BT4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="BU4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="BV4" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="BW4" s="5" t="s">
         <v>54</v>
@@ -11692,19 +11856,19 @@
         <v>54</v>
       </c>
       <c r="BY4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="BZ4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="CA4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="CB4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="CC4" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="CD4" s="5" t="s">
         <v>54</v>
@@ -11713,19 +11877,19 @@
         <v>54</v>
       </c>
       <c r="CF4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="CG4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="CH4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="CI4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="CJ4" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="CK4" s="5" t="s">
         <v>54</v>
@@ -11734,19 +11898,19 @@
         <v>54</v>
       </c>
       <c r="CM4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="CN4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="CO4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="CP4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="CQ4" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="CR4" s="5" t="s">
         <v>54</v>
@@ -11755,19 +11919,19 @@
         <v>54</v>
       </c>
       <c r="CT4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="CU4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="CV4" s="5" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="CW4" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="CX4" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="CY4" s="5" t="s">
         <v>54</v>
@@ -11778,7 +11942,7 @@
     </row>
     <row r="5" spans="1:104" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7">
         <v>42107</v>
@@ -12098,7 +12262,7 @@
 IF('Milestones + Packages'!J3&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K3&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L3&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F6" s="1" t="str">
         <f>IF('Milestones + Packages'!A3="(M)",'Gantt Chart'!B6,"")</f>
@@ -12128,7 +12292,7 @@
 IF('Milestones + Packages'!J4&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K4&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L4&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F7" s="1">
         <f>IF('Milestones + Packages'!A4="(M)",'Gantt Chart'!B7,"")</f>
@@ -12158,7 +12322,7 @@
 IF('Milestones + Packages'!J5&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K5&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L5&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F8" s="1" t="str">
         <f>IF('Milestones + Packages'!A5="(M)",'Gantt Chart'!B8,"")</f>
@@ -12188,7 +12352,7 @@
 IF('Milestones + Packages'!J6&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K6&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L6&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F9" s="1" t="str">
         <f>IF('Milestones + Packages'!A6="(M)",'Gantt Chart'!B9,"")</f>
@@ -12218,7 +12382,7 @@
 IF('Milestones + Packages'!J7&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K7&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L7&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F10" s="1">
         <f>IF('Milestones + Packages'!A7="(M)",'Gantt Chart'!B10,"")</f>
@@ -12248,7 +12412,7 @@
 IF('Milestones + Packages'!J8&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K8&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L8&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F11" s="1">
         <f>IF('Milestones + Packages'!A8="(M)",'Gantt Chart'!B11,"")</f>
@@ -12278,7 +12442,7 @@
 IF('Milestones + Packages'!J9&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K9&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L9&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">   Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F12" s="1" t="str">
         <f>IF('Milestones + Packages'!A9="(M)",'Gantt Chart'!B12,"")</f>
@@ -12308,7 +12472,7 @@
 IF('Milestones + Packages'!J10&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K10&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L10&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve"> Sabina    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F13" s="1" t="str">
         <f>IF('Milestones + Packages'!A10="(M)",'Gantt Chart'!B13,"")</f>
@@ -12338,7 +12502,7 @@
 IF('Milestones + Packages'!J11&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K11&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L11&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin   Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F14" s="1" t="str">
         <f>IF('Milestones + Packages'!A11="(M)",'Gantt Chart'!B14,"")</f>
@@ -12368,7 +12532,7 @@
 IF('Milestones + Packages'!J12&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K12&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L12&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F15" s="1" t="str">
         <f>IF('Milestones + Packages'!A12="(M)",'Gantt Chart'!B15,"")</f>
@@ -12378,19 +12542,19 @@
     <row r="16" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="str">
         <f>IF('Milestones + Packages'!B13&lt;&gt; "",'Milestones + Packages'!B13,"")</f>
-        <v>Print the Gantt Chart</v>
+        <v>Set up GitHub</v>
       </c>
       <c r="B16" s="43">
         <f>IF('Milestones + Packages'!$E13,'Milestones + Packages'!$E13,"")</f>
-        <v>42115</v>
+        <v>42125</v>
       </c>
       <c r="C16" s="43">
         <f>IF('Milestones + Packages'!$E13+'Milestones + Packages'!$F13,'Milestones + Packages'!$E13+'Milestones + Packages'!$F13 - 1,"")</f>
-        <v>42115</v>
+        <v>42127</v>
       </c>
       <c r="D16" s="42" t="str">
         <f>IF('Milestones + Packages'!G13 &lt;&gt; "",'Milestones + Packages'!G13,"")</f>
-        <v>J</v>
+        <v>C</v>
       </c>
       <c r="E16" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H13&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -12398,7 +12562,7 @@
 IF('Milestones + Packages'!J13&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K13&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L13&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">   Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F16" s="1" t="str">
         <f>IF('Milestones + Packages'!A13="(M)",'Gantt Chart'!B16,"")</f>
@@ -12408,15 +12572,15 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="str">
         <f>IF('Milestones + Packages'!B14&lt;&gt; "",'Milestones + Packages'!B14,"")</f>
-        <v>Present your schedule</v>
+        <v>GitHub</v>
       </c>
       <c r="B17" s="43">
         <f>IF('Milestones + Packages'!$E14,'Milestones + Packages'!$E14,"")</f>
-        <v>42116</v>
+        <v>42128</v>
       </c>
       <c r="C17" s="43">
         <f>IF('Milestones + Packages'!$E14+'Milestones + Packages'!$F14,'Milestones + Packages'!$E14+'Milestones + Packages'!$F14 - 1,"")</f>
-        <v>42116</v>
+        <v>42128</v>
       </c>
       <c r="D17" s="42" t="str">
         <f>IF('Milestones + Packages'!G14 &lt;&gt; "",'Milestones + Packages'!G14,"")</f>
@@ -12428,7 +12592,7 @@
 IF('Milestones + Packages'!J14&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K14&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L14&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F17" s="1" t="str">
         <f>IF('Milestones + Packages'!A15="(M)",'Gantt Chart'!B17,"")</f>
@@ -12438,19 +12602,19 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="str">
         <f>IF('Milestones + Packages'!B15&lt;&gt; "",'Milestones + Packages'!B15,"")</f>
-        <v>Appointment: Modelling of  Car and Modelling of Optimization Problem</v>
+        <v>Print the Gantt Chart</v>
       </c>
       <c r="B18" s="43">
         <f>IF('Milestones + Packages'!$E15,'Milestones + Packages'!$E15,"")</f>
-        <v>42118</v>
+        <v>42115</v>
       </c>
       <c r="C18" s="43">
         <f>IF('Milestones + Packages'!$E15+'Milestones + Packages'!$F15,'Milestones + Packages'!$E15+'Milestones + Packages'!$F15 - 1,"")</f>
-        <v>42118</v>
+        <v>42115</v>
       </c>
       <c r="D18" s="42" t="str">
         <f>IF('Milestones + Packages'!G15 &lt;&gt; "",'Milestones + Packages'!G15,"")</f>
-        <v>A, J</v>
+        <v>J</v>
       </c>
       <c r="E18" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H15&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -12458,7 +12622,7 @@
 IF('Milestones + Packages'!J15&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K15&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L15&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin   Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F18" s="1" t="str">
         <f>IF('Milestones + Packages'!A16="(M)",'Gantt Chart'!B18,"")</f>
@@ -12468,19 +12632,19 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="str">
         <f>IF('Milestones + Packages'!B16&lt;&gt; "",'Milestones + Packages'!B16,"")</f>
-        <v>Appointment: Exchange between Modelling and Implementation</v>
+        <v>Present your schedule</v>
       </c>
       <c r="B19" s="43">
         <f>IF('Milestones + Packages'!$E16,'Milestones + Packages'!$E16,"")</f>
-        <v>42130</v>
+        <v>42116</v>
       </c>
       <c r="C19" s="43">
         <f>IF('Milestones + Packages'!$E16+'Milestones + Packages'!$F16,'Milestones + Packages'!$E16+'Milestones + Packages'!$F16 - 1,"")</f>
-        <v>42130</v>
+        <v>42116</v>
       </c>
       <c r="D19" s="42" t="str">
         <f>IF('Milestones + Packages'!G16 &lt;&gt; "",'Milestones + Packages'!G16,"")</f>
-        <v>A, S</v>
+        <v>Team</v>
       </c>
       <c r="E19" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H16&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -12488,7 +12652,7 @@
 IF('Milestones + Packages'!J16&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K16&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L16&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina  Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F19" s="1" t="str">
         <f>IF('Milestones + Packages'!A17="(M)",'Gantt Chart'!B19,"")</f>
@@ -12498,19 +12662,19 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="str">
         <f>IF('Milestones + Packages'!B17&lt;&gt; "",'Milestones + Packages'!B17,"")</f>
-        <v>Decision Extension Car Model</v>
+        <v>Appointment: Modelling of  Car and Modelling of Optimization Problem</v>
       </c>
       <c r="B20" s="43">
         <f>IF('Milestones + Packages'!$E17,'Milestones + Packages'!$E17,"")</f>
-        <v>42135</v>
+        <v>42118</v>
       </c>
       <c r="C20" s="43">
         <f>IF('Milestones + Packages'!$E17+'Milestones + Packages'!$F17,'Milestones + Packages'!$E17+'Milestones + Packages'!$F17 - 1,"")</f>
-        <v>42135</v>
+        <v>42118</v>
       </c>
       <c r="D20" s="42" t="str">
         <f>IF('Milestones + Packages'!G17 &lt;&gt; "",'Milestones + Packages'!G17,"")</f>
-        <v>Team</v>
+        <v>A, J</v>
       </c>
       <c r="E20" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H17&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -12518,7 +12682,7 @@
 IF('Milestones + Packages'!J17&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K17&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L17&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F20" s="1" t="str">
         <f>IF('Milestones + Packages'!A18="(M)",'Gantt Chart'!B20,"")</f>
@@ -12528,19 +12692,19 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="str">
         <f>IF('Milestones + Packages'!B18&lt;&gt; "",'Milestones + Packages'!B18,"")</f>
-        <v>Extentend Model of Car</v>
+        <v>Appointment: Exchange between Modelling and Implementation</v>
       </c>
       <c r="B21" s="43">
         <f>IF('Milestones + Packages'!$E18,'Milestones + Packages'!$E18,"")</f>
-        <v>42135</v>
+        <v>42130</v>
       </c>
       <c r="C21" s="43">
         <f>IF('Milestones + Packages'!$E18+'Milestones + Packages'!$F18,'Milestones + Packages'!$E18+'Milestones + Packages'!$F18 - 1,"")</f>
-        <v>42141</v>
+        <v>42130</v>
       </c>
       <c r="D21" s="42" t="str">
         <f>IF('Milestones + Packages'!G18 &lt;&gt; "",'Milestones + Packages'!G18,"")</f>
-        <v>J</v>
+        <v>A, S</v>
       </c>
       <c r="E21" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H18&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -12548,7 +12712,7 @@
 IF('Milestones + Packages'!J18&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K18&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L18&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">   Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F21" s="1" t="str">
         <f>IF('Milestones + Packages'!A19="(M)",'Gantt Chart'!B21,"")</f>
@@ -12558,7 +12722,7 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="str">
         <f>IF('Milestones + Packages'!B19&lt;&gt; "",'Milestones + Packages'!B19,"")</f>
-        <v>Adapt Optimization</v>
+        <v>Decision Extension Car Model</v>
       </c>
       <c r="B22" s="43">
         <f>IF('Milestones + Packages'!$E19,'Milestones + Packages'!$E19,"")</f>
@@ -12566,11 +12730,11 @@
       </c>
       <c r="C22" s="43">
         <f>IF('Milestones + Packages'!$E19+'Milestones + Packages'!$F19,'Milestones + Packages'!$E19+'Milestones + Packages'!$F19 - 1,"")</f>
-        <v>42141</v>
+        <v>42135</v>
       </c>
       <c r="D22" s="42" t="str">
         <f>IF('Milestones + Packages'!G19 &lt;&gt; "",'Milestones + Packages'!G19,"")</f>
-        <v>A</v>
+        <v>Team</v>
       </c>
       <c r="E22" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H19&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -12578,7 +12742,7 @@
 IF('Milestones + Packages'!J19&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K19&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L19&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin     </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F22" s="1" t="str">
         <f>IF('Milestones + Packages'!A20="(M)",'Gantt Chart'!B22,"")</f>
@@ -12588,19 +12752,19 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="str">
         <f>IF('Milestones + Packages'!B20&lt;&gt; "",'Milestones + Packages'!B20,"")</f>
-        <v>Get to Know a Program for Visualization</v>
+        <v>Robust Optimizaton - An adapted Optimizaton</v>
       </c>
       <c r="B23" s="43">
         <f>IF('Milestones + Packages'!$E20,'Milestones + Packages'!$E20,"")</f>
-        <v>42142</v>
+        <v>42135</v>
       </c>
       <c r="C23" s="43">
         <f>IF('Milestones + Packages'!$E20+'Milestones + Packages'!$F20,'Milestones + Packages'!$E20+'Milestones + Packages'!$F20 - 1,"")</f>
-        <v>42141</v>
+        <v>42134</v>
       </c>
       <c r="D23" s="42" t="str">
         <f>IF('Milestones + Packages'!G20 &lt;&gt; "",'Milestones + Packages'!G20,"")</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="E23" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H20&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -12608,29 +12772,29 @@
 IF('Milestones + Packages'!J20&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K20&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L20&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">  Christian   </v>
-      </c>
-      <c r="F23" s="1">
+        <v xml:space="preserve">     </v>
+      </c>
+      <c r="F23" s="1" t="str">
         <f>IF('Milestones + Packages'!A21="(M)",'Gantt Chart'!B23,"")</f>
-        <v>42142</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="str">
         <f>IF('Milestones + Packages'!B21&lt;&gt; "",'Milestones + Packages'!B21,"")</f>
-        <v>Midterm Presenation</v>
+        <v>Extentend Model of Car</v>
       </c>
       <c r="B24" s="43">
         <f>IF('Milestones + Packages'!$E21,'Milestones + Packages'!$E21,"")</f>
-        <v>42151</v>
+        <v>42135</v>
       </c>
       <c r="C24" s="43">
         <f>IF('Milestones + Packages'!$E21+'Milestones + Packages'!$F21,'Milestones + Packages'!$E21+'Milestones + Packages'!$F21 - 1,"")</f>
-        <v>42151</v>
+        <v>42148</v>
       </c>
       <c r="D24" s="42" t="str">
         <f>IF('Milestones + Packages'!G21 &lt;&gt; "",'Milestones + Packages'!G21,"")</f>
-        <v>Team</v>
+        <v>J</v>
       </c>
       <c r="E24" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H21&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -12638,7 +12802,7 @@
 IF('Milestones + Packages'!J21&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K21&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L21&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F24" s="1" t="str">
         <f>IF('Milestones + Packages'!A22="(M)",'Gantt Chart'!B24,"")</f>
@@ -12648,19 +12812,19 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="str">
         <f>IF('Milestones + Packages'!B22&lt;&gt; "",'Milestones + Packages'!B22,"")</f>
-        <v>Implementation extended car model</v>
+        <v>Adapt Optimization</v>
       </c>
       <c r="B25" s="43">
         <f>IF('Milestones + Packages'!$E22,'Milestones + Packages'!$E22,"")</f>
-        <v>42142</v>
+        <v>42135</v>
       </c>
       <c r="C25" s="43">
         <f>IF('Milestones + Packages'!$E22+'Milestones + Packages'!$F22,'Milestones + Packages'!$E22+'Milestones + Packages'!$F22 - 1,"")</f>
-        <v>42148</v>
+        <v>42141</v>
       </c>
       <c r="D25" s="42" t="str">
         <f>IF('Milestones + Packages'!G22 &lt;&gt; "",'Milestones + Packages'!G22,"")</f>
-        <v>S</v>
+        <v>A</v>
       </c>
       <c r="E25" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H22&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -12668,7 +12832,7 @@
 IF('Milestones + Packages'!J22&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K22&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L22&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve"> Sabina    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F25" s="1" t="str">
         <f>IF('Milestones + Packages'!A23="(M)",'Gantt Chart'!B25,"")</f>
@@ -12678,19 +12842,19 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="str">
         <f>IF('Milestones + Packages'!B23&lt;&gt; "",'Milestones + Packages'!B23,"")</f>
-        <v>Design Midterm Presentation</v>
+        <v>Get to Know a Program for Visualization</v>
       </c>
       <c r="B26" s="43">
         <f>IF('Milestones + Packages'!$E23,'Milestones + Packages'!$E23,"")</f>
-        <v>42146</v>
+        <v>42142</v>
       </c>
       <c r="C26" s="43">
         <f>IF('Milestones + Packages'!$E23+'Milestones + Packages'!$F23,'Milestones + Packages'!$E23+'Milestones + Packages'!$F23 - 1,"")</f>
-        <v>42147</v>
+        <v>42141</v>
       </c>
       <c r="D26" s="42" t="str">
         <f>IF('Milestones + Packages'!G23 &lt;&gt; "",'Milestones + Packages'!G23,"")</f>
-        <v>J</v>
+        <v>C</v>
       </c>
       <c r="E26" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H23&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -12698,25 +12862,25 @@
 IF('Milestones + Packages'!J23&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K23&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L23&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">   Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F26" s="1">
         <f>IF('Milestones + Packages'!A24="(M)",'Gantt Chart'!B26,"")</f>
-        <v>42146</v>
+        <v>42142</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="str">
         <f>IF('Milestones + Packages'!B24&lt;&gt; "",'Milestones + Packages'!B24,"")</f>
-        <v>Poster Presentation</v>
+        <v>Midterm Presenation</v>
       </c>
       <c r="B27" s="43">
         <f>IF('Milestones + Packages'!$E24,'Milestones + Packages'!$E24,"")</f>
-        <v>42153</v>
+        <v>42151</v>
       </c>
       <c r="C27" s="43">
         <f>IF('Milestones + Packages'!$E24+'Milestones + Packages'!$F24,'Milestones + Packages'!$E24+'Milestones + Packages'!$F24 - 1,"")</f>
-        <v>42153</v>
+        <v>42151</v>
       </c>
       <c r="D27" s="42" t="str">
         <f>IF('Milestones + Packages'!G24 &lt;&gt; "",'Milestones + Packages'!G24,"")</f>
@@ -12728,7 +12892,7 @@
 IF('Milestones + Packages'!J24&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K24&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L24&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F27" s="1" t="str">
         <f>IF('Milestones + Packages'!A25="(M)",'Gantt Chart'!B27,"")</f>
@@ -12738,15 +12902,15 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="str">
         <f>IF('Milestones + Packages'!B25&lt;&gt; "",'Milestones + Packages'!B25,"")</f>
-        <v>Brain Storming Poster</v>
+        <v xml:space="preserve">Create Slides </v>
       </c>
       <c r="B28" s="43">
         <f>IF('Milestones + Packages'!$E25,'Milestones + Packages'!$E25,"")</f>
-        <v>42114</v>
+        <v>42146</v>
       </c>
       <c r="C28" s="43">
         <f>IF('Milestones + Packages'!$E25+'Milestones + Packages'!$F25,'Milestones + Packages'!$E25+'Milestones + Packages'!$F25 - 1,"")</f>
-        <v>42115</v>
+        <v>42148</v>
       </c>
       <c r="D28" s="42" t="str">
         <f>IF('Milestones + Packages'!G25 &lt;&gt; "",'Milestones + Packages'!G25,"")</f>
@@ -12758,7 +12922,7 @@
 IF('Milestones + Packages'!J25&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K25&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L25&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F28" s="1" t="str">
         <f>IF('Milestones + Packages'!A26="(M)",'Gantt Chart'!B28,"")</f>
@@ -12768,19 +12932,19 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="str">
         <f>IF('Milestones + Packages'!B26&lt;&gt; "",'Milestones + Packages'!B26,"")</f>
-        <v>Get to Know the Visualisation Program</v>
+        <v>Prepare Presentation</v>
       </c>
       <c r="B29" s="43">
         <f>IF('Milestones + Packages'!$E26,'Milestones + Packages'!$E26,"")</f>
-        <v>42115</v>
+        <v>42151</v>
       </c>
       <c r="C29" s="43">
         <f>IF('Milestones + Packages'!$E26+'Milestones + Packages'!$F26,'Milestones + Packages'!$E26+'Milestones + Packages'!$F26 - 1,"")</f>
-        <v>42117</v>
+        <v>42150</v>
       </c>
       <c r="D29" s="42" t="str">
         <f>IF('Milestones + Packages'!G26 &lt;&gt; "",'Milestones + Packages'!G26,"")</f>
-        <v>C</v>
+        <v>Team</v>
       </c>
       <c r="E29" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H26&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -12788,7 +12952,7 @@
 IF('Milestones + Packages'!J26&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K26&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L26&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">  Christian   </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F29" s="1" t="str">
         <f>IF('Milestones + Packages'!A27="(M)",'Gantt Chart'!B29,"")</f>
@@ -12798,19 +12962,19 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="str">
         <f>IF('Milestones + Packages'!B27&lt;&gt; "",'Milestones + Packages'!B27,"")</f>
-        <v>Poster Design</v>
+        <v>Design Midterm Presentation</v>
       </c>
       <c r="B30" s="43">
         <f>IF('Milestones + Packages'!$E27,'Milestones + Packages'!$E27,"")</f>
-        <v>42116</v>
+        <v>42146</v>
       </c>
       <c r="C30" s="43">
         <f>IF('Milestones + Packages'!$E27+'Milestones + Packages'!$F27,'Milestones + Packages'!$E27+'Milestones + Packages'!$F27 - 1,"")</f>
-        <v>42120</v>
+        <v>42148</v>
       </c>
       <c r="D30" s="42" t="str">
         <f>IF('Milestones + Packages'!G27 &lt;&gt; "",'Milestones + Packages'!G27,"")</f>
-        <v>S, A, C</v>
+        <v>J</v>
       </c>
       <c r="E30" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H27&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -12818,25 +12982,25 @@
 IF('Milestones + Packages'!J27&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K27&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L27&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
-      </c>
-      <c r="F30" s="1" t="str">
+        <v xml:space="preserve">     </v>
+      </c>
+      <c r="F30" s="1">
         <f>IF('Milestones + Packages'!A28="(M)",'Gantt Chart'!B30,"")</f>
-        <v/>
+        <v>42146</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="str">
         <f>IF('Milestones + Packages'!B28&lt;&gt; "",'Milestones + Packages'!B28,"")</f>
-        <v>First Poster Draft</v>
+        <v>Poster Presentation</v>
       </c>
       <c r="B31" s="43">
         <f>IF('Milestones + Packages'!$E28,'Milestones + Packages'!$E28,"")</f>
-        <v>42119</v>
+        <v>42153</v>
       </c>
       <c r="C31" s="43">
         <f>IF('Milestones + Packages'!$E28+'Milestones + Packages'!$F28,'Milestones + Packages'!$E28+'Milestones + Packages'!$F28 - 1,"")</f>
-        <v>42122</v>
+        <v>42153</v>
       </c>
       <c r="D31" s="42" t="str">
         <f>IF('Milestones + Packages'!G28 &lt;&gt; "",'Milestones + Packages'!G28,"")</f>
@@ -12848,7 +13012,7 @@
 IF('Milestones + Packages'!J28&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K28&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L28&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F31" s="1" t="str">
         <f>IF('Milestones + Packages'!A29="(M)",'Gantt Chart'!B31,"")</f>
@@ -12858,15 +13022,15 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="str">
         <f>IF('Milestones + Packages'!B29&lt;&gt; "",'Milestones + Packages'!B29,"")</f>
-        <v>Revice Poster Design and Contents</v>
+        <v>Brain Storming Poster</v>
       </c>
       <c r="B32" s="43">
         <f>IF('Milestones + Packages'!$E29,'Milestones + Packages'!$E29,"")</f>
-        <v>42123</v>
+        <v>42114</v>
       </c>
       <c r="C32" s="43">
         <f>IF('Milestones + Packages'!$E29+'Milestones + Packages'!$F29,'Milestones + Packages'!$E29+'Milestones + Packages'!$F29 - 1,"")</f>
-        <v>42133</v>
+        <v>42115</v>
       </c>
       <c r="D32" s="42" t="str">
         <f>IF('Milestones + Packages'!G29 &lt;&gt; "",'Milestones + Packages'!G29,"")</f>
@@ -12878,7 +13042,7 @@
 IF('Milestones + Packages'!J29&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K29&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L29&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F32" s="1" t="str">
         <f>IF('Milestones + Packages'!A30="(M)",'Gantt Chart'!B32,"")</f>
@@ -12888,19 +13052,19 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="str">
         <f>IF('Milestones + Packages'!B30&lt;&gt; "",'Milestones + Packages'!B30,"")</f>
-        <v>Booth</v>
+        <v>Get to Know the Visualisation Program</v>
       </c>
       <c r="B33" s="43">
         <f>IF('Milestones + Packages'!$E30,'Milestones + Packages'!$E30,"")</f>
-        <v>42123</v>
+        <v>42115</v>
       </c>
       <c r="C33" s="43">
         <f>IF('Milestones + Packages'!$E30+'Milestones + Packages'!$F30,'Milestones + Packages'!$E30+'Milestones + Packages'!$F30 - 1,"")</f>
-        <v>42123</v>
+        <v>42117</v>
       </c>
       <c r="D33" s="42" t="str">
         <f>IF('Milestones + Packages'!G30 &lt;&gt; "",'Milestones + Packages'!G30,"")</f>
-        <v>Team</v>
+        <v>C</v>
       </c>
       <c r="E33" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H30&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -12908,7 +13072,7 @@
 IF('Milestones + Packages'!J30&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K30&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L30&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F33" s="1" t="str">
         <f>IF('Milestones + Packages'!A31="(M)",'Gantt Chart'!B33,"")</f>
@@ -12918,19 +13082,19 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="str">
         <f>IF('Milestones + Packages'!B31&lt;&gt; "",'Milestones + Packages'!B31,"")</f>
-        <v>Internal Poster Presentation</v>
+        <v>Poster Design</v>
       </c>
       <c r="B34" s="43">
         <f>IF('Milestones + Packages'!$E31,'Milestones + Packages'!$E31,"")</f>
-        <v>42128</v>
+        <v>42116</v>
       </c>
       <c r="C34" s="43">
         <f>IF('Milestones + Packages'!$E31+'Milestones + Packages'!$F31,'Milestones + Packages'!$E31+'Milestones + Packages'!$F31 - 1,"")</f>
-        <v>42128</v>
+        <v>42120</v>
       </c>
       <c r="D34" s="42" t="str">
         <f>IF('Milestones + Packages'!G31 &lt;&gt; "",'Milestones + Packages'!G31,"")</f>
-        <v>Team</v>
+        <v>S, A, C</v>
       </c>
       <c r="E34" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H31&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -12938,7 +13102,7 @@
 IF('Milestones + Packages'!J31&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K31&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L31&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F34" s="1" t="str">
         <f>IF('Milestones + Packages'!A32="(M)",'Gantt Chart'!B34,"")</f>
@@ -12948,19 +13112,19 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="str">
         <f>IF('Milestones + Packages'!B32&lt;&gt; "",'Milestones + Packages'!B32,"")</f>
-        <v>Poster and Exhibition Booth</v>
+        <v>First Poster Draft</v>
       </c>
       <c r="B35" s="43">
         <f>IF('Milestones + Packages'!$E32,'Milestones + Packages'!$E32,"")</f>
-        <v>42134</v>
+        <v>42119</v>
       </c>
       <c r="C35" s="43">
         <f>IF('Milestones + Packages'!$E32+'Milestones + Packages'!$F32,'Milestones + Packages'!$E32+'Milestones + Packages'!$F32 - 1,"")</f>
-        <v>42134</v>
+        <v>42122</v>
       </c>
       <c r="D35" s="42" t="str">
         <f>IF('Milestones + Packages'!G32 &lt;&gt; "",'Milestones + Packages'!G32,"")</f>
-        <v>S, C</v>
+        <v>Team</v>
       </c>
       <c r="E35" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H32&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -12978,19 +13142,19 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="str">
         <f>IF('Milestones + Packages'!B33&lt;&gt; "",'Milestones + Packages'!B33,"")</f>
-        <v>Finished Booth</v>
+        <v>Revice Poster Design and Contents</v>
       </c>
       <c r="B36" s="43">
         <f>IF('Milestones + Packages'!$E33,'Milestones + Packages'!$E33,"")</f>
-        <v>42134</v>
+        <v>42123</v>
       </c>
       <c r="C36" s="43">
         <f>IF('Milestones + Packages'!$E33+'Milestones + Packages'!$F33,'Milestones + Packages'!$E33+'Milestones + Packages'!$F33 - 1,"")</f>
-        <v>42134</v>
+        <v>42133</v>
       </c>
       <c r="D36" s="42" t="str">
         <f>IF('Milestones + Packages'!G33 &lt;&gt; "",'Milestones + Packages'!G33,"")</f>
-        <v>A</v>
+        <v>Team</v>
       </c>
       <c r="E36" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H33&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -12998,7 +13162,7 @@
 IF('Milestones + Packages'!J33&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K33&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L33&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F36" s="1" t="str">
         <f>IF('Milestones + Packages'!A34="(M)",'Gantt Chart'!B36,"")</f>
@@ -13008,19 +13172,19 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="str">
         <f>IF('Milestones + Packages'!B34&lt;&gt; "",'Milestones + Packages'!B34,"")</f>
-        <v>Final Poster Hand-In</v>
+        <v>Booth</v>
       </c>
       <c r="B37" s="43">
         <f>IF('Milestones + Packages'!$E34,'Milestones + Packages'!$E34,"")</f>
-        <v>42135</v>
+        <v>42123</v>
       </c>
       <c r="C37" s="43">
         <f>IF('Milestones + Packages'!$E34+'Milestones + Packages'!$F34,'Milestones + Packages'!$E34+'Milestones + Packages'!$F34 - 1,"")</f>
-        <v>42135</v>
+        <v>42123</v>
       </c>
       <c r="D37" s="42" t="str">
         <f>IF('Milestones + Packages'!G34 &lt;&gt; "",'Milestones + Packages'!G34,"")</f>
-        <v>S, C</v>
+        <v>Team</v>
       </c>
       <c r="E37" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H34&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13028,29 +13192,29 @@
 IF('Milestones + Packages'!J34&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K34&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L34&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">  Christian   </v>
-      </c>
-      <c r="F37" s="1">
+        <v xml:space="preserve">     </v>
+      </c>
+      <c r="F37" s="1" t="str">
         <f>IF('Milestones + Packages'!A35="(M)",'Gantt Chart'!B37,"")</f>
-        <v>42135</v>
+        <v/>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="42" t="str">
         <f>IF('Milestones + Packages'!B35&lt;&gt; "",'Milestones + Packages'!B35,"")</f>
-        <v>Extended Car Model 1</v>
+        <v>Internal Poster Presentation</v>
       </c>
       <c r="B38" s="43">
         <f>IF('Milestones + Packages'!$E35,'Milestones + Packages'!$E35,"")</f>
-        <v>42156</v>
+        <v>42128</v>
       </c>
       <c r="C38" s="43">
         <f>IF('Milestones + Packages'!$E35+'Milestones + Packages'!$F35,'Milestones + Packages'!$E35+'Milestones + Packages'!$F35 - 1,"")</f>
-        <v>42156</v>
+        <v>42128</v>
       </c>
       <c r="D38" s="42" t="str">
         <f>IF('Milestones + Packages'!G35 &lt;&gt; "",'Milestones + Packages'!G35,"")</f>
-        <v/>
+        <v>Team</v>
       </c>
       <c r="E38" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H35&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13068,19 +13232,19 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="42" t="str">
         <f>IF('Milestones + Packages'!B36&lt;&gt; "",'Milestones + Packages'!B36,"")</f>
-        <v>Math</v>
+        <v>Poster and Exhibition Booth</v>
       </c>
       <c r="B39" s="43">
         <f>IF('Milestones + Packages'!$E36,'Milestones + Packages'!$E36,"")</f>
-        <v>42135</v>
+        <v>42134</v>
       </c>
       <c r="C39" s="43">
         <f>IF('Milestones + Packages'!$E36+'Milestones + Packages'!$F36,'Milestones + Packages'!$E36+'Milestones + Packages'!$F36 - 1,"")</f>
-        <v>42148</v>
+        <v>42134</v>
       </c>
       <c r="D39" s="42" t="str">
         <f>IF('Milestones + Packages'!G36 &lt;&gt; "",'Milestones + Packages'!G36,"")</f>
-        <v>A</v>
+        <v>S, C</v>
       </c>
       <c r="E39" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H36&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13088,7 +13252,7 @@
 IF('Milestones + Packages'!J36&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K36&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L36&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin     </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F39" s="1" t="str">
         <f>IF('Milestones + Packages'!A37="(M)",'Gantt Chart'!B39,"")</f>
@@ -13098,19 +13262,19 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="42" t="str">
         <f>IF('Milestones + Packages'!B37&lt;&gt; "",'Milestones + Packages'!B37,"")</f>
-        <v>Visualization</v>
+        <v>Finished Booth</v>
       </c>
       <c r="B40" s="43">
         <f>IF('Milestones + Packages'!$E37,'Milestones + Packages'!$E37,"")</f>
-        <v>42151</v>
+        <v>42134</v>
       </c>
       <c r="C40" s="43">
         <f>IF('Milestones + Packages'!$E37+'Milestones + Packages'!$F37,'Milestones + Packages'!$E37+'Milestones + Packages'!$F37 - 1,"")</f>
-        <v>42162</v>
+        <v>42134</v>
       </c>
       <c r="D40" s="42" t="str">
         <f>IF('Milestones + Packages'!G37 &lt;&gt; "",'Milestones + Packages'!G37,"")</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="E40" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H37&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13118,7 +13282,7 @@
 IF('Milestones + Packages'!J37&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K37&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L37&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">  Christian   </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F40" s="1" t="str">
         <f>IF('Milestones + Packages'!A38="(M)",'Gantt Chart'!B40,"")</f>
@@ -13128,19 +13292,19 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="42" t="str">
         <f>IF('Milestones + Packages'!B38&lt;&gt; "",'Milestones + Packages'!B38,"")</f>
-        <v>Implementation extended car model</v>
+        <v>Final Poster Hand-In</v>
       </c>
       <c r="B41" s="43">
         <f>IF('Milestones + Packages'!$E38,'Milestones + Packages'!$E38,"")</f>
-        <v>42151</v>
+        <v>42135</v>
       </c>
       <c r="C41" s="43">
         <f>IF('Milestones + Packages'!$E38+'Milestones + Packages'!$F38,'Milestones + Packages'!$E38+'Milestones + Packages'!$F38 - 1,"")</f>
-        <v>42157</v>
+        <v>42135</v>
       </c>
       <c r="D41" s="42" t="str">
         <f>IF('Milestones + Packages'!G38 &lt;&gt; "",'Milestones + Packages'!G38,"")</f>
-        <v>S</v>
+        <v>S, C</v>
       </c>
       <c r="E41" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H38&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13148,25 +13312,25 @@
 IF('Milestones + Packages'!J38&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K38&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L38&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve"> Sabina    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F41" s="1">
         <f>IF('Milestones + Packages'!A39="(M)",'Gantt Chart'!B41,"")</f>
-        <v>42151</v>
+        <v>42135</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="str">
         <f>IF('Milestones + Packages'!B39&lt;&gt; "",'Milestones + Packages'!B39,"")</f>
-        <v>Extended Car Model 2</v>
+        <v>Extended Model of Car 1</v>
       </c>
       <c r="B42" s="43">
         <f>IF('Milestones + Packages'!$E39,'Milestones + Packages'!$E39,"")</f>
-        <v>42172</v>
+        <v>42156</v>
       </c>
       <c r="C42" s="43">
         <f>IF('Milestones + Packages'!$E39+'Milestones + Packages'!$F39,'Milestones + Packages'!$E39+'Milestones + Packages'!$F39 - 1,"")</f>
-        <v>42172</v>
+        <v>42156</v>
       </c>
       <c r="D42" s="42" t="str">
         <f>IF('Milestones + Packages'!G39 &lt;&gt; "",'Milestones + Packages'!G39,"")</f>
@@ -13178,7 +13342,7 @@
 IF('Milestones + Packages'!J39&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K39&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L39&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F42" s="1" t="str">
         <f>IF('Milestones + Packages'!A40="(M)",'Gantt Chart'!B42,"")</f>
@@ -13188,19 +13352,19 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="42" t="str">
         <f>IF('Milestones + Packages'!B40&lt;&gt; "",'Milestones + Packages'!B40,"")</f>
-        <v>Extend Model of Car</v>
+        <v>Robust Optimization Formulation</v>
       </c>
       <c r="B43" s="43">
         <f>IF('Milestones + Packages'!$E40,'Milestones + Packages'!$E40,"")</f>
-        <v>42151</v>
+        <v>42135</v>
       </c>
       <c r="C43" s="43">
         <f>IF('Milestones + Packages'!$E40+'Milestones + Packages'!$F40,'Milestones + Packages'!$E40+'Milestones + Packages'!$F40 - 1,"")</f>
-        <v>42157</v>
+        <v>42148</v>
       </c>
       <c r="D43" s="42" t="str">
         <f>IF('Milestones + Packages'!G40 &lt;&gt; "",'Milestones + Packages'!G40,"")</f>
-        <v>J</v>
+        <v>A</v>
       </c>
       <c r="E43" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H40&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13208,7 +13372,7 @@
 IF('Milestones + Packages'!J40&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K40&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L40&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">   Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F43" s="1" t="str">
         <f>IF('Milestones + Packages'!A41="(M)",'Gantt Chart'!B43,"")</f>
@@ -13218,7 +13382,7 @@
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="42" t="str">
         <f>IF('Milestones + Packages'!B41&lt;&gt; "",'Milestones + Packages'!B41,"")</f>
-        <v>Math</v>
+        <v>Visualization</v>
       </c>
       <c r="B44" s="43">
         <f>IF('Milestones + Packages'!$E41,'Milestones + Packages'!$E41,"")</f>
@@ -13226,11 +13390,11 @@
       </c>
       <c r="C44" s="43">
         <f>IF('Milestones + Packages'!$E41+'Milestones + Packages'!$F41,'Milestones + Packages'!$E41+'Milestones + Packages'!$F41 - 1,"")</f>
-        <v>42160</v>
+        <v>42162</v>
       </c>
       <c r="D44" s="42" t="str">
         <f>IF('Milestones + Packages'!G41 &lt;&gt; "",'Milestones + Packages'!G41,"")</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="E44" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H41&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13238,7 +13402,7 @@
 IF('Milestones + Packages'!J41&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K41&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L41&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin     </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F44" s="1" t="str">
         <f>IF('Milestones + Packages'!A42="(M)",'Gantt Chart'!B44,"")</f>
@@ -13248,19 +13412,19 @@
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="42" t="str">
         <f>IF('Milestones + Packages'!B42&lt;&gt; "",'Milestones + Packages'!B42,"")</f>
-        <v>Implementation</v>
+        <v>Extended Model of Car</v>
       </c>
       <c r="B45" s="43">
         <f>IF('Milestones + Packages'!$E42,'Milestones + Packages'!$E42,"")</f>
-        <v>42158</v>
+        <v>42135</v>
       </c>
       <c r="C45" s="43">
         <f>IF('Milestones + Packages'!$E42+'Milestones + Packages'!$F42,'Milestones + Packages'!$E42+'Milestones + Packages'!$F42 - 1,"")</f>
-        <v>42171</v>
+        <v>42148</v>
       </c>
       <c r="D45" s="42" t="str">
         <f>IF('Milestones + Packages'!G42 &lt;&gt; "",'Milestones + Packages'!G42,"")</f>
-        <v>S</v>
+        <v>J</v>
       </c>
       <c r="E45" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H42&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13268,7 +13432,7 @@
 IF('Milestones + Packages'!J42&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K42&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L42&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve"> Sabina    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F45" s="1" t="str">
         <f>IF('Milestones + Packages'!A43="(M)",'Gantt Chart'!B45,"")</f>
@@ -13278,19 +13442,19 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="str">
         <f>IF('Milestones + Packages'!B43&lt;&gt; "",'Milestones + Packages'!B43,"")</f>
-        <v>Visualization</v>
+        <v>Implementation of Dynamics</v>
       </c>
       <c r="B46" s="43">
         <f>IF('Milestones + Packages'!$E43,'Milestones + Packages'!$E43,"")</f>
-        <v>42165</v>
+        <v>42148</v>
       </c>
       <c r="C46" s="43">
         <f>IF('Milestones + Packages'!$E43+'Milestones + Packages'!$F43,'Milestones + Packages'!$E43+'Milestones + Packages'!$F43 - 1,"")</f>
-        <v>42171</v>
+        <v>42154</v>
       </c>
       <c r="D46" s="42" t="str">
         <f>IF('Milestones + Packages'!G43 &lt;&gt; "",'Milestones + Packages'!G43,"")</f>
-        <v>C</v>
+        <v>J</v>
       </c>
       <c r="E46" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H43&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13298,29 +13462,29 @@
 IF('Milestones + Packages'!J43&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K43&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L43&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">  Christian   </v>
-      </c>
-      <c r="F46" s="1">
+        <v xml:space="preserve">     </v>
+      </c>
+      <c r="F46" s="1" t="str">
         <f>IF('Milestones + Packages'!A44="(M)",'Gantt Chart'!B46,"")</f>
-        <v>42165</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="42" t="str">
         <f>IF('Milestones + Packages'!B44&lt;&gt; "",'Milestones + Packages'!B44,"")</f>
-        <v>Extended Car Model 3</v>
+        <v>Implementation of Street Constraints</v>
       </c>
       <c r="B47" s="43">
         <f>IF('Milestones + Packages'!$E44,'Milestones + Packages'!$E44,"")</f>
-        <v>42192</v>
+        <v>42148</v>
       </c>
       <c r="C47" s="43">
         <f>IF('Milestones + Packages'!$E44+'Milestones + Packages'!$F44,'Milestones + Packages'!$E44+'Milestones + Packages'!$F44 - 1,"")</f>
-        <v>42192</v>
+        <v>42154</v>
       </c>
       <c r="D47" s="42" t="str">
         <f>IF('Milestones + Packages'!G44 &lt;&gt; "",'Milestones + Packages'!G44,"")</f>
-        <v/>
+        <v>A</v>
       </c>
       <c r="E47" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H44&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13328,7 +13492,7 @@
 IF('Milestones + Packages'!J44&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K44&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L44&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F47" s="1" t="str">
         <f>IF('Milestones + Packages'!A45="(M)",'Gantt Chart'!B47,"")</f>
@@ -13338,19 +13502,19 @@
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="42" t="str">
         <f>IF('Milestones + Packages'!B45&lt;&gt; "",'Milestones + Packages'!B45,"")</f>
-        <v>Extend Car Model</v>
+        <v>Implementation of robust formulation</v>
       </c>
       <c r="B48" s="43">
         <f>IF('Milestones + Packages'!$E45,'Milestones + Packages'!$E45,"")</f>
-        <v>42159</v>
+        <v>42148</v>
       </c>
       <c r="C48" s="43">
         <f>IF('Milestones + Packages'!$E45+'Milestones + Packages'!$F45,'Milestones + Packages'!$E45+'Milestones + Packages'!$F45 - 1,"")</f>
-        <v>42165</v>
+        <v>42154</v>
       </c>
       <c r="D48" s="42" t="str">
         <f>IF('Milestones + Packages'!G45 &lt;&gt; "",'Milestones + Packages'!G45,"")</f>
-        <v>J</v>
+        <v>A</v>
       </c>
       <c r="E48" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H45&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13358,7 +13522,7 @@
 IF('Milestones + Packages'!J45&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K45&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L45&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">   Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F48" s="1" t="str">
         <f>IF('Milestones + Packages'!A46="(M)",'Gantt Chart'!B48,"")</f>
@@ -13368,19 +13532,19 @@
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="42" t="str">
         <f>IF('Milestones + Packages'!B46&lt;&gt; "",'Milestones + Packages'!B46,"")</f>
-        <v>Math</v>
+        <v>Derivative of Dynamics</v>
       </c>
       <c r="B49" s="43">
         <f>IF('Milestones + Packages'!$E46,'Milestones + Packages'!$E46,"")</f>
-        <v>42160</v>
+        <v>42148</v>
       </c>
       <c r="C49" s="43">
         <f>IF('Milestones + Packages'!$E46+'Milestones + Packages'!$F46,'Milestones + Packages'!$E46+'Milestones + Packages'!$F46 - 1,"")</f>
-        <v>42166</v>
+        <v>42151</v>
       </c>
       <c r="D49" s="42" t="str">
         <f>IF('Milestones + Packages'!G46 &lt;&gt; "",'Milestones + Packages'!G46,"")</f>
-        <v>A</v>
+        <v>J</v>
       </c>
       <c r="E49" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H46&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13388,25 +13552,25 @@
 IF('Milestones + Packages'!J46&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K46&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L46&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin     </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F49" s="1">
         <f>IF('Milestones + Packages'!A49="(M)",'Gantt Chart'!B49,"")</f>
-        <v>42160</v>
+        <v>42148</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="42" t="str">
         <f>IF('Milestones + Packages'!B49&lt;&gt; "",'Milestones + Packages'!B49,"")</f>
-        <v>Final Workshop</v>
+        <v>Extended Model of Car 2</v>
       </c>
       <c r="B50" s="43">
         <f>IF('Milestones + Packages'!$E49,'Milestones + Packages'!$E49,"")</f>
-        <v>42196</v>
+        <v>42172</v>
       </c>
       <c r="C50" s="43">
         <f>IF('Milestones + Packages'!$E49+'Milestones + Packages'!$F49,'Milestones + Packages'!$E49+'Milestones + Packages'!$F49 - 1,"")</f>
-        <v>42196</v>
+        <v>42172</v>
       </c>
       <c r="D50" s="42" t="str">
         <f>IF('Milestones + Packages'!G49 &lt;&gt; "",'Milestones + Packages'!G49,"")</f>
@@ -13418,7 +13582,7 @@
 IF('Milestones + Packages'!J49&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K49&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L49&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F50" s="1" t="str">
         <f>IF('Milestones + Packages'!A50="(M)",'Gantt Chart'!B50,"")</f>
@@ -13428,19 +13592,19 @@
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="42" t="str">
         <f>IF('Milestones + Packages'!B50&lt;&gt; "",'Milestones + Packages'!B50,"")</f>
-        <v>Book Writing Center Appointment</v>
+        <v>Extend Model of Car</v>
       </c>
       <c r="B51" s="43">
         <f>IF('Milestones + Packages'!$E50,'Milestones + Packages'!$E50,"")</f>
-        <v>42141</v>
+        <v>42156</v>
       </c>
       <c r="C51" s="43">
         <f>IF('Milestones + Packages'!$E50+'Milestones + Packages'!$F50,'Milestones + Packages'!$E50+'Milestones + Packages'!$F50 - 1,"")</f>
-        <v>42141</v>
+        <v>42162</v>
       </c>
       <c r="D51" s="42" t="str">
         <f>IF('Milestones + Packages'!G50 &lt;&gt; "",'Milestones + Packages'!G50,"")</f>
-        <v>S</v>
+        <v>J</v>
       </c>
       <c r="E51" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H50&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13448,7 +13612,7 @@
 IF('Milestones + Packages'!J50&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K50&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L50&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve"> Sabina    </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F51" s="1" t="str">
         <f>IF('Milestones + Packages'!A51="(M)",'Gantt Chart'!B51,"")</f>
@@ -13458,19 +13622,19 @@
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="42" t="str">
         <f>IF('Milestones + Packages'!B51&lt;&gt; "",'Milestones + Packages'!B51,"")</f>
-        <v>Writing Abstract</v>
+        <v>Extend Optimization Problem</v>
       </c>
       <c r="B52" s="43">
         <f>IF('Milestones + Packages'!$E51,'Milestones + Packages'!$E51,"")</f>
-        <v>42175</v>
+        <v>42156</v>
       </c>
       <c r="C52" s="43">
         <f>IF('Milestones + Packages'!$E51+'Milestones + Packages'!$F51,'Milestones + Packages'!$E51+'Milestones + Packages'!$F51 - 1,"")</f>
-        <v>42181</v>
+        <v>42162</v>
       </c>
       <c r="D52" s="42" t="str">
         <f>IF('Milestones + Packages'!G51 &lt;&gt; "",'Milestones + Packages'!G51,"")</f>
-        <v>Team</v>
+        <v>A</v>
       </c>
       <c r="E52" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H51&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13478,7 +13642,7 @@
 IF('Milestones + Packages'!J51&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K51&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L51&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F52" s="1" t="str">
         <f>IF('Milestones + Packages'!A52="(M)",'Gantt Chart'!B52,"")</f>
@@ -13488,19 +13652,19 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="42" t="str">
         <f>IF('Milestones + Packages'!B52&lt;&gt; "",'Milestones + Packages'!B52,"")</f>
-        <v>Writing Center Appointment</v>
+        <v>Implement Changes in Opt. Problem</v>
       </c>
       <c r="B53" s="43">
         <f>IF('Milestones + Packages'!$E52,'Milestones + Packages'!$E52,"")</f>
-        <v>42179</v>
+        <v>42163</v>
       </c>
       <c r="C53" s="43">
         <f>IF('Milestones + Packages'!$E52+'Milestones + Packages'!$F52,'Milestones + Packages'!$E52+'Milestones + Packages'!$F52 - 1,"")</f>
-        <v>42179</v>
+        <v>42166</v>
       </c>
       <c r="D53" s="42" t="str">
         <f>IF('Milestones + Packages'!G52 &lt;&gt; "",'Milestones + Packages'!G52,"")</f>
-        <v>J</v>
+        <v>A</v>
       </c>
       <c r="E53" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H52&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13508,7 +13672,7 @@
 IF('Milestones + Packages'!J52&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K52&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L52&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">   Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F53" s="1" t="str">
         <f>IF('Milestones + Packages'!A53="(M)",'Gantt Chart'!B53,"")</f>
@@ -13518,19 +13682,19 @@
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="str">
         <f>IF('Milestones + Packages'!B53&lt;&gt; "",'Milestones + Packages'!B53,"")</f>
-        <v>Writing Center Appointment</v>
+        <v>Implementation of Dynamics</v>
       </c>
       <c r="B54" s="43">
         <f>IF('Milestones + Packages'!$E53,'Milestones + Packages'!$E53,"")</f>
-        <v>42181</v>
+        <v>42163</v>
       </c>
       <c r="C54" s="43">
         <f>IF('Milestones + Packages'!$E53+'Milestones + Packages'!$F53,'Milestones + Packages'!$E53+'Milestones + Packages'!$F53 - 1,"")</f>
-        <v>42181</v>
+        <v>42169</v>
       </c>
       <c r="D54" s="42" t="str">
         <f>IF('Milestones + Packages'!G53 &lt;&gt; "",'Milestones + Packages'!G53,"")</f>
-        <v>J</v>
+        <v/>
       </c>
       <c r="E54" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H53&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13538,7 +13702,7 @@
 IF('Milestones + Packages'!J53&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K53&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L53&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">   Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F54" s="1" t="str">
         <f>IF('Milestones + Packages'!A54="(M)",'Gantt Chart'!B54,"")</f>
@@ -13548,19 +13712,19 @@
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="42" t="str">
         <f>IF('Milestones + Packages'!B54&lt;&gt; "",'Milestones + Packages'!B54,"")</f>
-        <v>Talk about Final Presentation</v>
+        <v>Derivative of Dynamics</v>
       </c>
       <c r="B55" s="43">
         <f>IF('Milestones + Packages'!$E54,'Milestones + Packages'!$E54,"")</f>
-        <v>42183</v>
+        <v>42148</v>
       </c>
       <c r="C55" s="43">
         <f>IF('Milestones + Packages'!$E54+'Milestones + Packages'!$F54,'Milestones + Packages'!$E54+'Milestones + Packages'!$F54 - 1,"")</f>
-        <v>42183</v>
+        <v>42151</v>
       </c>
       <c r="D55" s="42" t="str">
         <f>IF('Milestones + Packages'!G54 &lt;&gt; "",'Milestones + Packages'!G54,"")</f>
-        <v>Team</v>
+        <v/>
       </c>
       <c r="E55" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H54&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13568,7 +13732,7 @@
 IF('Milestones + Packages'!J54&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K54&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L54&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F55" s="1" t="str">
         <f>IF('Milestones + Packages'!A55="(M)",'Gantt Chart'!B55,"")</f>
@@ -13578,19 +13742,19 @@
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="42" t="str">
         <f>IF('Milestones + Packages'!B55&lt;&gt; "",'Milestones + Packages'!B55,"")</f>
-        <v>Prepare Presentation</v>
-      </c>
-      <c r="B56" s="43">
+        <v>Implementation of Street Constraints</v>
+      </c>
+      <c r="B56" s="43" t="str">
         <f>IF('Milestones + Packages'!$E55,'Milestones + Packages'!$E55,"")</f>
-        <v>42183</v>
-      </c>
-      <c r="C56" s="43">
+        <v/>
+      </c>
+      <c r="C56" s="43" t="str">
         <f>IF('Milestones + Packages'!$E55+'Milestones + Packages'!$F55,'Milestones + Packages'!$E55+'Milestones + Packages'!$F55 - 1,"")</f>
-        <v>42191</v>
+        <v/>
       </c>
       <c r="D56" s="42" t="str">
         <f>IF('Milestones + Packages'!G55 &lt;&gt; "",'Milestones + Packages'!G55,"")</f>
-        <v>J, A</v>
+        <v/>
       </c>
       <c r="E56" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H55&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13598,7 +13762,7 @@
 IF('Milestones + Packages'!J55&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K55&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L55&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F56" s="1" t="str">
         <f>IF('Milestones + Packages'!A56="(M)",'Gantt Chart'!B56,"")</f>
@@ -13608,15 +13772,15 @@
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="42" t="str">
         <f>IF('Milestones + Packages'!B56&lt;&gt; "",'Milestones + Packages'!B56,"")</f>
-        <v>Projekt Abschluss</v>
+        <v>Simulations</v>
       </c>
       <c r="B57" s="43">
         <f>IF('Milestones + Packages'!$E56,'Milestones + Packages'!$E56,"")</f>
-        <v>42183</v>
+        <v>42158</v>
       </c>
       <c r="C57" s="43">
         <f>IF('Milestones + Packages'!$E56+'Milestones + Packages'!$F56,'Milestones + Packages'!$E56+'Milestones + Packages'!$F56 - 1,"")</f>
-        <v>42183</v>
+        <v>42171</v>
       </c>
       <c r="D57" s="42" t="str">
         <f>IF('Milestones + Packages'!G56 &lt;&gt; "",'Milestones + Packages'!G56,"")</f>
@@ -13628,7 +13792,7 @@
 IF('Milestones + Packages'!J56&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K56&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L56&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve"> Sabina Christian   </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F57" s="1" t="str">
         <f>IF('Milestones + Packages'!A57="(M)",'Gantt Chart'!B57,"")</f>
@@ -13638,19 +13802,19 @@
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="42" t="str">
         <f>IF('Milestones + Packages'!B57&lt;&gt; "",'Milestones + Packages'!B57,"")</f>
-        <v>Abstract</v>
+        <v>Visualization</v>
       </c>
       <c r="B58" s="43">
         <f>IF('Milestones + Packages'!$E57,'Milestones + Packages'!$E57,"")</f>
-        <v>42183</v>
+        <v>42165</v>
       </c>
       <c r="C58" s="43">
         <f>IF('Milestones + Packages'!$E57+'Milestones + Packages'!$F57,'Milestones + Packages'!$E57+'Milestones + Packages'!$F57 - 1,"")</f>
-        <v>42183</v>
+        <v>42171</v>
       </c>
       <c r="D58" s="42" t="str">
         <f>IF('Milestones + Packages'!G57 &lt;&gt; "",'Milestones + Packages'!G57,"")</f>
-        <v>Team</v>
+        <v>C</v>
       </c>
       <c r="E58" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H57&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13658,29 +13822,29 @@
 IF('Milestones + Packages'!J57&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K57&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L57&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">   Johannes  </v>
-      </c>
-      <c r="F58" s="1" t="str">
+        <v xml:space="preserve">     </v>
+      </c>
+      <c r="F58" s="1">
         <f>IF('Milestones + Packages'!A58="(M)",'Gantt Chart'!B58,"")</f>
-        <v/>
+        <v>42165</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="42" t="str">
         <f>IF('Milestones + Packages'!B58&lt;&gt; "",'Milestones + Packages'!B58,"")</f>
-        <v>Final Rehearsal</v>
+        <v>Final Workshop</v>
       </c>
       <c r="B59" s="43">
         <f>IF('Milestones + Packages'!$E58,'Milestones + Packages'!$E58,"")</f>
-        <v>42193</v>
+        <v>42196</v>
       </c>
       <c r="C59" s="43">
         <f>IF('Milestones + Packages'!$E58+'Milestones + Packages'!$F58,'Milestones + Packages'!$E58+'Milestones + Packages'!$F58 - 1,"")</f>
-        <v>42193</v>
+        <v>42196</v>
       </c>
       <c r="D59" s="42" t="str">
         <f>IF('Milestones + Packages'!G58 &lt;&gt; "",'Milestones + Packages'!G58,"")</f>
-        <v>Team</v>
+        <v/>
       </c>
       <c r="E59" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H58&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13688,7 +13852,7 @@
 IF('Milestones + Packages'!J58&lt;&gt;"",'Milestones + Packages'!J$2,"")," ",
 IF('Milestones + Packages'!K58&lt;&gt;"",'Milestones + Packages'!K$2,"")," ",
 IF('Milestones + Packages'!L58&lt;&gt;"",'Milestones + Packages'!L$2,"")," ")</f>
-        <v xml:space="preserve">Annkathrin Sabina Christian Johannes  </v>
+        <v xml:space="preserve">     </v>
       </c>
       <c r="F59" s="1" t="str">
         <f>IF('Milestones + Packages'!A59="(M)",'Gantt Chart'!B59,"")</f>
@@ -13698,19 +13862,19 @@
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="42" t="str">
         <f>IF('Milestones + Packages'!B59&lt;&gt; "",'Milestones + Packages'!B59,"")</f>
-        <v/>
-      </c>
-      <c r="B60" s="43" t="str">
+        <v>Book Writing Center Appointment</v>
+      </c>
+      <c r="B60" s="43">
         <f>IF('Milestones + Packages'!$E59,'Milestones + Packages'!$E59,"")</f>
-        <v/>
-      </c>
-      <c r="C60" s="43" t="str">
+        <v>42141</v>
+      </c>
+      <c r="C60" s="43">
         <f>IF('Milestones + Packages'!$E59+'Milestones + Packages'!$F59,'Milestones + Packages'!$E59+'Milestones + Packages'!$F59 - 1,"")</f>
-        <v/>
+        <v>42141</v>
       </c>
       <c r="D60" s="42" t="str">
         <f>IF('Milestones + Packages'!G59 &lt;&gt; "",'Milestones + Packages'!G59,"")</f>
-        <v/>
+        <v>S</v>
       </c>
       <c r="E60" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H59&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13728,19 +13892,19 @@
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="42" t="str">
         <f>IF('Milestones + Packages'!B60&lt;&gt; "",'Milestones + Packages'!B60,"")</f>
-        <v/>
-      </c>
-      <c r="B61" s="43" t="str">
+        <v>Writing Abstract</v>
+      </c>
+      <c r="B61" s="43">
         <f>IF('Milestones + Packages'!$E60,'Milestones + Packages'!$E60,"")</f>
-        <v/>
-      </c>
-      <c r="C61" s="43" t="str">
+        <v>42175</v>
+      </c>
+      <c r="C61" s="43">
         <f>IF('Milestones + Packages'!$E60+'Milestones + Packages'!$F60,'Milestones + Packages'!$E60+'Milestones + Packages'!$F60 - 1,"")</f>
-        <v/>
+        <v>42181</v>
       </c>
       <c r="D61" s="42" t="str">
         <f>IF('Milestones + Packages'!G60 &lt;&gt; "",'Milestones + Packages'!G60,"")</f>
-        <v/>
+        <v>Team</v>
       </c>
       <c r="E61" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H60&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13758,19 +13922,19 @@
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="42" t="str">
         <f>IF('Milestones + Packages'!B61&lt;&gt; "",'Milestones + Packages'!B61,"")</f>
-        <v/>
-      </c>
-      <c r="B62" s="43" t="str">
+        <v>Writing Center Appointment</v>
+      </c>
+      <c r="B62" s="43">
         <f>IF('Milestones + Packages'!$E61,'Milestones + Packages'!$E61,"")</f>
-        <v/>
-      </c>
-      <c r="C62" s="43" t="str">
+        <v>42179</v>
+      </c>
+      <c r="C62" s="43">
         <f>IF('Milestones + Packages'!$E61+'Milestones + Packages'!$F61,'Milestones + Packages'!$E61+'Milestones + Packages'!$F61 - 1,"")</f>
-        <v/>
+        <v>42179</v>
       </c>
       <c r="D62" s="42" t="str">
         <f>IF('Milestones + Packages'!G61 &lt;&gt; "",'Milestones + Packages'!G61,"")</f>
-        <v/>
+        <v>J</v>
       </c>
       <c r="E62" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H61&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13788,19 +13952,19 @@
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="42" t="str">
         <f>IF('Milestones + Packages'!B62&lt;&gt; "",'Milestones + Packages'!B62,"")</f>
-        <v/>
-      </c>
-      <c r="B63" s="43" t="str">
+        <v>Writing Center Appointment</v>
+      </c>
+      <c r="B63" s="43">
         <f>IF('Milestones + Packages'!$E62,'Milestones + Packages'!$E62,"")</f>
-        <v/>
-      </c>
-      <c r="C63" s="43" t="str">
+        <v>42181</v>
+      </c>
+      <c r="C63" s="43">
         <f>IF('Milestones + Packages'!$E62+'Milestones + Packages'!$F62,'Milestones + Packages'!$E62+'Milestones + Packages'!$F62 - 1,"")</f>
-        <v/>
+        <v>42181</v>
       </c>
       <c r="D63" s="42" t="str">
         <f>IF('Milestones + Packages'!G62 &lt;&gt; "",'Milestones + Packages'!G62,"")</f>
-        <v/>
+        <v>J</v>
       </c>
       <c r="E63" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H62&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13818,19 +13982,19 @@
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="42" t="str">
         <f>IF('Milestones + Packages'!B63&lt;&gt; "",'Milestones + Packages'!B63,"")</f>
-        <v/>
-      </c>
-      <c r="B64" s="43" t="str">
+        <v>Talk about Final Presentation</v>
+      </c>
+      <c r="B64" s="43">
         <f>IF('Milestones + Packages'!$E63,'Milestones + Packages'!$E63,"")</f>
-        <v/>
-      </c>
-      <c r="C64" s="43" t="str">
+        <v>42183</v>
+      </c>
+      <c r="C64" s="43">
         <f>IF('Milestones + Packages'!$E63+'Milestones + Packages'!$F63,'Milestones + Packages'!$E63+'Milestones + Packages'!$F63 - 1,"")</f>
-        <v/>
+        <v>42183</v>
       </c>
       <c r="D64" s="42" t="str">
         <f>IF('Milestones + Packages'!G63 &lt;&gt; "",'Milestones + Packages'!G63,"")</f>
-        <v/>
+        <v>Team</v>
       </c>
       <c r="E64" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H63&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13848,19 +14012,19 @@
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="42" t="str">
         <f>IF('Milestones + Packages'!B64&lt;&gt; "",'Milestones + Packages'!B64,"")</f>
-        <v/>
-      </c>
-      <c r="B65" s="43" t="str">
+        <v>Prepare Presentation</v>
+      </c>
+      <c r="B65" s="43">
         <f>IF('Milestones + Packages'!$E64,'Milestones + Packages'!$E64,"")</f>
-        <v/>
-      </c>
-      <c r="C65" s="43" t="str">
+        <v>42183</v>
+      </c>
+      <c r="C65" s="43">
         <f>IF('Milestones + Packages'!$E64+'Milestones + Packages'!$F64,'Milestones + Packages'!$E64+'Milestones + Packages'!$F64 - 1,"")</f>
-        <v/>
+        <v>42191</v>
       </c>
       <c r="D65" s="42" t="str">
         <f>IF('Milestones + Packages'!G64 &lt;&gt; "",'Milestones + Packages'!G64,"")</f>
-        <v/>
+        <v>J, A</v>
       </c>
       <c r="E65" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H64&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13878,19 +14042,19 @@
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="42" t="str">
         <f>IF('Milestones + Packages'!B65&lt;&gt; "",'Milestones + Packages'!B65,"")</f>
-        <v/>
-      </c>
-      <c r="B66" s="43" t="str">
+        <v>Finalize Project</v>
+      </c>
+      <c r="B66" s="43">
         <f>IF('Milestones + Packages'!$E65,'Milestones + Packages'!$E65,"")</f>
-        <v/>
-      </c>
-      <c r="C66" s="43" t="str">
+        <v>42183</v>
+      </c>
+      <c r="C66" s="43">
         <f>IF('Milestones + Packages'!$E65+'Milestones + Packages'!$F65,'Milestones + Packages'!$E65+'Milestones + Packages'!$F65 - 1,"")</f>
-        <v/>
+        <v>42183</v>
       </c>
       <c r="D66" s="42" t="str">
         <f>IF('Milestones + Packages'!G65 &lt;&gt; "",'Milestones + Packages'!G65,"")</f>
-        <v/>
+        <v>S</v>
       </c>
       <c r="E66" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H65&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13908,19 +14072,19 @@
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="42" t="str">
         <f>IF('Milestones + Packages'!B66&lt;&gt; "",'Milestones + Packages'!B66,"")</f>
-        <v/>
-      </c>
-      <c r="B67" s="43" t="str">
+        <v>Abstract</v>
+      </c>
+      <c r="B67" s="43">
         <f>IF('Milestones + Packages'!$E66,'Milestones + Packages'!$E66,"")</f>
-        <v/>
-      </c>
-      <c r="C67" s="43" t="str">
+        <v>42183</v>
+      </c>
+      <c r="C67" s="43">
         <f>IF('Milestones + Packages'!$E66+'Milestones + Packages'!$F66,'Milestones + Packages'!$E66+'Milestones + Packages'!$F66 - 1,"")</f>
-        <v/>
+        <v>42183</v>
       </c>
       <c r="D67" s="42" t="str">
         <f>IF('Milestones + Packages'!G66 &lt;&gt; "",'Milestones + Packages'!G66,"")</f>
-        <v/>
+        <v>Team</v>
       </c>
       <c r="E67" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H66&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -13938,19 +14102,19 @@
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="42" t="str">
         <f>IF('Milestones + Packages'!B67&lt;&gt; "",'Milestones + Packages'!B67,"")</f>
-        <v/>
-      </c>
-      <c r="B68" s="43" t="str">
+        <v>Final Rehearsal</v>
+      </c>
+      <c r="B68" s="43">
         <f>IF('Milestones + Packages'!$E67,'Milestones + Packages'!$E67,"")</f>
-        <v/>
-      </c>
-      <c r="C68" s="43" t="str">
+        <v>42193</v>
+      </c>
+      <c r="C68" s="43">
         <f>IF('Milestones + Packages'!$E67+'Milestones + Packages'!$F67,'Milestones + Packages'!$E67+'Milestones + Packages'!$F67 - 1,"")</f>
-        <v/>
+        <v>42193</v>
       </c>
       <c r="D68" s="42" t="str">
         <f>IF('Milestones + Packages'!G67 &lt;&gt; "",'Milestones + Packages'!G67,"")</f>
-        <v/>
+        <v>Team</v>
       </c>
       <c r="E68" s="46" t="str">
         <f>CONCATENATE(IF('Milestones + Packages'!H67&lt;&gt;"",'Milestones + Packages'!H$2,"")," ",
@@ -24026,7 +24190,7 @@
     <mergeCell ref="AW3:BC3"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:CW300">
-    <cfRule type="expression" dxfId="20" priority="77">
+    <cfRule type="expression" dxfId="24" priority="77">
       <formula>NOT(ISNA(VLOOKUP(G$5,$F:$F,1,FALSE)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24265,37 +24429,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="str">
+      <c r="A1" s="13">
         <f>'Milestones + Packages'!H2</f>
-        <v>Annkathrin</v>
-      </c>
-      <c r="B1" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13">
         <f>'Milestones + Packages'!H2</f>
-        <v>Annkathrin</v>
-      </c>
-      <c r="C1" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13">
         <f>'Milestones + Packages'!I2</f>
-        <v>Sabina</v>
-      </c>
-      <c r="D1" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13">
         <f>'Milestones + Packages'!I2</f>
-        <v>Sabina</v>
-      </c>
-      <c r="E1" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="E1" s="13">
         <f>'Milestones + Packages'!J2</f>
-        <v>Christian</v>
-      </c>
-      <c r="F1" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="F1" s="13">
         <f>'Milestones + Packages'!J2</f>
-        <v>Christian</v>
-      </c>
-      <c r="G1" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="G1" s="13">
         <f>'Milestones + Packages'!K2</f>
-        <v>Johannes</v>
-      </c>
-      <c r="H1" s="13" t="str">
+        <v>0</v>
+      </c>
+      <c r="H1" s="13">
         <f>'Milestones + Packages'!K2</f>
-        <v>Johannes</v>
+        <v>0</v>
       </c>
       <c r="I1" s="13">
         <f>'Milestones + Packages'!L2</f>
@@ -24308,34 +24472,34 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="J2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -24769,7 +24933,7 @@
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>Present your schedule</v>
+        <v>Set up GitHub</v>
       </c>
       <c r="G10" t="str">
         <f>IF('Milestones + Packages'!K10&lt;&gt;"",'Milestones + Packages'!$B10,"")</f>
@@ -24804,7 +24968,7 @@
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>Present your schedule</v>
+        <v>GitHub</v>
       </c>
       <c r="C11" t="str">
         <f>IF('Milestones + Packages'!I11&lt;&gt;"",'Milestones + Packages'!$B11,"")</f>
@@ -24815,7 +24979,7 @@
 COUNTBLANK(T2BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T2BLANKS&lt;&gt;"",ROW(T2BLANKS),ROW()+ROWS(T2BLANKS))),
 ROW()-ROW(T2NOBLANKS)+1),COLUMN(T2BLANKS),4)))</f>
-        <v>Present your schedule</v>
+        <v>GitHub</v>
       </c>
       <c r="E11" t="str">
         <f>IF('Milestones + Packages'!J11&lt;&gt;"",'Milestones + Packages'!$B11,"")</f>
@@ -24826,7 +24990,7 @@
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>Decision Extension Car Model</v>
+        <v>GitHub</v>
       </c>
       <c r="G11" t="str">
         <f>IF('Milestones + Packages'!K11&lt;&gt;"",'Milestones + Packages'!$B11,"")</f>
@@ -24861,7 +25025,7 @@
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>Appointment: Modelling of  Car and Modelling of Optimization Problem</v>
+        <v>Present your schedule</v>
       </c>
       <c r="C12" t="str">
         <f>IF('Milestones + Packages'!I12&lt;&gt;"",'Milestones + Packages'!$B12,"")</f>
@@ -24872,7 +25036,7 @@
 COUNTBLANK(T2BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T2BLANKS&lt;&gt;"",ROW(T2BLANKS),ROW()+ROWS(T2BLANKS))),
 ROW()-ROW(T2NOBLANKS)+1),COLUMN(T2BLANKS),4)))</f>
-        <v>Appointment: Exchange between Modelling and Implementation</v>
+        <v>Present your schedule</v>
       </c>
       <c r="E12" t="str">
         <f>IF('Milestones + Packages'!J12&lt;&gt;"",'Milestones + Packages'!$B12,"")</f>
@@ -24883,7 +25047,7 @@
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>Get to Know a Program for Visualization</v>
+        <v>Present your schedule</v>
       </c>
       <c r="G12" t="str">
         <f>IF('Milestones + Packages'!K12&lt;&gt;"",'Milestones + Packages'!$B12,"")</f>
@@ -24894,7 +25058,7 @@
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Print the Gantt Chart</v>
+        <v>GitHub</v>
       </c>
       <c r="I12" t="str">
         <f>IF('Milestones + Packages'!L12&lt;&gt;"",'Milestones + Packages'!$B12,"")</f>
@@ -24918,7 +25082,7 @@
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>Appointment: Exchange between Modelling and Implementation</v>
+        <v>Appointment: Modelling of  Car and Modelling of Optimization Problem</v>
       </c>
       <c r="C13" t="str">
         <f>IF('Milestones + Packages'!I13&lt;&gt;"",'Milestones + Packages'!$B13,"")</f>
@@ -24929,29 +25093,29 @@
 COUNTBLANK(T2BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T2BLANKS&lt;&gt;"",ROW(T2BLANKS),ROW()+ROWS(T2BLANKS))),
 ROW()-ROW(T2NOBLANKS)+1),COLUMN(T2BLANKS),4)))</f>
-        <v>Decision Extension Car Model</v>
+        <v>Appointment: Exchange between Modelling and Implementation</v>
       </c>
       <c r="E13" t="str">
         <f>IF('Milestones + Packages'!J13&lt;&gt;"",'Milestones + Packages'!$B13,"")</f>
-        <v/>
+        <v>Set up GitHub</v>
       </c>
       <c r="F13" t="str">
         <f t="array" aca="1" ref="F13" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>Midterm Presenation</v>
+        <v>Decision Extension Car Model</v>
       </c>
       <c r="G13" t="str">
         <f>IF('Milestones + Packages'!K13&lt;&gt;"",'Milestones + Packages'!$B13,"")</f>
-        <v>Print the Gantt Chart</v>
+        <v/>
       </c>
       <c r="H13" t="str">
         <f t="array" aca="1" ref="H13" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Present your schedule</v>
+        <v>Print the Gantt Chart</v>
       </c>
       <c r="I13" t="str">
         <f>IF('Milestones + Packages'!L13&lt;&gt;"",'Milestones + Packages'!$B13,"")</f>
@@ -24968,47 +25132,47 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>IF('Milestones + Packages'!H14&lt;&gt;"",'Milestones + Packages'!$B14,"")</f>
-        <v>Present your schedule</v>
+        <v>GitHub</v>
       </c>
       <c r="B14" t="str">
         <f t="array" aca="1" ref="B14" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>Decision Extension Car Model</v>
+        <v>Appointment: Exchange between Modelling and Implementation</v>
       </c>
       <c r="C14" t="str">
         <f>IF('Milestones + Packages'!I14&lt;&gt;"",'Milestones + Packages'!$B14,"")</f>
-        <v>Present your schedule</v>
+        <v>GitHub</v>
       </c>
       <c r="D14" t="str">
         <f t="array" aca="1" ref="D14" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
 COUNTBLANK(T2BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T2BLANKS&lt;&gt;"",ROW(T2BLANKS),ROW()+ROWS(T2BLANKS))),
 ROW()-ROW(T2NOBLANKS)+1),COLUMN(T2BLANKS),4)))</f>
-        <v>Midterm Presenation</v>
+        <v>Decision Extension Car Model</v>
       </c>
       <c r="E14" t="str">
         <f>IF('Milestones + Packages'!J14&lt;&gt;"",'Milestones + Packages'!$B14,"")</f>
-        <v>Present your schedule</v>
+        <v>GitHub</v>
       </c>
       <c r="F14" t="str">
         <f t="array" aca="1" ref="F14" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>Poster Presentation</v>
+        <v>Robust Optimizaton - An adapted Optimizaton</v>
       </c>
       <c r="G14" t="str">
         <f>IF('Milestones + Packages'!K14&lt;&gt;"",'Milestones + Packages'!$B14,"")</f>
-        <v>Present your schedule</v>
+        <v>GitHub</v>
       </c>
       <c r="H14" t="str">
         <f t="array" aca="1" ref="H14" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Appointment: Modelling of  Car and Modelling of Optimization Problem</v>
+        <v>Present your schedule</v>
       </c>
       <c r="I14" t="str">
         <f>IF('Milestones + Packages'!L14&lt;&gt;"",'Milestones + Packages'!$B14,"")</f>
@@ -25025,14 +25189,14 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>IF('Milestones + Packages'!H15&lt;&gt;"",'Milestones + Packages'!$B15,"")</f>
-        <v>Appointment: Modelling of  Car and Modelling of Optimization Problem</v>
+        <v/>
       </c>
       <c r="B15" t="str">
         <f t="array" aca="1" ref="B15" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>Adapt Optimization</v>
+        <v>Decision Extension Car Model</v>
       </c>
       <c r="C15" t="str">
         <f>IF('Milestones + Packages'!I15&lt;&gt;"",'Milestones + Packages'!$B15,"")</f>
@@ -25043,7 +25207,7 @@
 COUNTBLANK(T2BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T2BLANKS&lt;&gt;"",ROW(T2BLANKS),ROW()+ROWS(T2BLANKS))),
 ROW()-ROW(T2NOBLANKS)+1),COLUMN(T2BLANKS),4)))</f>
-        <v>Implementation extended car model</v>
+        <v>Midterm Presenation</v>
       </c>
       <c r="E15" t="str">
         <f>IF('Milestones + Packages'!J15&lt;&gt;"",'Milestones + Packages'!$B15,"")</f>
@@ -25054,18 +25218,18 @@
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>Brain Storming Poster</v>
+        <v>Get to Know a Program for Visualization</v>
       </c>
       <c r="G15" t="str">
         <f>IF('Milestones + Packages'!K15&lt;&gt;"",'Milestones + Packages'!$B15,"")</f>
-        <v>Appointment: Modelling of  Car and Modelling of Optimization Problem</v>
+        <v>Print the Gantt Chart</v>
       </c>
       <c r="H15" t="str">
         <f t="array" aca="1" ref="H15" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Appointment: Exchange between Modelling and Implementation</v>
+        <v>Appointment: Modelling of  Car and Modelling of Optimization Problem</v>
       </c>
       <c r="I15" t="str">
         <f>IF('Milestones + Packages'!L15&lt;&gt;"",'Milestones + Packages'!$B15,"")</f>
@@ -25082,47 +25246,47 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>IF('Milestones + Packages'!H16&lt;&gt;"",'Milestones + Packages'!$B16,"")</f>
-        <v>Appointment: Exchange between Modelling and Implementation</v>
+        <v>Present your schedule</v>
       </c>
       <c r="B16" t="str">
         <f t="array" aca="1" ref="B16" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>Midterm Presenation</v>
+        <v>Adapt Optimization</v>
       </c>
       <c r="C16" t="str">
         <f>IF('Milestones + Packages'!I16&lt;&gt;"",'Milestones + Packages'!$B16,"")</f>
-        <v>Appointment: Exchange between Modelling and Implementation</v>
+        <v>Present your schedule</v>
       </c>
       <c r="D16" t="str">
         <f t="array" aca="1" ref="D16" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
 COUNTBLANK(T2BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T2BLANKS&lt;&gt;"",ROW(T2BLANKS),ROW()+ROWS(T2BLANKS))),
 ROW()-ROW(T2NOBLANKS)+1),COLUMN(T2BLANKS),4)))</f>
-        <v>Poster Presentation</v>
+        <v xml:space="preserve">Create Slides </v>
       </c>
       <c r="E16" t="str">
         <f>IF('Milestones + Packages'!J16&lt;&gt;"",'Milestones + Packages'!$B16,"")</f>
-        <v/>
+        <v>Present your schedule</v>
       </c>
       <c r="F16" t="str">
         <f t="array" aca="1" ref="F16" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>Get to Know the Visualisation Program</v>
+        <v>Midterm Presenation</v>
       </c>
       <c r="G16" t="str">
         <f>IF('Milestones + Packages'!K16&lt;&gt;"",'Milestones + Packages'!$B16,"")</f>
-        <v>Appointment: Exchange between Modelling and Implementation</v>
+        <v>Present your schedule</v>
       </c>
       <c r="H16" t="str">
         <f t="array" aca="1" ref="H16" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Decision Extension Car Model</v>
+        <v>Appointment: Exchange between Modelling and Implementation</v>
       </c>
       <c r="I16" t="str">
         <f>IF('Milestones + Packages'!L16&lt;&gt;"",'Milestones + Packages'!$B16,"")</f>
@@ -25139,47 +25303,47 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>IF('Milestones + Packages'!H17&lt;&gt;"",'Milestones + Packages'!$B17,"")</f>
-        <v>Decision Extension Car Model</v>
+        <v>Appointment: Modelling of  Car and Modelling of Optimization Problem</v>
       </c>
       <c r="B17" t="str">
         <f t="array" aca="1" ref="B17" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>Poster Presentation</v>
+        <v>Midterm Presenation</v>
       </c>
       <c r="C17" t="str">
         <f>IF('Milestones + Packages'!I17&lt;&gt;"",'Milestones + Packages'!$B17,"")</f>
-        <v>Decision Extension Car Model</v>
+        <v/>
       </c>
       <c r="D17" t="str">
         <f t="array" aca="1" ref="D17" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
 COUNTBLANK(T2BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T2BLANKS&lt;&gt;"",ROW(T2BLANKS),ROW()+ROWS(T2BLANKS))),
 ROW()-ROW(T2NOBLANKS)+1),COLUMN(T2BLANKS),4)))</f>
-        <v>Brain Storming Poster</v>
+        <v>Prepare Presentation</v>
       </c>
       <c r="E17" t="str">
         <f>IF('Milestones + Packages'!J17&lt;&gt;"",'Milestones + Packages'!$B17,"")</f>
-        <v>Decision Extension Car Model</v>
+        <v/>
       </c>
       <c r="F17" t="str">
         <f t="array" aca="1" ref="F17" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>Poster Design</v>
+        <v xml:space="preserve">Create Slides </v>
       </c>
       <c r="G17" t="str">
         <f>IF('Milestones + Packages'!K17&lt;&gt;"",'Milestones + Packages'!$B17,"")</f>
-        <v>Decision Extension Car Model</v>
+        <v>Appointment: Modelling of  Car and Modelling of Optimization Problem</v>
       </c>
       <c r="H17" t="str">
         <f t="array" aca="1" ref="H17" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Extentend Model of Car</v>
+        <v>Decision Extension Car Model</v>
       </c>
       <c r="I17" t="str">
         <f>IF('Milestones + Packages'!L17&lt;&gt;"",'Milestones + Packages'!$B17,"")</f>
@@ -25196,25 +25360,25 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>IF('Milestones + Packages'!H18&lt;&gt;"",'Milestones + Packages'!$B18,"")</f>
-        <v/>
+        <v>Appointment: Exchange between Modelling and Implementation</v>
       </c>
       <c r="B18" t="str">
         <f t="array" aca="1" ref="B18" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>Brain Storming Poster</v>
+        <v xml:space="preserve">Create Slides </v>
       </c>
       <c r="C18" t="str">
         <f>IF('Milestones + Packages'!I18&lt;&gt;"",'Milestones + Packages'!$B18,"")</f>
-        <v/>
+        <v>Appointment: Exchange between Modelling and Implementation</v>
       </c>
       <c r="D18" t="str">
         <f t="array" aca="1" ref="D18" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
 COUNTBLANK(T2BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T2BLANKS&lt;&gt;"",ROW(T2BLANKS),ROW()+ROWS(T2BLANKS))),
 ROW()-ROW(T2NOBLANKS)+1),COLUMN(T2BLANKS),4)))</f>
-        <v>Poster Design</v>
+        <v>Poster Presentation</v>
       </c>
       <c r="E18" t="str">
         <f>IF('Milestones + Packages'!J18&lt;&gt;"",'Milestones + Packages'!$B18,"")</f>
@@ -25225,18 +25389,18 @@
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>First Poster Draft</v>
+        <v>Prepare Presentation</v>
       </c>
       <c r="G18" t="str">
         <f>IF('Milestones + Packages'!K18&lt;&gt;"",'Milestones + Packages'!$B18,"")</f>
-        <v>Extentend Model of Car</v>
+        <v>Appointment: Exchange between Modelling and Implementation</v>
       </c>
       <c r="H18" t="str">
         <f t="array" aca="1" ref="H18" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Midterm Presenation</v>
+        <v>Extentend Model of Car</v>
       </c>
       <c r="I18" t="str">
         <f>IF('Milestones + Packages'!L18&lt;&gt;"",'Milestones + Packages'!$B18,"")</f>
@@ -25253,47 +25417,47 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>IF('Milestones + Packages'!H19&lt;&gt;"",'Milestones + Packages'!$B19,"")</f>
-        <v>Adapt Optimization</v>
+        <v>Decision Extension Car Model</v>
       </c>
       <c r="B19" t="str">
         <f t="array" aca="1" ref="B19" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>Poster Design</v>
+        <v>Prepare Presentation</v>
       </c>
       <c r="C19" t="str">
         <f>IF('Milestones + Packages'!I19&lt;&gt;"",'Milestones + Packages'!$B19,"")</f>
-        <v/>
+        <v>Decision Extension Car Model</v>
       </c>
       <c r="D19" t="str">
         <f t="array" aca="1" ref="D19" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
 COUNTBLANK(T2BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T2BLANKS&lt;&gt;"",ROW(T2BLANKS),ROW()+ROWS(T2BLANKS))),
 ROW()-ROW(T2NOBLANKS)+1),COLUMN(T2BLANKS),4)))</f>
-        <v>First Poster Draft</v>
+        <v>Brain Storming Poster</v>
       </c>
       <c r="E19" t="str">
         <f>IF('Milestones + Packages'!J19&lt;&gt;"",'Milestones + Packages'!$B19,"")</f>
-        <v/>
+        <v>Decision Extension Car Model</v>
       </c>
       <c r="F19" t="str">
         <f t="array" aca="1" ref="F19" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>Revice Poster Design and Contents</v>
+        <v>Poster Presentation</v>
       </c>
       <c r="G19" t="str">
         <f>IF('Milestones + Packages'!K19&lt;&gt;"",'Milestones + Packages'!$B19,"")</f>
-        <v/>
+        <v>Decision Extension Car Model</v>
       </c>
       <c r="H19" t="str">
         <f t="array" aca="1" ref="H19" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Design Midterm Presentation</v>
+        <v>Midterm Presenation</v>
       </c>
       <c r="I19" t="str">
         <f>IF('Milestones + Packages'!L19&lt;&gt;"",'Milestones + Packages'!$B19,"")</f>
@@ -25317,7 +25481,7 @@
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>First Poster Draft</v>
+        <v>Poster Presentation</v>
       </c>
       <c r="C20" t="str">
         <f>IF('Milestones + Packages'!I20&lt;&gt;"",'Milestones + Packages'!$B20,"")</f>
@@ -25328,18 +25492,18 @@
 COUNTBLANK(T2BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T2BLANKS&lt;&gt;"",ROW(T2BLANKS),ROW()+ROWS(T2BLANKS))),
 ROW()-ROW(T2NOBLANKS)+1),COLUMN(T2BLANKS),4)))</f>
-        <v>Revice Poster Design and Contents</v>
+        <v>Poster Design</v>
       </c>
       <c r="E20" t="str">
         <f>IF('Milestones + Packages'!J20&lt;&gt;"",'Milestones + Packages'!$B20,"")</f>
-        <v>Get to Know a Program for Visualization</v>
+        <v>Robust Optimizaton - An adapted Optimizaton</v>
       </c>
       <c r="F20" t="str">
         <f t="array" aca="1" ref="F20" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>Booth</v>
+        <v>Brain Storming Poster</v>
       </c>
       <c r="G20" t="str">
         <f>IF('Milestones + Packages'!K20&lt;&gt;"",'Milestones + Packages'!$B20,"")</f>
@@ -25350,7 +25514,7 @@
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Poster Presentation</v>
+        <v xml:space="preserve">Create Slides </v>
       </c>
       <c r="I20" t="str">
         <f>IF('Milestones + Packages'!L20&lt;&gt;"",'Milestones + Packages'!$B20,"")</f>
@@ -25367,47 +25531,47 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>IF('Milestones + Packages'!H21&lt;&gt;"",'Milestones + Packages'!$B21,"")</f>
-        <v>Midterm Presenation</v>
+        <v/>
       </c>
       <c r="B21" t="str">
         <f t="array" aca="1" ref="B21" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>Revice Poster Design and Contents</v>
+        <v>Brain Storming Poster</v>
       </c>
       <c r="C21" t="str">
         <f>IF('Milestones + Packages'!I21&lt;&gt;"",'Milestones + Packages'!$B21,"")</f>
-        <v>Midterm Presenation</v>
+        <v/>
       </c>
       <c r="D21" t="str">
         <f t="array" aca="1" ref="D21" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
 COUNTBLANK(T2BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T2BLANKS&lt;&gt;"",ROW(T2BLANKS),ROW()+ROWS(T2BLANKS))),
 ROW()-ROW(T2NOBLANKS)+1),COLUMN(T2BLANKS),4)))</f>
-        <v>Booth</v>
+        <v>First Poster Draft</v>
       </c>
       <c r="E21" t="str">
         <f>IF('Milestones + Packages'!J21&lt;&gt;"",'Milestones + Packages'!$B21,"")</f>
-        <v>Midterm Presenation</v>
+        <v/>
       </c>
       <c r="F21" t="str">
         <f t="array" aca="1" ref="F21" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>Internal Poster Presentation</v>
+        <v>Get to Know the Visualisation Program</v>
       </c>
       <c r="G21" t="str">
         <f>IF('Milestones + Packages'!K21&lt;&gt;"",'Milestones + Packages'!$B21,"")</f>
-        <v>Midterm Presenation</v>
+        <v>Extentend Model of Car</v>
       </c>
       <c r="H21" t="str">
         <f t="array" aca="1" ref="H21" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Brain Storming Poster</v>
+        <v>Prepare Presentation</v>
       </c>
       <c r="I21" t="str">
         <f>IF('Milestones + Packages'!L21&lt;&gt;"",'Milestones + Packages'!$B21,"")</f>
@@ -25424,25 +25588,25 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>IF('Milestones + Packages'!H22&lt;&gt;"",'Milestones + Packages'!$B22,"")</f>
-        <v/>
+        <v>Adapt Optimization</v>
       </c>
       <c r="B22" t="str">
         <f t="array" aca="1" ref="B22" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>Booth</v>
+        <v>Poster Design</v>
       </c>
       <c r="C22" t="str">
         <f>IF('Milestones + Packages'!I22&lt;&gt;"",'Milestones + Packages'!$B22,"")</f>
-        <v>Implementation extended car model</v>
+        <v/>
       </c>
       <c r="D22" t="str">
         <f t="array" aca="1" ref="D22" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
 COUNTBLANK(T2BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T2BLANKS&lt;&gt;"",ROW(T2BLANKS),ROW()+ROWS(T2BLANKS))),
 ROW()-ROW(T2NOBLANKS)+1),COLUMN(T2BLANKS),4)))</f>
-        <v>Internal Poster Presentation</v>
+        <v>Revice Poster Design and Contents</v>
       </c>
       <c r="E22" t="str">
         <f>IF('Milestones + Packages'!J22&lt;&gt;"",'Milestones + Packages'!$B22,"")</f>
@@ -25453,7 +25617,7 @@
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>Finished Booth</v>
+        <v>Poster Design</v>
       </c>
       <c r="G22" t="str">
         <f>IF('Milestones + Packages'!K22&lt;&gt;"",'Milestones + Packages'!$B22,"")</f>
@@ -25464,7 +25628,7 @@
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Poster Design</v>
+        <v>Design Midterm Presentation</v>
       </c>
       <c r="I22" t="str">
         <f>IF('Milestones + Packages'!L22&lt;&gt;"",'Milestones + Packages'!$B22,"")</f>
@@ -25488,7 +25652,7 @@
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>Internal Poster Presentation</v>
+        <v>First Poster Draft</v>
       </c>
       <c r="C23" t="str">
         <f>IF('Milestones + Packages'!I23&lt;&gt;"",'Milestones + Packages'!$B23,"")</f>
@@ -25499,29 +25663,29 @@
 COUNTBLANK(T2BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T2BLANKS&lt;&gt;"",ROW(T2BLANKS),ROW()+ROWS(T2BLANKS))),
 ROW()-ROW(T2NOBLANKS)+1),COLUMN(T2BLANKS),4)))</f>
-        <v>Finished Booth</v>
+        <v>Booth</v>
       </c>
       <c r="E23" t="str">
         <f>IF('Milestones + Packages'!J23&lt;&gt;"",'Milestones + Packages'!$B23,"")</f>
-        <v/>
+        <v>Get to Know a Program for Visualization</v>
       </c>
       <c r="F23" t="str">
         <f t="array" aca="1" ref="F23" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>Final Poster Hand-In</v>
+        <v>First Poster Draft</v>
       </c>
       <c r="G23" t="str">
         <f>IF('Milestones + Packages'!K23&lt;&gt;"",'Milestones + Packages'!$B23,"")</f>
-        <v>Design Midterm Presentation</v>
+        <v/>
       </c>
       <c r="H23" t="str">
         <f t="array" aca="1" ref="H23" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>First Poster Draft</v>
+        <v>Poster Presentation</v>
       </c>
       <c r="I23" t="str">
         <f>IF('Milestones + Packages'!L23&lt;&gt;"",'Milestones + Packages'!$B23,"")</f>
@@ -25538,47 +25702,47 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>IF('Milestones + Packages'!H24&lt;&gt;"",'Milestones + Packages'!$B24,"")</f>
-        <v>Poster Presentation</v>
+        <v>Midterm Presenation</v>
       </c>
       <c r="B24" t="str">
         <f t="array" aca="1" ref="B24" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>Finished Booth</v>
+        <v>Revice Poster Design and Contents</v>
       </c>
       <c r="C24" t="str">
         <f>IF('Milestones + Packages'!I24&lt;&gt;"",'Milestones + Packages'!$B24,"")</f>
-        <v>Poster Presentation</v>
+        <v>Midterm Presenation</v>
       </c>
       <c r="D24" t="str">
         <f t="array" aca="1" ref="D24" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
 COUNTBLANK(T2BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T2BLANKS&lt;&gt;"",ROW(T2BLANKS),ROW()+ROWS(T2BLANKS))),
 ROW()-ROW(T2NOBLANKS)+1),COLUMN(T2BLANKS),4)))</f>
-        <v>Implementation extended car model</v>
+        <v>Internal Poster Presentation</v>
       </c>
       <c r="E24" t="str">
         <f>IF('Milestones + Packages'!J24&lt;&gt;"",'Milestones + Packages'!$B24,"")</f>
-        <v>Poster Presentation</v>
+        <v>Midterm Presenation</v>
       </c>
       <c r="F24" t="str">
         <f t="array" aca="1" ref="F24" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>Visualization</v>
+        <v>Revice Poster Design and Contents</v>
       </c>
       <c r="G24" t="str">
         <f>IF('Milestones + Packages'!K24&lt;&gt;"",'Milestones + Packages'!$B24,"")</f>
-        <v>Poster Presentation</v>
+        <v>Midterm Presenation</v>
       </c>
       <c r="H24" t="str">
         <f t="array" aca="1" ref="H24" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Revice Poster Design and Contents</v>
+        <v>Brain Storming Poster</v>
       </c>
       <c r="I24" t="str">
         <f>IF('Milestones + Packages'!L24&lt;&gt;"",'Milestones + Packages'!$B24,"")</f>
@@ -25595,47 +25759,47 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>IF('Milestones + Packages'!H25&lt;&gt;"",'Milestones + Packages'!$B25,"")</f>
-        <v>Brain Storming Poster</v>
+        <v xml:space="preserve">Create Slides </v>
       </c>
       <c r="B25" t="str">
         <f t="array" aca="1" ref="B25" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>Math</v>
+        <v>Booth</v>
       </c>
       <c r="C25" t="str">
         <f>IF('Milestones + Packages'!I25&lt;&gt;"",'Milestones + Packages'!$B25,"")</f>
-        <v>Brain Storming Poster</v>
+        <v xml:space="preserve">Create Slides </v>
       </c>
       <c r="D25" t="str">
         <f t="array" aca="1" ref="D25" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
 COUNTBLANK(T2BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T2BLANKS&lt;&gt;"",ROW(T2BLANKS),ROW()+ROWS(T2BLANKS))),
 ROW()-ROW(T2NOBLANKS)+1),COLUMN(T2BLANKS),4)))</f>
-        <v>Extended Car Model 2</v>
+        <v>Finished Booth</v>
       </c>
       <c r="E25" t="str">
         <f>IF('Milestones + Packages'!J25&lt;&gt;"",'Milestones + Packages'!$B25,"")</f>
-        <v>Brain Storming Poster</v>
+        <v xml:space="preserve">Create Slides </v>
       </c>
       <c r="F25" t="str">
         <f t="array" aca="1" ref="F25" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>Extended Car Model 2</v>
+        <v>Booth</v>
       </c>
       <c r="G25" t="str">
         <f>IF('Milestones + Packages'!K25&lt;&gt;"",'Milestones + Packages'!$B25,"")</f>
-        <v>Brain Storming Poster</v>
+        <v xml:space="preserve">Create Slides </v>
       </c>
       <c r="H25" t="str">
         <f t="array" aca="1" ref="H25" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Booth</v>
+        <v>Poster Design</v>
       </c>
       <c r="I25" t="str">
         <f>IF('Milestones + Packages'!L25&lt;&gt;"",'Milestones + Packages'!$B25,"")</f>
@@ -25652,47 +25816,47 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>IF('Milestones + Packages'!H26&lt;&gt;"",'Milestones + Packages'!$B26,"")</f>
-        <v/>
+        <v>Prepare Presentation</v>
       </c>
       <c r="B26" t="str">
         <f t="array" aca="1" ref="B26" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>Extended Car Model 2</v>
+        <v>Internal Poster Presentation</v>
       </c>
       <c r="C26" t="str">
         <f>IF('Milestones + Packages'!I26&lt;&gt;"",'Milestones + Packages'!$B26,"")</f>
-        <v/>
+        <v>Prepare Presentation</v>
       </c>
       <c r="D26" t="str">
         <f t="array" aca="1" ref="D26" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
 COUNTBLANK(T2BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T2BLANKS&lt;&gt;"",ROW(T2BLANKS),ROW()+ROWS(T2BLANKS))),
 ROW()-ROW(T2NOBLANKS)+1),COLUMN(T2BLANKS),4)))</f>
-        <v>Implementation</v>
+        <v>Extended Model of Car 2</v>
       </c>
       <c r="E26" t="str">
         <f>IF('Milestones + Packages'!J26&lt;&gt;"",'Milestones + Packages'!$B26,"")</f>
-        <v>Get to Know the Visualisation Program</v>
+        <v>Prepare Presentation</v>
       </c>
       <c r="F26" t="str">
         <f t="array" aca="1" ref="F26" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>Visualization</v>
+        <v>Internal Poster Presentation</v>
       </c>
       <c r="G26" t="str">
         <f>IF('Milestones + Packages'!K26&lt;&gt;"",'Milestones + Packages'!$B26,"")</f>
-        <v/>
+        <v>Prepare Presentation</v>
       </c>
       <c r="H26" t="str">
         <f t="array" aca="1" ref="H26" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Internal Poster Presentation</v>
+        <v>First Poster Draft</v>
       </c>
       <c r="I26" t="str">
         <f>IF('Milestones + Packages'!L26&lt;&gt;"",'Milestones + Packages'!$B26,"")</f>
@@ -25709,47 +25873,47 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>IF('Milestones + Packages'!H27&lt;&gt;"",'Milestones + Packages'!$B27,"")</f>
-        <v>Poster Design</v>
+        <v/>
       </c>
       <c r="B27" t="str">
         <f t="array" aca="1" ref="B27" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>Math</v>
+        <v>Finished Booth</v>
       </c>
       <c r="C27" t="str">
         <f>IF('Milestones + Packages'!I27&lt;&gt;"",'Milestones + Packages'!$B27,"")</f>
-        <v>Poster Design</v>
+        <v/>
       </c>
       <c r="D27" t="str">
         <f t="array" aca="1" ref="D27" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
 COUNTBLANK(T2BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T2BLANKS&lt;&gt;"",ROW(T2BLANKS),ROW()+ROWS(T2BLANKS))),
 ROW()-ROW(T2NOBLANKS)+1),COLUMN(T2BLANKS),4)))</f>
-        <v>Extended Car Model 3</v>
+        <v>Simulations</v>
       </c>
       <c r="E27" t="str">
         <f>IF('Milestones + Packages'!J27&lt;&gt;"",'Milestones + Packages'!$B27,"")</f>
-        <v>Poster Design</v>
+        <v/>
       </c>
       <c r="F27" t="str">
         <f t="array" aca="1" ref="F27" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>Extended Car Model 3</v>
+        <v>Finished Booth</v>
       </c>
       <c r="G27" t="str">
         <f>IF('Milestones + Packages'!K27&lt;&gt;"",'Milestones + Packages'!$B27,"")</f>
-        <v>Poster Design</v>
+        <v>Design Midterm Presentation</v>
       </c>
       <c r="H27" t="str">
         <f t="array" aca="1" ref="H27" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Finished Booth</v>
+        <v>Revice Poster Design and Contents</v>
       </c>
       <c r="I27" t="str">
         <f>IF('Milestones + Packages'!L27&lt;&gt;"",'Milestones + Packages'!$B27,"")</f>
@@ -25766,18 +25930,18 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>IF('Milestones + Packages'!H28&lt;&gt;"",'Milestones + Packages'!$B28,"")</f>
-        <v>First Poster Draft</v>
+        <v>Poster Presentation</v>
       </c>
       <c r="B28" t="str">
         <f t="array" aca="1" ref="B28" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>Extended Car Model 3</v>
+        <v>Robust Optimization Formulation</v>
       </c>
       <c r="C28" t="str">
         <f>IF('Milestones + Packages'!I28&lt;&gt;"",'Milestones + Packages'!$B28,"")</f>
-        <v>First Poster Draft</v>
+        <v>Poster Presentation</v>
       </c>
       <c r="D28" t="str">
         <f t="array" aca="1" ref="D28" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -25788,25 +25952,25 @@
       </c>
       <c r="E28" t="str">
         <f>IF('Milestones + Packages'!J28&lt;&gt;"",'Milestones + Packages'!$B28,"")</f>
-        <v>First Poster Draft</v>
+        <v>Poster Presentation</v>
       </c>
       <c r="F28" t="str">
         <f t="array" aca="1" ref="F28" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>Final Workshop</v>
+        <v>Final Poster Hand-In</v>
       </c>
       <c r="G28" t="str">
         <f>IF('Milestones + Packages'!K28&lt;&gt;"",'Milestones + Packages'!$B28,"")</f>
-        <v>First Poster Draft</v>
+        <v>Poster Presentation</v>
       </c>
       <c r="H28" t="str">
         <f t="array" aca="1" ref="H28" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Extended Car Model 2</v>
+        <v>Booth</v>
       </c>
       <c r="I28" t="str">
         <f>IF('Milestones + Packages'!L28&lt;&gt;"",'Milestones + Packages'!$B28,"")</f>
@@ -25823,18 +25987,18 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>IF('Milestones + Packages'!H29&lt;&gt;"",'Milestones + Packages'!$B29,"")</f>
-        <v>Revice Poster Design and Contents</v>
+        <v>Brain Storming Poster</v>
       </c>
       <c r="B29" t="str">
         <f t="array" aca="1" ref="B29" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>Math</v>
+        <v>Implementation of Street Constraints</v>
       </c>
       <c r="C29" t="str">
         <f>IF('Milestones + Packages'!I29&lt;&gt;"",'Milestones + Packages'!$B29,"")</f>
-        <v>Revice Poster Design and Contents</v>
+        <v>Brain Storming Poster</v>
       </c>
       <c r="D29" t="str">
         <f t="array" aca="1" ref="D29" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -25845,25 +26009,25 @@
       </c>
       <c r="E29" t="str">
         <f>IF('Milestones + Packages'!J29&lt;&gt;"",'Milestones + Packages'!$B29,"")</f>
-        <v>Revice Poster Design and Contents</v>
+        <v>Brain Storming Poster</v>
       </c>
       <c r="F29" t="str">
         <f t="array" aca="1" ref="F29" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>Writing Abstract</v>
+        <v>Visualization</v>
       </c>
       <c r="G29" t="str">
         <f>IF('Milestones + Packages'!K29&lt;&gt;"",'Milestones + Packages'!$B29,"")</f>
-        <v>Revice Poster Design and Contents</v>
+        <v>Brain Storming Poster</v>
       </c>
       <c r="H29" t="str">
         <f t="array" aca="1" ref="H29" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Extend Model of Car</v>
+        <v>Internal Poster Presentation</v>
       </c>
       <c r="I29" t="str">
         <f>IF('Milestones + Packages'!L29&lt;&gt;"",'Milestones + Packages'!$B29,"")</f>
@@ -25880,18 +26044,18 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>IF('Milestones + Packages'!H30&lt;&gt;"",'Milestones + Packages'!$B30,"")</f>
-        <v>Booth</v>
+        <v/>
       </c>
       <c r="B30" t="str">
         <f t="array" aca="1" ref="B30" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>Final Workshop</v>
+        <v>Implementation of robust formulation</v>
       </c>
       <c r="C30" t="str">
         <f>IF('Milestones + Packages'!I30&lt;&gt;"",'Milestones + Packages'!$B30,"")</f>
-        <v>Booth</v>
+        <v/>
       </c>
       <c r="D30" t="str">
         <f t="array" aca="1" ref="D30" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -25902,25 +26066,25 @@
       </c>
       <c r="E30" t="str">
         <f>IF('Milestones + Packages'!J30&lt;&gt;"",'Milestones + Packages'!$B30,"")</f>
-        <v>Booth</v>
+        <v>Get to Know the Visualisation Program</v>
       </c>
       <c r="F30" t="str">
         <f t="array" aca="1" ref="F30" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>Talk about Final Presentation</v>
+        <v>Extended Model of Car 2</v>
       </c>
       <c r="G30" t="str">
         <f>IF('Milestones + Packages'!K30&lt;&gt;"",'Milestones + Packages'!$B30,"")</f>
-        <v>Booth</v>
+        <v/>
       </c>
       <c r="H30" t="str">
         <f t="array" aca="1" ref="H30" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Extended Car Model 3</v>
+        <v>Finished Booth</v>
       </c>
       <c r="I30" t="str">
         <f>IF('Milestones + Packages'!L30&lt;&gt;"",'Milestones + Packages'!$B30,"")</f>
@@ -25937,18 +26101,18 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>IF('Milestones + Packages'!H31&lt;&gt;"",'Milestones + Packages'!$B31,"")</f>
-        <v>Internal Poster Presentation</v>
+        <v>Poster Design</v>
       </c>
       <c r="B31" t="str">
         <f t="array" aca="1" ref="B31" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>Writing Abstract</v>
+        <v>Extended Model of Car 2</v>
       </c>
       <c r="C31" t="str">
         <f>IF('Milestones + Packages'!I31&lt;&gt;"",'Milestones + Packages'!$B31,"")</f>
-        <v>Internal Poster Presentation</v>
+        <v>Poster Design</v>
       </c>
       <c r="D31" t="str">
         <f t="array" aca="1" ref="D31" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -25959,25 +26123,25 @@
       </c>
       <c r="E31" t="str">
         <f>IF('Milestones + Packages'!J31&lt;&gt;"",'Milestones + Packages'!$B31,"")</f>
-        <v>Internal Poster Presentation</v>
+        <v>Poster Design</v>
       </c>
       <c r="F31" t="str">
         <f t="array" aca="1" ref="F31" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>Prepare Presentation</v>
+        <v>Visualization</v>
       </c>
       <c r="G31" t="str">
         <f>IF('Milestones + Packages'!K31&lt;&gt;"",'Milestones + Packages'!$B31,"")</f>
-        <v>Internal Poster Presentation</v>
+        <v>Poster Design</v>
       </c>
       <c r="H31" t="str">
         <f t="array" aca="1" ref="H31" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Extend Car Model</v>
+        <v>Extended Model of Car</v>
       </c>
       <c r="I31" t="str">
         <f>IF('Milestones + Packages'!L31&lt;&gt;"",'Milestones + Packages'!$B31,"")</f>
@@ -25994,18 +26158,18 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>IF('Milestones + Packages'!H32&lt;&gt;"",'Milestones + Packages'!$B32,"")</f>
-        <v/>
+        <v>First Poster Draft</v>
       </c>
       <c r="B32" t="str">
         <f t="array" aca="1" ref="B32" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>Talk about Final Presentation</v>
+        <v>Extend Optimization Problem</v>
       </c>
       <c r="C32" t="str">
         <f>IF('Milestones + Packages'!I32&lt;&gt;"",'Milestones + Packages'!$B32,"")</f>
-        <v/>
+        <v>First Poster Draft</v>
       </c>
       <c r="D32" t="str">
         <f t="array" aca="1" ref="D32" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -26016,25 +26180,25 @@
       </c>
       <c r="E32" t="str">
         <f>IF('Milestones + Packages'!J32&lt;&gt;"",'Milestones + Packages'!$B32,"")</f>
-        <v/>
+        <v>First Poster Draft</v>
       </c>
       <c r="F32" t="str">
         <f t="array" aca="1" ref="F32" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>Projekt Abschluss</v>
+        <v>Final Workshop</v>
       </c>
       <c r="G32" t="str">
         <f>IF('Milestones + Packages'!K32&lt;&gt;"",'Milestones + Packages'!$B32,"")</f>
-        <v/>
+        <v>First Poster Draft</v>
       </c>
       <c r="H32" t="str">
         <f t="array" aca="1" ref="H32" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Final Workshop</v>
+        <v>Implementation of Dynamics</v>
       </c>
       <c r="I32" t="str">
         <f>IF('Milestones + Packages'!L32&lt;&gt;"",'Milestones + Packages'!$B32,"")</f>
@@ -26051,47 +26215,47 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>IF('Milestones + Packages'!H33&lt;&gt;"",'Milestones + Packages'!$B33,"")</f>
-        <v>Finished Booth</v>
+        <v>Revice Poster Design and Contents</v>
       </c>
       <c r="B33" t="str">
         <f t="array" aca="1" ref="B33" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>Prepare Presentation</v>
+        <v>Implement Changes in Opt. Problem</v>
       </c>
       <c r="C33" t="str">
         <f>IF('Milestones + Packages'!I33&lt;&gt;"",'Milestones + Packages'!$B33,"")</f>
-        <v>Finished Booth</v>
+        <v>Revice Poster Design and Contents</v>
       </c>
       <c r="D33" t="str">
         <f t="array" aca="1" ref="D33" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
 COUNTBLANK(T2BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T2BLANKS&lt;&gt;"",ROW(T2BLANKS),ROW()+ROWS(T2BLANKS))),
 ROW()-ROW(T2NOBLANKS)+1),COLUMN(T2BLANKS),4)))</f>
-        <v>Projekt Abschluss</v>
+        <v>Finalize Project</v>
       </c>
       <c r="E33" t="str">
         <f>IF('Milestones + Packages'!J33&lt;&gt;"",'Milestones + Packages'!$B33,"")</f>
-        <v>Finished Booth</v>
+        <v>Revice Poster Design and Contents</v>
       </c>
       <c r="F33" t="str">
         <f t="array" aca="1" ref="F33" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v>Final Rehearsal</v>
+        <v>Writing Abstract</v>
       </c>
       <c r="G33" t="str">
         <f>IF('Milestones + Packages'!K33&lt;&gt;"",'Milestones + Packages'!$B33,"")</f>
-        <v>Finished Booth</v>
+        <v>Revice Poster Design and Contents</v>
       </c>
       <c r="H33" t="str">
         <f t="array" aca="1" ref="H33" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Writing Abstract</v>
+        <v>Derivative of Dynamics</v>
       </c>
       <c r="I33" t="str">
         <f>IF('Milestones + Packages'!L33&lt;&gt;"",'Milestones + Packages'!$B33,"")</f>
@@ -26108,18 +26272,18 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>IF('Milestones + Packages'!H34&lt;&gt;"",'Milestones + Packages'!$B34,"")</f>
-        <v/>
+        <v>Booth</v>
       </c>
       <c r="B34" t="str">
         <f t="array" aca="1" ref="B34" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v>Final Rehearsal</v>
+        <v>Implementation of Street Constraints</v>
       </c>
       <c r="C34" t="str">
         <f>IF('Milestones + Packages'!I34&lt;&gt;"",'Milestones + Packages'!$B34,"")</f>
-        <v/>
+        <v>Booth</v>
       </c>
       <c r="D34" t="str">
         <f t="array" aca="1" ref="D34" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -26130,25 +26294,25 @@
       </c>
       <c r="E34" t="str">
         <f>IF('Milestones + Packages'!J34&lt;&gt;"",'Milestones + Packages'!$B34,"")</f>
-        <v>Final Poster Hand-In</v>
+        <v>Booth</v>
       </c>
       <c r="F34" t="str">
         <f t="array" aca="1" ref="F34" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v/>
+        <v>Talk about Final Presentation</v>
       </c>
       <c r="G34" t="str">
         <f>IF('Milestones + Packages'!K34&lt;&gt;"",'Milestones + Packages'!$B34,"")</f>
-        <v/>
+        <v>Booth</v>
       </c>
       <c r="H34" t="str">
         <f t="array" aca="1" ref="H34" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Writing Center Appointment</v>
+        <v>Extended Model of Car 2</v>
       </c>
       <c r="I34" t="str">
         <f>IF('Milestones + Packages'!L34&lt;&gt;"",'Milestones + Packages'!$B34,"")</f>
@@ -26165,18 +26329,18 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>IF('Milestones + Packages'!H35&lt;&gt;"",'Milestones + Packages'!$B35,"")</f>
-        <v/>
+        <v>Internal Poster Presentation</v>
       </c>
       <c r="B35" t="str">
         <f t="array" aca="1" ref="B35" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v/>
+        <v>Final Workshop</v>
       </c>
       <c r="C35" t="str">
         <f>IF('Milestones + Packages'!I35&lt;&gt;"",'Milestones + Packages'!$B35,"")</f>
-        <v/>
+        <v>Internal Poster Presentation</v>
       </c>
       <c r="D35" t="str">
         <f t="array" aca="1" ref="D35" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -26187,25 +26351,25 @@
       </c>
       <c r="E35" t="str">
         <f>IF('Milestones + Packages'!J35&lt;&gt;"",'Milestones + Packages'!$B35,"")</f>
-        <v/>
+        <v>Internal Poster Presentation</v>
       </c>
       <c r="F35" t="str">
         <f t="array" aca="1" ref="F35" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v/>
+        <v>Prepare Presentation</v>
       </c>
       <c r="G35" t="str">
         <f>IF('Milestones + Packages'!K35&lt;&gt;"",'Milestones + Packages'!$B35,"")</f>
-        <v/>
+        <v>Internal Poster Presentation</v>
       </c>
       <c r="H35" t="str">
         <f t="array" aca="1" ref="H35" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Writing Center Appointment</v>
+        <v>Extend Model of Car</v>
       </c>
       <c r="I35" t="str">
         <f>IF('Milestones + Packages'!L35&lt;&gt;"",'Milestones + Packages'!$B35,"")</f>
@@ -26222,14 +26386,14 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>IF('Milestones + Packages'!H36&lt;&gt;"",'Milestones + Packages'!$B36,"")</f>
-        <v>Math</v>
+        <v/>
       </c>
       <c r="B36" t="str">
         <f t="array" aca="1" ref="B36" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v/>
+        <v>Writing Abstract</v>
       </c>
       <c r="C36" t="str">
         <f>IF('Milestones + Packages'!I36&lt;&gt;"",'Milestones + Packages'!$B36,"")</f>
@@ -26251,7 +26415,7 @@
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v/>
+        <v>Finalize Project</v>
       </c>
       <c r="G36" t="str">
         <f>IF('Milestones + Packages'!K36&lt;&gt;"",'Milestones + Packages'!$B36,"")</f>
@@ -26262,7 +26426,7 @@
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Talk about Final Presentation</v>
+        <v>Implementation of Dynamics</v>
       </c>
       <c r="I36" t="str">
         <f>IF('Milestones + Packages'!L36&lt;&gt;"",'Milestones + Packages'!$B36,"")</f>
@@ -26279,18 +26443,18 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>IF('Milestones + Packages'!H37&lt;&gt;"",'Milestones + Packages'!$B37,"")</f>
-        <v/>
+        <v>Finished Booth</v>
       </c>
       <c r="B37" t="str">
         <f t="array" aca="1" ref="B37" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v/>
+        <v>Talk about Final Presentation</v>
       </c>
       <c r="C37" t="str">
         <f>IF('Milestones + Packages'!I37&lt;&gt;"",'Milestones + Packages'!$B37,"")</f>
-        <v/>
+        <v>Finished Booth</v>
       </c>
       <c r="D37" t="str">
         <f t="array" aca="1" ref="D37" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -26301,25 +26465,25 @@
       </c>
       <c r="E37" t="str">
         <f>IF('Milestones + Packages'!J37&lt;&gt;"",'Milestones + Packages'!$B37,"")</f>
-        <v>Visualization</v>
+        <v>Finished Booth</v>
       </c>
       <c r="F37" t="str">
         <f t="array" aca="1" ref="F37" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
 COUNTBLANK(T3BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T3BLANKS&lt;&gt;"",ROW(T3BLANKS),ROW()+ROWS(T3BLANKS))),
 ROW()-ROW(T3NOBLANKS)+1),COLUMN(T3BLANKS),4)))</f>
-        <v/>
+        <v>Final Rehearsal</v>
       </c>
       <c r="G37" t="str">
         <f>IF('Milestones + Packages'!K37&lt;&gt;"",'Milestones + Packages'!$B37,"")</f>
-        <v/>
+        <v>Finished Booth</v>
       </c>
       <c r="H37" t="str">
         <f t="array" aca="1" ref="H37" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Prepare Presentation</v>
+        <v>Derivative of Dynamics</v>
       </c>
       <c r="I37" t="str">
         <f>IF('Milestones + Packages'!L37&lt;&gt;"",'Milestones + Packages'!$B37,"")</f>
@@ -26343,11 +26507,11 @@
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v/>
+        <v>Prepare Presentation</v>
       </c>
       <c r="C38" t="str">
         <f>IF('Milestones + Packages'!I38&lt;&gt;"",'Milestones + Packages'!$B38,"")</f>
-        <v>Implementation extended car model</v>
+        <v/>
       </c>
       <c r="D38" t="str">
         <f t="array" aca="1" ref="D38" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -26358,7 +26522,7 @@
       </c>
       <c r="E38" t="str">
         <f>IF('Milestones + Packages'!J38&lt;&gt;"",'Milestones + Packages'!$B38,"")</f>
-        <v/>
+        <v>Final Poster Hand-In</v>
       </c>
       <c r="F38" t="str">
         <f t="array" aca="1" ref="F38" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
@@ -26376,7 +26540,7 @@
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Abstract</v>
+        <v>Final Workshop</v>
       </c>
       <c r="I38" t="str">
         <f>IF('Milestones + Packages'!L38&lt;&gt;"",'Milestones + Packages'!$B38,"")</f>
@@ -26393,18 +26557,18 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>IF('Milestones + Packages'!H39&lt;&gt;"",'Milestones + Packages'!$B39,"")</f>
-        <v>Extended Car Model 2</v>
+        <v/>
       </c>
       <c r="B39" t="str">
         <f t="array" aca="1" ref="B39" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
 COUNTBLANK(T1BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T1BLANKS&lt;&gt;"",ROW(T1BLANKS),ROW()+ROWS(T1BLANKS))),
 ROW()-ROW(T1NOBLANKS)+1),COLUMN(T1BLANKS),4)))</f>
-        <v/>
+        <v>Final Rehearsal</v>
       </c>
       <c r="C39" t="str">
         <f>IF('Milestones + Packages'!I39&lt;&gt;"",'Milestones + Packages'!$B39,"")</f>
-        <v>Extended Car Model 2</v>
+        <v/>
       </c>
       <c r="D39" t="str">
         <f t="array" aca="1" ref="D39" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -26415,7 +26579,7 @@
       </c>
       <c r="E39" t="str">
         <f>IF('Milestones + Packages'!J39&lt;&gt;"",'Milestones + Packages'!$B39,"")</f>
-        <v>Extended Car Model 2</v>
+        <v/>
       </c>
       <c r="F39" t="str">
         <f t="array" aca="1" ref="F39" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
@@ -26426,14 +26590,14 @@
       </c>
       <c r="G39" t="str">
         <f>IF('Milestones + Packages'!K39&lt;&gt;"",'Milestones + Packages'!$B39,"")</f>
-        <v>Extended Car Model 2</v>
+        <v/>
       </c>
       <c r="H39" t="str">
         <f t="array" aca="1" ref="H39" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v>Final Rehearsal</v>
+        <v>Writing Abstract</v>
       </c>
       <c r="I39" t="str">
         <f>IF('Milestones + Packages'!L39&lt;&gt;"",'Milestones + Packages'!$B39,"")</f>
@@ -26450,7 +26614,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>IF('Milestones + Packages'!H40&lt;&gt;"",'Milestones + Packages'!$B40,"")</f>
-        <v/>
+        <v>Robust Optimization Formulation</v>
       </c>
       <c r="B40" t="str">
         <f t="array" aca="1" ref="B40" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
@@ -26483,14 +26647,14 @@
       </c>
       <c r="G40" t="str">
         <f>IF('Milestones + Packages'!K40&lt;&gt;"",'Milestones + Packages'!$B40,"")</f>
-        <v>Extend Model of Car</v>
+        <v/>
       </c>
       <c r="H40" t="str">
         <f t="array" aca="1" ref="H40" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v/>
+        <v>Writing Center Appointment</v>
       </c>
       <c r="I40" t="str">
         <f>IF('Milestones + Packages'!L40&lt;&gt;"",'Milestones + Packages'!$B40,"")</f>
@@ -26507,7 +26671,7 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>IF('Milestones + Packages'!H41&lt;&gt;"",'Milestones + Packages'!$B41,"")</f>
-        <v>Math</v>
+        <v/>
       </c>
       <c r="B41" t="str">
         <f t="array" aca="1" ref="B41" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
@@ -26529,7 +26693,7 @@
       </c>
       <c r="E41" t="str">
         <f>IF('Milestones + Packages'!J41&lt;&gt;"",'Milestones + Packages'!$B41,"")</f>
-        <v/>
+        <v>Visualization</v>
       </c>
       <c r="F41" t="str">
         <f t="array" aca="1" ref="F41" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
@@ -26547,7 +26711,7 @@
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v/>
+        <v>Writing Center Appointment</v>
       </c>
       <c r="I41" t="str">
         <f>IF('Milestones + Packages'!L41&lt;&gt;"",'Milestones + Packages'!$B41,"")</f>
@@ -26575,7 +26739,7 @@
       </c>
       <c r="C42" t="str">
         <f>IF('Milestones + Packages'!I42&lt;&gt;"",'Milestones + Packages'!$B42,"")</f>
-        <v>Implementation</v>
+        <v/>
       </c>
       <c r="D42" t="str">
         <f t="array" aca="1" ref="D42" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -26597,14 +26761,14 @@
       </c>
       <c r="G42" t="str">
         <f>IF('Milestones + Packages'!K42&lt;&gt;"",'Milestones + Packages'!$B42,"")</f>
-        <v/>
+        <v>Extended Model of Car</v>
       </c>
       <c r="H42" t="str">
         <f t="array" aca="1" ref="H42" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v/>
+        <v>Talk about Final Presentation</v>
       </c>
       <c r="I42" t="str">
         <f>IF('Milestones + Packages'!L42&lt;&gt;"",'Milestones + Packages'!$B42,"")</f>
@@ -26643,7 +26807,7 @@
       </c>
       <c r="E43" t="str">
         <f>IF('Milestones + Packages'!J43&lt;&gt;"",'Milestones + Packages'!$B43,"")</f>
-        <v>Visualization</v>
+        <v/>
       </c>
       <c r="F43" t="str">
         <f t="array" aca="1" ref="F43" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
@@ -26654,14 +26818,14 @@
       </c>
       <c r="G43" t="str">
         <f>IF('Milestones + Packages'!K43&lt;&gt;"",'Milestones + Packages'!$B43,"")</f>
-        <v/>
+        <v>Implementation of Dynamics</v>
       </c>
       <c r="H43" t="str">
         <f t="array" aca="1" ref="H43" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v/>
+        <v>Prepare Presentation</v>
       </c>
       <c r="I43" t="str">
         <f>IF('Milestones + Packages'!L43&lt;&gt;"",'Milestones + Packages'!$B43,"")</f>
@@ -26678,7 +26842,7 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>IF('Milestones + Packages'!H44&lt;&gt;"",'Milestones + Packages'!$B44,"")</f>
-        <v>Extended Car Model 3</v>
+        <v>Implementation of Street Constraints</v>
       </c>
       <c r="B44" t="str">
         <f t="array" aca="1" ref="B44" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
@@ -26689,7 +26853,7 @@
       </c>
       <c r="C44" t="str">
         <f>IF('Milestones + Packages'!I44&lt;&gt;"",'Milestones + Packages'!$B44,"")</f>
-        <v>Extended Car Model 3</v>
+        <v/>
       </c>
       <c r="D44" t="str">
         <f t="array" aca="1" ref="D44" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -26700,7 +26864,7 @@
       </c>
       <c r="E44" t="str">
         <f>IF('Milestones + Packages'!J44&lt;&gt;"",'Milestones + Packages'!$B44,"")</f>
-        <v>Extended Car Model 3</v>
+        <v/>
       </c>
       <c r="F44" t="str">
         <f t="array" aca="1" ref="F44" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
@@ -26711,14 +26875,14 @@
       </c>
       <c r="G44" t="str">
         <f>IF('Milestones + Packages'!K44&lt;&gt;"",'Milestones + Packages'!$B44,"")</f>
-        <v>Extended Car Model 3</v>
+        <v/>
       </c>
       <c r="H44" t="str">
         <f t="array" aca="1" ref="H44" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v/>
+        <v>Abstract</v>
       </c>
       <c r="I44" t="str">
         <f>IF('Milestones + Packages'!L44&lt;&gt;"",'Milestones + Packages'!$B44,"")</f>
@@ -26735,7 +26899,7 @@
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>IF('Milestones + Packages'!H45&lt;&gt;"",'Milestones + Packages'!$B45,"")</f>
-        <v/>
+        <v>Implementation of robust formulation</v>
       </c>
       <c r="B45" t="str">
         <f t="array" aca="1" ref="B45" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
@@ -26768,14 +26932,14 @@
       </c>
       <c r="G45" t="str">
         <f>IF('Milestones + Packages'!K45&lt;&gt;"",'Milestones + Packages'!$B45,"")</f>
-        <v>Extend Car Model</v>
+        <v/>
       </c>
       <c r="H45" t="str">
         <f t="array" aca="1" ref="H45" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
 COUNTBLANK(T4BLANKS),"",INDIRECT(ADDRESS(SMALL(
 (IF(T4BLANKS&lt;&gt;"",ROW(T4BLANKS),ROW()+ROWS(T4BLANKS))),
 ROW()-ROW(T4NOBLANKS)+1),COLUMN(T4BLANKS),4)))</f>
-        <v/>
+        <v>Final Rehearsal</v>
       </c>
       <c r="I45" t="str">
         <f>IF('Milestones + Packages'!L45&lt;&gt;"",'Milestones + Packages'!$B45,"")</f>
@@ -26792,7 +26956,7 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>IF('Milestones + Packages'!H46&lt;&gt;"",'Milestones + Packages'!$B46,"")</f>
-        <v>Math</v>
+        <v/>
       </c>
       <c r="B46" t="str">
         <f t="array" aca="1" ref="B46" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
@@ -26825,7 +26989,7 @@
       </c>
       <c r="G46" t="str">
         <f>IF('Milestones + Packages'!K46&lt;&gt;"",'Milestones + Packages'!$B46,"")</f>
-        <v/>
+        <v>Derivative of Dynamics</v>
       </c>
       <c r="H46" t="str">
         <f t="array" aca="1" ref="H46" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
@@ -26849,7 +27013,7 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>IF('Milestones + Packages'!H49&lt;&gt;"",'Milestones + Packages'!$B49,"")</f>
-        <v>Final Workshop</v>
+        <v>Extended Model of Car 2</v>
       </c>
       <c r="B47" t="str">
         <f t="array" aca="1" ref="B47" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
@@ -26860,7 +27024,7 @@
       </c>
       <c r="C47" t="str">
         <f>IF('Milestones + Packages'!I49&lt;&gt;"",'Milestones + Packages'!$B49,"")</f>
-        <v>Final Workshop</v>
+        <v>Extended Model of Car 2</v>
       </c>
       <c r="D47" t="str">
         <f t="array" aca="1" ref="D47" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -26871,7 +27035,7 @@
       </c>
       <c r="E47" t="str">
         <f>IF('Milestones + Packages'!J49&lt;&gt;"",'Milestones + Packages'!$B49,"")</f>
-        <v>Final Workshop</v>
+        <v>Extended Model of Car 2</v>
       </c>
       <c r="F47" t="str">
         <f t="array" aca="1" ref="F47" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
@@ -26882,7 +27046,7 @@
       </c>
       <c r="G47" t="str">
         <f>IF('Milestones + Packages'!K49&lt;&gt;"",'Milestones + Packages'!$B49,"")</f>
-        <v>Final Workshop</v>
+        <v>Extended Model of Car 2</v>
       </c>
       <c r="H47" t="str">
         <f t="array" aca="1" ref="H47" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
@@ -26917,7 +27081,7 @@
       </c>
       <c r="C48" t="str">
         <f>IF('Milestones + Packages'!I50&lt;&gt;"",'Milestones + Packages'!$B50,"")</f>
-        <v>Book Writing Center Appointment</v>
+        <v/>
       </c>
       <c r="D48" t="str">
         <f t="array" aca="1" ref="D48" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -26939,7 +27103,7 @@
       </c>
       <c r="G48" t="str">
         <f>IF('Milestones + Packages'!K50&lt;&gt;"",'Milestones + Packages'!$B50,"")</f>
-        <v/>
+        <v>Extend Model of Car</v>
       </c>
       <c r="H48" t="str">
         <f t="array" aca="1" ref="H48" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
@@ -26963,7 +27127,7 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>IF('Milestones + Packages'!H51&lt;&gt;"",'Milestones + Packages'!$B51,"")</f>
-        <v>Writing Abstract</v>
+        <v>Extend Optimization Problem</v>
       </c>
       <c r="B49" t="str">
         <f t="array" aca="1" ref="B49" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
@@ -26974,7 +27138,7 @@
       </c>
       <c r="C49" t="str">
         <f>IF('Milestones + Packages'!I51&lt;&gt;"",'Milestones + Packages'!$B51,"")</f>
-        <v>Writing Abstract</v>
+        <v/>
       </c>
       <c r="D49" t="str">
         <f t="array" aca="1" ref="D49" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -26985,7 +27149,7 @@
       </c>
       <c r="E49" t="str">
         <f>IF('Milestones + Packages'!J51&lt;&gt;"",'Milestones + Packages'!$B51,"")</f>
-        <v>Writing Abstract</v>
+        <v/>
       </c>
       <c r="F49" t="str">
         <f t="array" aca="1" ref="F49" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
@@ -26996,7 +27160,7 @@
       </c>
       <c r="G49" t="str">
         <f>IF('Milestones + Packages'!K51&lt;&gt;"",'Milestones + Packages'!$B51,"")</f>
-        <v>Writing Abstract</v>
+        <v/>
       </c>
       <c r="H49" t="str">
         <f t="array" aca="1" ref="H49" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
@@ -27020,7 +27184,7 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>IF('Milestones + Packages'!H52&lt;&gt;"",'Milestones + Packages'!$B52,"")</f>
-        <v/>
+        <v>Implement Changes in Opt. Problem</v>
       </c>
       <c r="B50" t="str">
         <f t="array" aca="1" ref="B50" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
@@ -27053,7 +27217,7 @@
       </c>
       <c r="G50" t="str">
         <f>IF('Milestones + Packages'!K52&lt;&gt;"",'Milestones + Packages'!$B52,"")</f>
-        <v>Writing Center Appointment</v>
+        <v/>
       </c>
       <c r="H50" t="str">
         <f t="array" aca="1" ref="H50" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
@@ -27110,7 +27274,7 @@
       </c>
       <c r="G51" t="str">
         <f>IF('Milestones + Packages'!K53&lt;&gt;"",'Milestones + Packages'!$B53,"")</f>
-        <v>Writing Center Appointment</v>
+        <v>Implementation of Dynamics</v>
       </c>
       <c r="H51" t="str">
         <f t="array" aca="1" ref="H51" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
@@ -27134,7 +27298,7 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>IF('Milestones + Packages'!H54&lt;&gt;"",'Milestones + Packages'!$B54,"")</f>
-        <v>Talk about Final Presentation</v>
+        <v/>
       </c>
       <c r="B52" t="str">
         <f t="array" aca="1" ref="B52" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
@@ -27145,7 +27309,7 @@
       </c>
       <c r="C52" t="str">
         <f>IF('Milestones + Packages'!I54&lt;&gt;"",'Milestones + Packages'!$B54,"")</f>
-        <v>Talk about Final Presentation</v>
+        <v/>
       </c>
       <c r="D52" t="str">
         <f t="array" aca="1" ref="D52" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -27156,7 +27320,7 @@
       </c>
       <c r="E52" t="str">
         <f>IF('Milestones + Packages'!J54&lt;&gt;"",'Milestones + Packages'!$B54,"")</f>
-        <v>Talk about Final Presentation</v>
+        <v/>
       </c>
       <c r="F52" t="str">
         <f t="array" aca="1" ref="F52" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
@@ -27167,7 +27331,7 @@
       </c>
       <c r="G52" t="str">
         <f>IF('Milestones + Packages'!K54&lt;&gt;"",'Milestones + Packages'!$B54,"")</f>
-        <v>Talk about Final Presentation</v>
+        <v>Derivative of Dynamics</v>
       </c>
       <c r="H52" t="str">
         <f t="array" aca="1" ref="H52" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
@@ -27191,7 +27355,7 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>IF('Milestones + Packages'!H55&lt;&gt;"",'Milestones + Packages'!$B55,"")</f>
-        <v>Prepare Presentation</v>
+        <v>Implementation of Street Constraints</v>
       </c>
       <c r="B53" t="str">
         <f t="array" aca="1" ref="B53" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
@@ -27202,7 +27366,7 @@
       </c>
       <c r="C53" t="str">
         <f>IF('Milestones + Packages'!I55&lt;&gt;"",'Milestones + Packages'!$B55,"")</f>
-        <v>Prepare Presentation</v>
+        <v/>
       </c>
       <c r="D53" t="str">
         <f t="array" aca="1" ref="D53" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -27213,7 +27377,7 @@
       </c>
       <c r="E53" t="str">
         <f>IF('Milestones + Packages'!J55&lt;&gt;"",'Milestones + Packages'!$B55,"")</f>
-        <v>Prepare Presentation</v>
+        <v/>
       </c>
       <c r="F53" t="str">
         <f t="array" aca="1" ref="F53" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
@@ -27224,7 +27388,7 @@
       </c>
       <c r="G53" t="str">
         <f>IF('Milestones + Packages'!K55&lt;&gt;"",'Milestones + Packages'!$B55,"")</f>
-        <v>Prepare Presentation</v>
+        <v/>
       </c>
       <c r="H53" t="str">
         <f t="array" aca="1" ref="H53" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
@@ -27259,7 +27423,7 @@
       </c>
       <c r="C54" t="str">
         <f>IF('Milestones + Packages'!I56&lt;&gt;"",'Milestones + Packages'!$B56,"")</f>
-        <v>Projekt Abschluss</v>
+        <v>Simulations</v>
       </c>
       <c r="D54" t="str">
         <f t="array" aca="1" ref="D54" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -27270,7 +27434,7 @@
       </c>
       <c r="E54" t="str">
         <f>IF('Milestones + Packages'!J56&lt;&gt;"",'Milestones + Packages'!$B56,"")</f>
-        <v>Projekt Abschluss</v>
+        <v/>
       </c>
       <c r="F54" t="str">
         <f t="array" aca="1" ref="F54" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
@@ -27327,7 +27491,7 @@
       </c>
       <c r="E55" t="str">
         <f>IF('Milestones + Packages'!J57&lt;&gt;"",'Milestones + Packages'!$B57,"")</f>
-        <v/>
+        <v>Visualization</v>
       </c>
       <c r="F55" t="str">
         <f t="array" aca="1" ref="F55" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
@@ -27338,7 +27502,7 @@
       </c>
       <c r="G55" t="str">
         <f>IF('Milestones + Packages'!K57&lt;&gt;"",'Milestones + Packages'!$B57,"")</f>
-        <v>Abstract</v>
+        <v/>
       </c>
       <c r="H55" t="str">
         <f t="array" aca="1" ref="H55" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
@@ -27362,7 +27526,7 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>IF('Milestones + Packages'!H58&lt;&gt;"",'Milestones + Packages'!$B58,"")</f>
-        <v>Final Rehearsal</v>
+        <v>Final Workshop</v>
       </c>
       <c r="B56" t="str">
         <f t="array" aca="1" ref="B56" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
@@ -27373,7 +27537,7 @@
       </c>
       <c r="C56" t="str">
         <f>IF('Milestones + Packages'!I58&lt;&gt;"",'Milestones + Packages'!$B58,"")</f>
-        <v>Final Rehearsal</v>
+        <v>Final Workshop</v>
       </c>
       <c r="D56" t="str">
         <f t="array" aca="1" ref="D56" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -27384,7 +27548,7 @@
       </c>
       <c r="E56" t="str">
         <f>IF('Milestones + Packages'!J58&lt;&gt;"",'Milestones + Packages'!$B58,"")</f>
-        <v>Final Rehearsal</v>
+        <v>Final Workshop</v>
       </c>
       <c r="F56" t="str">
         <f t="array" aca="1" ref="F56" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
@@ -27395,7 +27559,7 @@
       </c>
       <c r="G56" t="str">
         <f>IF('Milestones + Packages'!K58&lt;&gt;"",'Milestones + Packages'!$B58,"")</f>
-        <v>Final Rehearsal</v>
+        <v>Final Workshop</v>
       </c>
       <c r="H56" t="str">
         <f t="array" aca="1" ref="H56" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
@@ -27430,7 +27594,7 @@
       </c>
       <c r="C57" t="str">
         <f>IF('Milestones + Packages'!I59&lt;&gt;"",'Milestones + Packages'!$B59,"")</f>
-        <v/>
+        <v>Book Writing Center Appointment</v>
       </c>
       <c r="D57" t="str">
         <f t="array" aca="1" ref="D57" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -27476,7 +27640,7 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>IF('Milestones + Packages'!H60&lt;&gt;"",'Milestones + Packages'!$B60,"")</f>
-        <v/>
+        <v>Writing Abstract</v>
       </c>
       <c r="B58" t="str">
         <f t="array" aca="1" ref="B58" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
@@ -27487,7 +27651,7 @@
       </c>
       <c r="C58" t="str">
         <f>IF('Milestones + Packages'!I60&lt;&gt;"",'Milestones + Packages'!$B60,"")</f>
-        <v/>
+        <v>Writing Abstract</v>
       </c>
       <c r="D58" t="str">
         <f t="array" aca="1" ref="D58" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -27498,7 +27662,7 @@
       </c>
       <c r="E58" t="str">
         <f>IF('Milestones + Packages'!J60&lt;&gt;"",'Milestones + Packages'!$B60,"")</f>
-        <v/>
+        <v>Writing Abstract</v>
       </c>
       <c r="F58" t="str">
         <f t="array" aca="1" ref="F58" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
@@ -27509,7 +27673,7 @@
       </c>
       <c r="G58" t="str">
         <f>IF('Milestones + Packages'!K60&lt;&gt;"",'Milestones + Packages'!$B60,"")</f>
-        <v/>
+        <v>Writing Abstract</v>
       </c>
       <c r="H58" t="str">
         <f t="array" aca="1" ref="H58" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
@@ -27566,7 +27730,7 @@
       </c>
       <c r="G59" t="str">
         <f>IF('Milestones + Packages'!K61&lt;&gt;"",'Milestones + Packages'!$B61,"")</f>
-        <v/>
+        <v>Writing Center Appointment</v>
       </c>
       <c r="H59" t="str">
         <f t="array" aca="1" ref="H59" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
@@ -27623,7 +27787,7 @@
       </c>
       <c r="G60" t="str">
         <f>IF('Milestones + Packages'!K62&lt;&gt;"",'Milestones + Packages'!$B62,"")</f>
-        <v/>
+        <v>Writing Center Appointment</v>
       </c>
       <c r="H60" t="str">
         <f t="array" aca="1" ref="H60" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
@@ -27647,7 +27811,7 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>IF('Milestones + Packages'!H63&lt;&gt;"",'Milestones + Packages'!$B63,"")</f>
-        <v/>
+        <v>Talk about Final Presentation</v>
       </c>
       <c r="B61" t="str">
         <f t="array" aca="1" ref="B61" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
@@ -27658,7 +27822,7 @@
       </c>
       <c r="C61" t="str">
         <f>IF('Milestones + Packages'!I63&lt;&gt;"",'Milestones + Packages'!$B63,"")</f>
-        <v/>
+        <v>Talk about Final Presentation</v>
       </c>
       <c r="D61" t="str">
         <f t="array" aca="1" ref="D61" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -27669,7 +27833,7 @@
       </c>
       <c r="E61" t="str">
         <f>IF('Milestones + Packages'!J63&lt;&gt;"",'Milestones + Packages'!$B63,"")</f>
-        <v/>
+        <v>Talk about Final Presentation</v>
       </c>
       <c r="F61" t="str">
         <f t="array" aca="1" ref="F61" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
@@ -27680,7 +27844,7 @@
       </c>
       <c r="G61" t="str">
         <f>IF('Milestones + Packages'!K63&lt;&gt;"",'Milestones + Packages'!$B63,"")</f>
-        <v/>
+        <v>Talk about Final Presentation</v>
       </c>
       <c r="H61" t="str">
         <f t="array" aca="1" ref="H61" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
@@ -27704,7 +27868,7 @@
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>IF('Milestones + Packages'!H64&lt;&gt;"",'Milestones + Packages'!$B64,"")</f>
-        <v/>
+        <v>Prepare Presentation</v>
       </c>
       <c r="B62" t="str">
         <f t="array" aca="1" ref="B62" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
@@ -27715,7 +27879,7 @@
       </c>
       <c r="C62" t="str">
         <f>IF('Milestones + Packages'!I64&lt;&gt;"",'Milestones + Packages'!$B64,"")</f>
-        <v/>
+        <v>Prepare Presentation</v>
       </c>
       <c r="D62" t="str">
         <f t="array" aca="1" ref="D62" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -27726,7 +27890,7 @@
       </c>
       <c r="E62" t="str">
         <f>IF('Milestones + Packages'!J64&lt;&gt;"",'Milestones + Packages'!$B64,"")</f>
-        <v/>
+        <v>Prepare Presentation</v>
       </c>
       <c r="F62" t="str">
         <f t="array" aca="1" ref="F62" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
@@ -27737,7 +27901,7 @@
       </c>
       <c r="G62" t="str">
         <f>IF('Milestones + Packages'!K64&lt;&gt;"",'Milestones + Packages'!$B64,"")</f>
-        <v/>
+        <v>Prepare Presentation</v>
       </c>
       <c r="H62" t="str">
         <f t="array" aca="1" ref="H62" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
@@ -27772,7 +27936,7 @@
       </c>
       <c r="C63" t="str">
         <f>IF('Milestones + Packages'!I65&lt;&gt;"",'Milestones + Packages'!$B65,"")</f>
-        <v/>
+        <v>Finalize Project</v>
       </c>
       <c r="D63" t="str">
         <f t="array" aca="1" ref="D63" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -27783,7 +27947,7 @@
       </c>
       <c r="E63" t="str">
         <f>IF('Milestones + Packages'!J65&lt;&gt;"",'Milestones + Packages'!$B65,"")</f>
-        <v/>
+        <v>Finalize Project</v>
       </c>
       <c r="F63" t="str">
         <f t="array" aca="1" ref="F63" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
@@ -27851,7 +28015,7 @@
       </c>
       <c r="G64" t="str">
         <f>IF('Milestones + Packages'!K66&lt;&gt;"",'Milestones + Packages'!$B66,"")</f>
-        <v/>
+        <v>Abstract</v>
       </c>
       <c r="H64" t="str">
         <f t="array" aca="1" ref="H64" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
@@ -27875,7 +28039,7 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>IF('Milestones + Packages'!H67&lt;&gt;"",'Milestones + Packages'!$B67,"")</f>
-        <v/>
+        <v>Final Rehearsal</v>
       </c>
       <c r="B65" t="str">
         <f t="array" aca="1" ref="B65" ca="1">IF(ROW()-ROW(T1NOBLANKS)+1&gt;ROWS(T1BLANKS)-
@@ -27886,7 +28050,7 @@
       </c>
       <c r="C65" t="str">
         <f>IF('Milestones + Packages'!I67&lt;&gt;"",'Milestones + Packages'!$B67,"")</f>
-        <v/>
+        <v>Final Rehearsal</v>
       </c>
       <c r="D65" t="str">
         <f t="array" aca="1" ref="D65" ca="1">IF(ROW()-ROW(T2NOBLANKS)+1&gt;ROWS(T2BLANKS)-
@@ -27897,7 +28061,7 @@
       </c>
       <c r="E65" t="str">
         <f>IF('Milestones + Packages'!J67&lt;&gt;"",'Milestones + Packages'!$B67,"")</f>
-        <v/>
+        <v>Final Rehearsal</v>
       </c>
       <c r="F65" t="str">
         <f t="array" aca="1" ref="F65" ca="1">IF(ROW()-ROW(T3NOBLANKS)+1&gt;ROWS(T3BLANKS)-
@@ -27908,7 +28072,7 @@
       </c>
       <c r="G65" t="str">
         <f>IF('Milestones + Packages'!K67&lt;&gt;"",'Milestones + Packages'!$B67,"")</f>
-        <v/>
+        <v>Final Rehearsal</v>
       </c>
       <c r="H65" t="str">
         <f t="array" aca="1" ref="H65" ca="1">IF(ROW()-ROW(T4NOBLANKS)+1&gt;ROWS(T4BLANKS)-
@@ -47042,7 +47206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -47058,7 +47222,7 @@
     <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="38" t="str">
         <f>CONCATENATE("Workload ",'Milestones + Packages'!H2)</f>
-        <v>Workload Annkathrin</v>
+        <v xml:space="preserve">Workload </v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -47066,19 +47230,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H3">
         <f>SUM(Table1[Time Spent (hours)])</f>
@@ -47087,16 +47251,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B4">
         <v>1.5</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -47107,57 +47271,57 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -47168,391 +47332,391 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B11">
         <v>1.5</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B13">
         <v>2.5</v>
       </c>
       <c r="C13" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B14">
         <v>0.5</v>
       </c>
       <c r="C14" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B17">
         <v>1.75</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B18">
         <v>0.5</v>
       </c>
       <c r="C18" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B19">
         <v>0.5</v>
       </c>
       <c r="C19" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D19" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D20" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B21">
         <v>1.5</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D21" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B22">
         <v>1.5</v>
       </c>
       <c r="C22" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B24">
         <v>0.5</v>
       </c>
       <c r="C24" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B25">
         <v>2.5</v>
       </c>
       <c r="C25" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D25" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B26">
         <v>0.5</v>
       </c>
       <c r="C26" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D28" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B29">
         <v>2.5</v>
       </c>
       <c r="C29" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D29" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D30" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D31" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B32">
         <v>1.5</v>
       </c>
       <c r="C32" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D32" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B33">
         <v>1.5</v>
       </c>
       <c r="C33" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D33" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D34" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B35">
         <v>1.5</v>
       </c>
       <c r="C35" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D35" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B36">
         <v>0.5</v>
       </c>
       <c r="C36" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B37">
         <v>0.5</v>
       </c>
       <c r="C37" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D37" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D38" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B39">
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D39" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B40">
         <v>1.5</v>
@@ -47561,12 +47725,12 @@
         <v>42150</v>
       </c>
       <c r="D40" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B41">
         <v>1.5</v>
@@ -47578,8 +47742,9 @@
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -47600,7 +47765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -47617,7 +47782,7 @@
     <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="38" t="str">
         <f>CONCATENATE("Workload ",'Milestones + Packages'!J2)</f>
-        <v>Workload Christian</v>
+        <v xml:space="preserve">Workload </v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -47625,19 +47790,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H3">
         <f>SUM(Table134[Time Spent (hours)])</f>
@@ -47652,7 +47817,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -47663,71 +47828,71 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B6">
         <v>0.75</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D10" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -47740,217 +47905,218 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B13">
         <v>1.75</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D14" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D16" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B17">
         <v>2.5</v>
       </c>
       <c r="C17" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D20" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D26" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D27" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -47969,10 +48135,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47980,7 +48146,7 @@
     <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="41.42578125" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="4" max="4" width="86" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
@@ -47988,7 +48154,7 @@
     <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="38" t="str">
         <f>CONCATENATE("Workload ",'Milestones + Packages'!K2)</f>
-        <v>Workload Johannes</v>
+        <v xml:space="preserve">Workload </v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -47996,23 +48162,23 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H3">
         <f>SUM(Table1345[Time Spent (hours)])</f>
-        <v>53.75</v>
+        <v>57.75</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -48023,8 +48189,9 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -48034,23 +48201,25 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B6" s="51">
         <v>1.75</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B7" s="51">
         <v>0.5</v>
@@ -48058,10 +48227,11 @@
       <c r="C7" s="1">
         <v>42111</v>
       </c>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B8" s="51">
         <v>0.5</v>
@@ -48069,10 +48239,11 @@
       <c r="C8" s="1">
         <v>42112</v>
       </c>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B9" s="51">
         <v>1</v>
@@ -48080,10 +48251,11 @@
       <c r="C9" s="1">
         <v>42114</v>
       </c>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B10" s="51">
         <v>0.75</v>
@@ -48091,6 +48263,7 @@
       <c r="C10" s="1">
         <v>42115</v>
       </c>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -48102,10 +48275,11 @@
       <c r="C11" s="1">
         <v>42116</v>
       </c>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B12" s="51">
         <v>1.5</v>
@@ -48113,10 +48287,11 @@
       <c r="C12" s="1">
         <v>42116</v>
       </c>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B13" s="51">
         <v>1.5</v>
@@ -48124,24 +48299,25 @@
       <c r="C13" s="1">
         <v>42116</v>
       </c>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B14">
         <v>2.5</v>
       </c>
       <c r="C14" t="s">
-        <v>193</v>
-      </c>
-      <c r="D14" t="s">
-        <v>285</v>
+        <v>185</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B15" s="51">
         <v>1</v>
@@ -48149,193 +48325,198 @@
       <c r="C15" s="1">
         <v>42119</v>
       </c>
-      <c r="D15" t="s">
-        <v>287</v>
+      <c r="D15" s="26" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C16" s="1">
         <v>42119</v>
       </c>
-      <c r="D16" t="s">
-        <v>289</v>
+      <c r="D16" s="26" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C17" s="1">
         <v>42120</v>
       </c>
-      <c r="D17" t="s">
-        <v>291</v>
+      <c r="D17" s="26" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B18" s="51">
         <v>1.5</v>
       </c>
       <c r="C18" t="s">
-        <v>202</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="51">
         <v>1.5</v>
       </c>
       <c r="C19" t="s">
-        <v>202</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B20" s="51">
         <v>1.5</v>
       </c>
       <c r="C20" t="s">
-        <v>207</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B21" s="51">
         <v>1.5</v>
       </c>
-      <c r="D21" t="s">
-        <v>294</v>
+      <c r="D21" s="26" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B22" s="51">
         <v>0.5</v>
       </c>
       <c r="C22" t="s">
-        <v>296</v>
-      </c>
-      <c r="D22" t="s">
-        <v>297</v>
+        <v>288</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B23" s="51">
         <v>2.5</v>
       </c>
-      <c r="D23" t="s">
-        <v>299</v>
+      <c r="D23" s="26" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B24" s="51">
         <v>2</v>
       </c>
+      <c r="D24" s="26"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B25" s="51">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>301</v>
-      </c>
-      <c r="D25" t="s">
-        <v>302</v>
+        <v>293</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B26" s="51">
         <v>0.5</v>
       </c>
-      <c r="D26" t="s">
-        <v>304</v>
+      <c r="D26" s="26" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B27" s="51">
         <v>1</v>
       </c>
+      <c r="D27" s="26"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B28" s="51">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>307</v>
-      </c>
-      <c r="D28" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B29" s="51">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>310</v>
-      </c>
-      <c r="D29" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B30" s="51">
         <v>2.5</v>
       </c>
       <c r="C30" t="s">
-        <v>313</v>
-      </c>
-      <c r="D30" t="s">
-        <v>314</v>
+        <v>305</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B31" s="51">
         <v>1.5</v>
@@ -48343,10 +48524,11 @@
       <c r="C31">
         <v>13.05</v>
       </c>
+      <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B32" s="51">
         <v>2</v>
@@ -48354,85 +48536,114 @@
       <c r="C32">
         <v>18.05</v>
       </c>
-      <c r="D32" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="26" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B33" s="51">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>317</v>
-      </c>
-      <c r="D33" t="s">
-        <v>318</v>
+        <v>309</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B34" s="51">
         <v>0.5</v>
       </c>
       <c r="C34" t="s">
-        <v>241</v>
-      </c>
-      <c r="D34" t="s">
-        <v>319</v>
+        <v>233</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B35" s="51">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>241</v>
-      </c>
-      <c r="D35" t="s">
-        <v>315</v>
+        <v>233</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B36" s="51">
         <v>0.75</v>
       </c>
       <c r="C36" t="s">
-        <v>244</v>
-      </c>
-      <c r="D36" t="s">
-        <v>320</v>
+        <v>236</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B37" s="51">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>322</v>
-      </c>
-      <c r="D37" t="s">
-        <v>323</v>
+        <v>314</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>383</v>
+      </c>
+      <c r="B38" s="51">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>42150</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>384</v>
+      </c>
+      <c r="B39" s="51">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>42149</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -48459,7 +48670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -48475,7 +48686,7 @@
     <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="38" t="str">
         <f>CONCATENATE("Workload ",'Milestones + Packages'!I2)</f>
-        <v>Workload Sabina</v>
+        <v xml:space="preserve">Workload </v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -48483,19 +48694,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H3">
         <f>SUM(Table13[Time Spent (hours)])</f>
@@ -48510,7 +48721,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -48528,229 +48739,230 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B8" s="50">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B12">
         <v>1.5</v>
       </c>
       <c r="C12" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B13">
         <v>0.5</v>
       </c>
       <c r="C13" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B16">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -48796,19 +49008,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H3">
         <f>SUM(Table13456[Time Spent (hours)])</f>
@@ -48817,13 +49029,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -48837,8 +49049,9 @@
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
